--- a/pH_glider/water_sampling/sample_logs/RMI2_pH_Water_Sample_Log.xlsx
+++ b/pH_glider/water_sampling/sample_logs/RMI2_pH_Water_Sample_Log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/garzio/Documents/repo/rucool/dataset_archiving/pH_glider/water_sampling/sample_logs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F02C5FC-0BEF-CD42-8A35-F11E094F4E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{376FDD8C-559F-4C4F-B334-3E0391135217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37260" yWindow="500" windowWidth="35840" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17080" yWindow="500" windowWidth="20800" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SampleLog" sheetId="1" r:id="rId1"/>
@@ -37,9 +37,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="45">
   <si>
-    <t>Deployment Notes</t>
-  </si>
-  <si>
     <t>Sample #</t>
   </si>
   <si>
@@ -169,7 +166,10 @@
     <t>single niskin</t>
   </si>
   <si>
-    <t>Had issues with rosette, captured the rest of the samples with a single niskin. Temp/salinity are from the glider</t>
+    <t>Collection method</t>
+  </si>
+  <si>
+    <t>single_niskin</t>
   </si>
 </sst>
 </file>
@@ -526,7 +526,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q13" sqref="Q13:R13"/>
+      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -544,113 +544,113 @@
     <col min="11" max="11" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="33.1640625" customWidth="1"/>
-    <col min="26" max="26" width="59" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.83203125" customWidth="1"/>
+    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="33.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>28</v>
-      </c>
-      <c r="D2" t="s">
-        <v>29</v>
       </c>
       <c r="E2" s="3">
         <v>45770</v>
@@ -671,7 +671,7 @@
         <v>51.177999999999997</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -679,37 +679,37 @@
       <c r="M2">
         <v>1</v>
       </c>
-      <c r="N2">
+      <c r="N2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2">
         <v>500</v>
       </c>
-      <c r="O2" t="s">
-        <v>42</v>
-      </c>
-      <c r="P2">
+      <c r="P2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q2">
         <v>14</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>6.8342000000000001</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>30.8078</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
         <v>27</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>29</v>
       </c>
       <c r="E3" s="3">
         <v>45770</v>
@@ -730,7 +730,7 @@
         <v>51.177999999999997</v>
       </c>
       <c r="K3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L3">
         <v>1</v>
@@ -738,37 +738,37 @@
       <c r="M3">
         <v>1</v>
       </c>
-      <c r="N3">
+      <c r="N3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3">
         <v>500</v>
       </c>
-      <c r="O3" t="s">
-        <v>42</v>
-      </c>
-      <c r="P3">
+      <c r="P3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q3">
         <v>14</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>6.8342000000000001</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>30.8078</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
         <v>27</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>28</v>
-      </c>
-      <c r="D4" t="s">
-        <v>29</v>
       </c>
       <c r="E4" s="3">
         <v>45770</v>
@@ -789,7 +789,7 @@
         <v>51.177999999999997</v>
       </c>
       <c r="K4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -797,37 +797,37 @@
       <c r="M4">
         <v>3</v>
       </c>
-      <c r="N4">
+      <c r="N4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4">
         <v>500</v>
       </c>
-      <c r="O4" t="s">
-        <v>42</v>
-      </c>
-      <c r="P4">
+      <c r="P4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q4">
         <v>7</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>8.2327999999999992</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>28.705300000000001</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
         <v>27</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>28</v>
-      </c>
-      <c r="D5" t="s">
-        <v>29</v>
       </c>
       <c r="E5" s="3">
         <v>45770</v>
@@ -848,7 +848,7 @@
         <v>51.177999999999997</v>
       </c>
       <c r="K5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L5">
         <v>1</v>
@@ -856,37 +856,37 @@
       <c r="M5">
         <v>3</v>
       </c>
-      <c r="N5">
+      <c r="N5" t="s">
+        <v>41</v>
+      </c>
+      <c r="O5">
         <v>500</v>
       </c>
-      <c r="O5" t="s">
-        <v>42</v>
-      </c>
-      <c r="P5">
+      <c r="P5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q5">
         <v>7</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>8.2327999999999992</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>28.705300000000001</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>28</v>
-      </c>
-      <c r="D6" t="s">
-        <v>29</v>
       </c>
       <c r="E6" s="3">
         <v>45770</v>
@@ -907,7 +907,7 @@
         <v>51.177999999999997</v>
       </c>
       <c r="K6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L6">
         <v>2</v>
@@ -915,37 +915,37 @@
       <c r="M6">
         <v>1</v>
       </c>
-      <c r="N6">
+      <c r="N6" t="s">
+        <v>44</v>
+      </c>
+      <c r="O6">
         <v>500</v>
       </c>
-      <c r="O6" t="s">
-        <v>43</v>
-      </c>
-      <c r="P6">
+      <c r="P6" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q6">
         <v>2</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>9.7957999999999998</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>26.1554</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
         <v>27</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>28</v>
-      </c>
-      <c r="D7" t="s">
-        <v>29</v>
       </c>
       <c r="E7" s="3">
         <v>45770</v>
@@ -966,7 +966,7 @@
         <v>51.177999999999997</v>
       </c>
       <c r="K7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L7">
         <v>2</v>
@@ -974,37 +974,37 @@
       <c r="M7">
         <v>1</v>
       </c>
-      <c r="N7">
+      <c r="N7" t="s">
+        <v>44</v>
+      </c>
+      <c r="O7">
         <v>500</v>
       </c>
-      <c r="O7" t="s">
-        <v>43</v>
-      </c>
-      <c r="P7">
+      <c r="P7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q7">
         <v>2</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>9.7957999999999998</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>26.1554</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
         <v>27</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>28</v>
-      </c>
-      <c r="D8" t="s">
-        <v>29</v>
       </c>
       <c r="E8" s="3">
         <v>45770</v>
@@ -1025,7 +1025,7 @@
         <v>51.177999999999997</v>
       </c>
       <c r="K8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L8">
         <v>3</v>
@@ -1033,37 +1033,37 @@
       <c r="M8">
         <v>1</v>
       </c>
-      <c r="N8">
+      <c r="N8" t="s">
+        <v>44</v>
+      </c>
+      <c r="O8">
         <v>500</v>
       </c>
-      <c r="O8" t="s">
-        <v>43</v>
-      </c>
-      <c r="P8">
+      <c r="P8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q8">
         <v>7</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>8.2327999999999992</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>28.705300000000001</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
         <v>27</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>28</v>
-      </c>
-      <c r="D9" t="s">
-        <v>29</v>
       </c>
       <c r="E9" s="3">
         <v>45770</v>
@@ -1084,7 +1084,7 @@
         <v>51.177999999999997</v>
       </c>
       <c r="K9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L9">
         <v>3</v>
@@ -1092,37 +1092,37 @@
       <c r="M9">
         <v>1</v>
       </c>
-      <c r="N9">
+      <c r="N9" t="s">
+        <v>44</v>
+      </c>
+      <c r="O9">
         <v>500</v>
       </c>
-      <c r="O9" t="s">
-        <v>43</v>
-      </c>
-      <c r="P9">
+      <c r="P9" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q9">
         <v>7</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>8.2327999999999992</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>28.705300000000001</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
         <v>27</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>28</v>
-      </c>
-      <c r="D10" t="s">
-        <v>29</v>
       </c>
       <c r="E10" s="3">
         <v>45770</v>
@@ -1143,7 +1143,7 @@
         <v>51.177999999999997</v>
       </c>
       <c r="K10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L10">
         <v>4</v>
@@ -1151,37 +1151,37 @@
       <c r="M10">
         <v>1</v>
       </c>
-      <c r="N10">
+      <c r="N10" t="s">
+        <v>44</v>
+      </c>
+      <c r="O10">
         <v>500</v>
       </c>
-      <c r="O10" t="s">
-        <v>43</v>
-      </c>
-      <c r="P10">
+      <c r="P10" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q10">
         <v>14</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>6.8342000000000001</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>30.8078</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
         <v>27</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>28</v>
-      </c>
-      <c r="D11" t="s">
-        <v>29</v>
       </c>
       <c r="E11" s="3">
         <v>45770</v>
@@ -1202,7 +1202,7 @@
         <v>51.177999999999997</v>
       </c>
       <c r="K11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L11">
         <v>4</v>
@@ -1210,37 +1210,37 @@
       <c r="M11">
         <v>1</v>
       </c>
-      <c r="N11">
+      <c r="N11" t="s">
+        <v>44</v>
+      </c>
+      <c r="O11">
         <v>500</v>
       </c>
-      <c r="O11" t="s">
-        <v>43</v>
-      </c>
-      <c r="P11">
+      <c r="P11" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q11">
         <v>14</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>6.8342000000000001</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>30.8078</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
         <v>27</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>28</v>
-      </c>
-      <c r="D12" t="s">
-        <v>29</v>
       </c>
       <c r="E12" s="3">
         <v>45770</v>
@@ -1261,7 +1261,7 @@
         <v>51.177999999999997</v>
       </c>
       <c r="K12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L12">
         <v>5</v>
@@ -1269,37 +1269,37 @@
       <c r="M12">
         <v>1</v>
       </c>
-      <c r="N12">
+      <c r="N12" t="s">
+        <v>44</v>
+      </c>
+      <c r="O12">
         <v>500</v>
       </c>
-      <c r="O12" t="s">
-        <v>43</v>
-      </c>
-      <c r="P12">
+      <c r="P12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q12">
         <v>2</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>9.7957999999999998</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>26.1554</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
         <v>27</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>28</v>
-      </c>
-      <c r="D13" t="s">
-        <v>29</v>
       </c>
       <c r="E13" s="3">
         <v>45770</v>
@@ -1320,7 +1320,7 @@
         <v>51.177999999999997</v>
       </c>
       <c r="K13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L13">
         <v>5</v>
@@ -1328,23 +1328,23 @@
       <c r="M13">
         <v>1</v>
       </c>
-      <c r="N13">
+      <c r="N13" t="s">
+        <v>44</v>
+      </c>
+      <c r="O13">
         <v>500</v>
       </c>
-      <c r="O13" t="s">
-        <v>43</v>
-      </c>
-      <c r="P13">
+      <c r="P13" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q13">
         <v>2</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>9.7957999999999998</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>26.1554</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/pH_glider/water_sampling/sample_logs/RMI2_pH_Water_Sample_Log.xlsx
+++ b/pH_glider/water_sampling/sample_logs/RMI2_pH_Water_Sample_Log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/garzio/Documents/repo/rucool/dataset_archiving/pH_glider/water_sampling/sample_logs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{376FDD8C-559F-4C4F-B334-3E0391135217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762A67D1-2696-5140-A675-38E1C7621607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17080" yWindow="500" windowWidth="20800" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="500" windowWidth="34520" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SampleLog" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="73">
   <si>
     <t>Sample #</t>
   </si>
@@ -170,6 +170,90 @@
   </si>
   <si>
     <t>single_niskin</t>
+  </si>
+  <si>
+    <t>RMI 2025 Spring Recovery</t>
+  </si>
+  <si>
+    <t>recovery</t>
+  </si>
+  <si>
+    <t>RMI-RU-257</t>
+  </si>
+  <si>
+    <t>RMI-RU-258</t>
+  </si>
+  <si>
+    <t>RMI-RU-259</t>
+  </si>
+  <si>
+    <t>RMI-RU-260</t>
+  </si>
+  <si>
+    <t>RMI-RU-261</t>
+  </si>
+  <si>
+    <t>RMI-RU-262</t>
+  </si>
+  <si>
+    <t>RMI-RU-263</t>
+  </si>
+  <si>
+    <t>RMI-RU-264</t>
+  </si>
+  <si>
+    <t>RMI-RU-265</t>
+  </si>
+  <si>
+    <t>RMI-RU-266</t>
+  </si>
+  <si>
+    <t>RMI-RU-267</t>
+  </si>
+  <si>
+    <t>RMI-RU-268</t>
+  </si>
+  <si>
+    <t>RMI-RU-269</t>
+  </si>
+  <si>
+    <t>RMI-RU-270</t>
+  </si>
+  <si>
+    <t>RMI-RU-271</t>
+  </si>
+  <si>
+    <t>RMI-RU-272</t>
+  </si>
+  <si>
+    <t>RMI-RU-273</t>
+  </si>
+  <si>
+    <t>RMI-RU-274</t>
+  </si>
+  <si>
+    <t>RMI-RU-275</t>
+  </si>
+  <si>
+    <t>RMI-RU-276</t>
+  </si>
+  <si>
+    <t>RMI-RU-277</t>
+  </si>
+  <si>
+    <t>RMI-RU-278</t>
+  </si>
+  <si>
+    <t>RMI-RU-279</t>
+  </si>
+  <si>
+    <t>RMI-RU-280</t>
+  </si>
+  <si>
+    <t>ctd data from ctd profile not bottle file. CTD was on rosette</t>
+  </si>
+  <si>
+    <t>rosette bottles didn't close, so collected this sample immediately after rosette on board with single_niskin; ctd data from ctd profile not bottle file. CTD was on rosette</t>
   </si>
 </sst>
 </file>
@@ -522,11 +606,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z13"/>
+  <dimension ref="A1:Z37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
+      <selection pane="bottomLeft" activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -535,7 +619,7 @@
     <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
@@ -1347,6 +1431,1422 @@
         <v>26.1554</v>
       </c>
     </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="3">
+        <v>45797</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.68194444444444446</v>
+      </c>
+      <c r="G14">
+        <v>39</v>
+      </c>
+      <c r="H14">
+        <v>15.118</v>
+      </c>
+      <c r="I14">
+        <v>-74</v>
+      </c>
+      <c r="J14">
+        <v>24.123000000000001</v>
+      </c>
+      <c r="K14" t="s">
+        <v>47</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>41</v>
+      </c>
+      <c r="O14">
+        <v>500</v>
+      </c>
+      <c r="P14" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q14">
+        <v>2</v>
+      </c>
+      <c r="R14">
+        <v>14.697900000000001</v>
+      </c>
+      <c r="S14">
+        <v>30.857299999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="3">
+        <v>45797</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.68194444444444446</v>
+      </c>
+      <c r="G15">
+        <v>39</v>
+      </c>
+      <c r="H15">
+        <v>15.118</v>
+      </c>
+      <c r="I15">
+        <v>-74</v>
+      </c>
+      <c r="J15">
+        <v>24.123000000000001</v>
+      </c>
+      <c r="K15" t="s">
+        <v>48</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>41</v>
+      </c>
+      <c r="O15">
+        <v>500</v>
+      </c>
+      <c r="P15" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q15">
+        <v>2</v>
+      </c>
+      <c r="R15">
+        <v>14.697900000000001</v>
+      </c>
+      <c r="S15">
+        <v>30.857299999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="3">
+        <v>45797</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0.68194444444444446</v>
+      </c>
+      <c r="G16">
+        <v>39</v>
+      </c>
+      <c r="H16">
+        <v>15.118</v>
+      </c>
+      <c r="I16">
+        <v>-74</v>
+      </c>
+      <c r="J16">
+        <v>24.123000000000001</v>
+      </c>
+      <c r="K16" t="s">
+        <v>49</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>41</v>
+      </c>
+      <c r="O16">
+        <v>500</v>
+      </c>
+      <c r="P16" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q16">
+        <v>8</v>
+      </c>
+      <c r="R16">
+        <v>14.4185</v>
+      </c>
+      <c r="S16">
+        <v>31.1082</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="3">
+        <v>45797</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0.68194444444444446</v>
+      </c>
+      <c r="G17">
+        <v>39</v>
+      </c>
+      <c r="H17">
+        <v>15.118</v>
+      </c>
+      <c r="I17">
+        <v>-74</v>
+      </c>
+      <c r="J17">
+        <v>24.123000000000001</v>
+      </c>
+      <c r="K17" t="s">
+        <v>50</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>41</v>
+      </c>
+      <c r="O17">
+        <v>500</v>
+      </c>
+      <c r="P17" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q17">
+        <v>8</v>
+      </c>
+      <c r="R17">
+        <v>14.4185</v>
+      </c>
+      <c r="S17">
+        <v>31.1082</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="3">
+        <v>45797</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0.68194444444444446</v>
+      </c>
+      <c r="G18">
+        <v>39</v>
+      </c>
+      <c r="H18">
+        <v>15.118</v>
+      </c>
+      <c r="I18">
+        <v>-74</v>
+      </c>
+      <c r="J18">
+        <v>24.123000000000001</v>
+      </c>
+      <c r="K18" t="s">
+        <v>51</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2</v>
+      </c>
+      <c r="N18" t="s">
+        <v>41</v>
+      </c>
+      <c r="O18">
+        <v>500</v>
+      </c>
+      <c r="P18" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q18">
+        <v>14</v>
+      </c>
+      <c r="R18">
+        <v>12.456200000000001</v>
+      </c>
+      <c r="S18">
+        <v>32.173999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="3">
+        <v>45797</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0.68194444444444446</v>
+      </c>
+      <c r="G19">
+        <v>39</v>
+      </c>
+      <c r="H19">
+        <v>15.118</v>
+      </c>
+      <c r="I19">
+        <v>-74</v>
+      </c>
+      <c r="J19">
+        <v>24.123000000000001</v>
+      </c>
+      <c r="K19" t="s">
+        <v>52</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>2</v>
+      </c>
+      <c r="N19" t="s">
+        <v>41</v>
+      </c>
+      <c r="O19">
+        <v>500</v>
+      </c>
+      <c r="P19" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q19">
+        <v>14</v>
+      </c>
+      <c r="R19">
+        <v>12.456200000000001</v>
+      </c>
+      <c r="S19">
+        <v>32.173999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="3">
+        <v>45797</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0.68194444444444446</v>
+      </c>
+      <c r="G20">
+        <v>39</v>
+      </c>
+      <c r="H20">
+        <v>15.118</v>
+      </c>
+      <c r="I20">
+        <v>-74</v>
+      </c>
+      <c r="J20">
+        <v>24.123000000000001</v>
+      </c>
+      <c r="K20" t="s">
+        <v>53</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s">
+        <v>41</v>
+      </c>
+      <c r="O20">
+        <v>500</v>
+      </c>
+      <c r="P20" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q20">
+        <v>14</v>
+      </c>
+      <c r="R20">
+        <v>12.456200000000001</v>
+      </c>
+      <c r="S20">
+        <v>32.173999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="3">
+        <v>45797</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0.68194444444444446</v>
+      </c>
+      <c r="G21">
+        <v>39</v>
+      </c>
+      <c r="H21">
+        <v>15.118</v>
+      </c>
+      <c r="I21">
+        <v>-74</v>
+      </c>
+      <c r="J21">
+        <v>24.123000000000001</v>
+      </c>
+      <c r="K21" t="s">
+        <v>54</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>2</v>
+      </c>
+      <c r="N21" t="s">
+        <v>41</v>
+      </c>
+      <c r="O21">
+        <v>500</v>
+      </c>
+      <c r="P21" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q21">
+        <v>14</v>
+      </c>
+      <c r="R21">
+        <v>12.456200000000001</v>
+      </c>
+      <c r="S21">
+        <v>32.173999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="3">
+        <v>45797</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0.68194444444444446</v>
+      </c>
+      <c r="G22">
+        <v>39</v>
+      </c>
+      <c r="H22">
+        <v>15.118</v>
+      </c>
+      <c r="I22">
+        <v>-74</v>
+      </c>
+      <c r="J22">
+        <v>24.123000000000001</v>
+      </c>
+      <c r="K22" t="s">
+        <v>55</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>41</v>
+      </c>
+      <c r="O22">
+        <v>500</v>
+      </c>
+      <c r="P22" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q22">
+        <v>14</v>
+      </c>
+      <c r="R22">
+        <v>12.456200000000001</v>
+      </c>
+      <c r="S22">
+        <v>32.173999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="3">
+        <v>45797</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0.68194444444444446</v>
+      </c>
+      <c r="G23">
+        <v>39</v>
+      </c>
+      <c r="H23">
+        <v>15.118</v>
+      </c>
+      <c r="I23">
+        <v>-74</v>
+      </c>
+      <c r="J23">
+        <v>24.123000000000001</v>
+      </c>
+      <c r="K23" t="s">
+        <v>56</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>41</v>
+      </c>
+      <c r="O23">
+        <v>500</v>
+      </c>
+      <c r="P23" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q23">
+        <v>14</v>
+      </c>
+      <c r="R23">
+        <v>12.456200000000001</v>
+      </c>
+      <c r="S23">
+        <v>32.173999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="3">
+        <v>45797</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0.68194444444444446</v>
+      </c>
+      <c r="G24">
+        <v>39</v>
+      </c>
+      <c r="H24">
+        <v>15.118</v>
+      </c>
+      <c r="I24">
+        <v>-74</v>
+      </c>
+      <c r="J24">
+        <v>24.123000000000001</v>
+      </c>
+      <c r="K24" t="s">
+        <v>57</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>41</v>
+      </c>
+      <c r="O24">
+        <v>500</v>
+      </c>
+      <c r="P24" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q24">
+        <v>14</v>
+      </c>
+      <c r="R24">
+        <v>12.456200000000001</v>
+      </c>
+      <c r="S24">
+        <v>32.173999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="3">
+        <v>45797</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0.68194444444444446</v>
+      </c>
+      <c r="G25">
+        <v>39</v>
+      </c>
+      <c r="H25">
+        <v>15.118</v>
+      </c>
+      <c r="I25">
+        <v>-74</v>
+      </c>
+      <c r="J25">
+        <v>24.123000000000001</v>
+      </c>
+      <c r="K25" t="s">
+        <v>58</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>41</v>
+      </c>
+      <c r="O25">
+        <v>500</v>
+      </c>
+      <c r="P25" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q25">
+        <v>14</v>
+      </c>
+      <c r="R25">
+        <v>12.456200000000001</v>
+      </c>
+      <c r="S25">
+        <v>32.173999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="3">
+        <v>45797</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0.72569444444444442</v>
+      </c>
+      <c r="G26">
+        <v>39</v>
+      </c>
+      <c r="H26">
+        <v>15.23</v>
+      </c>
+      <c r="I26">
+        <v>-74</v>
+      </c>
+      <c r="J26">
+        <v>25.279</v>
+      </c>
+      <c r="K26" t="s">
+        <v>59</v>
+      </c>
+      <c r="L26">
+        <v>3</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>44</v>
+      </c>
+      <c r="O26">
+        <v>500</v>
+      </c>
+      <c r="P26" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q26">
+        <v>2</v>
+      </c>
+      <c r="R26">
+        <v>14.8284</v>
+      </c>
+      <c r="S26">
+        <v>30.6187</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="3">
+        <v>45797</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0.72569444444444442</v>
+      </c>
+      <c r="G27">
+        <v>39</v>
+      </c>
+      <c r="H27">
+        <v>15.23</v>
+      </c>
+      <c r="I27">
+        <v>-74</v>
+      </c>
+      <c r="J27">
+        <v>25.279</v>
+      </c>
+      <c r="K27" t="s">
+        <v>60</v>
+      </c>
+      <c r="L27">
+        <v>3</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O27">
+        <v>500</v>
+      </c>
+      <c r="P27" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q27">
+        <v>2</v>
+      </c>
+      <c r="R27">
+        <v>14.8284</v>
+      </c>
+      <c r="S27">
+        <v>30.6187</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" s="3">
+        <v>45797</v>
+      </c>
+      <c r="F28" s="4">
+        <v>0.72569444444444442</v>
+      </c>
+      <c r="G28">
+        <v>39</v>
+      </c>
+      <c r="H28">
+        <v>15.23</v>
+      </c>
+      <c r="I28">
+        <v>-74</v>
+      </c>
+      <c r="J28">
+        <v>25.279</v>
+      </c>
+      <c r="K28" t="s">
+        <v>61</v>
+      </c>
+      <c r="L28">
+        <v>3</v>
+      </c>
+      <c r="M28">
+        <v>3</v>
+      </c>
+      <c r="N28" t="s">
+        <v>41</v>
+      </c>
+      <c r="O28">
+        <v>500</v>
+      </c>
+      <c r="P28" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q28">
+        <v>8</v>
+      </c>
+      <c r="R28">
+        <v>14.4033</v>
+      </c>
+      <c r="S28">
+        <v>30.9907</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="3">
+        <v>45797</v>
+      </c>
+      <c r="F29" s="4">
+        <v>0.72569444444444442</v>
+      </c>
+      <c r="G29">
+        <v>39</v>
+      </c>
+      <c r="H29">
+        <v>15.23</v>
+      </c>
+      <c r="I29">
+        <v>-74</v>
+      </c>
+      <c r="J29">
+        <v>25.279</v>
+      </c>
+      <c r="K29" t="s">
+        <v>62</v>
+      </c>
+      <c r="L29">
+        <v>3</v>
+      </c>
+      <c r="M29">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>41</v>
+      </c>
+      <c r="O29">
+        <v>500</v>
+      </c>
+      <c r="P29" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q29">
+        <v>8</v>
+      </c>
+      <c r="R29">
+        <v>14.4033</v>
+      </c>
+      <c r="S29">
+        <v>30.9907</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" s="3">
+        <v>45797</v>
+      </c>
+      <c r="F30" s="4">
+        <v>0.72569444444444442</v>
+      </c>
+      <c r="G30">
+        <v>39</v>
+      </c>
+      <c r="H30">
+        <v>15.23</v>
+      </c>
+      <c r="I30">
+        <v>-74</v>
+      </c>
+      <c r="J30">
+        <v>25.279</v>
+      </c>
+      <c r="K30" t="s">
+        <v>63</v>
+      </c>
+      <c r="L30">
+        <v>3</v>
+      </c>
+      <c r="M30">
+        <v>2</v>
+      </c>
+      <c r="N30" t="s">
+        <v>41</v>
+      </c>
+      <c r="O30">
+        <v>500</v>
+      </c>
+      <c r="P30" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q30">
+        <v>14</v>
+      </c>
+      <c r="R30">
+        <v>13.204700000000001</v>
+      </c>
+      <c r="S30">
+        <v>32.188000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>46</v>
+      </c>
+      <c r="E31" s="3">
+        <v>45797</v>
+      </c>
+      <c r="F31" s="4">
+        <v>0.72569444444444442</v>
+      </c>
+      <c r="G31">
+        <v>39</v>
+      </c>
+      <c r="H31">
+        <v>15.23</v>
+      </c>
+      <c r="I31">
+        <v>-74</v>
+      </c>
+      <c r="J31">
+        <v>25.279</v>
+      </c>
+      <c r="K31" t="s">
+        <v>64</v>
+      </c>
+      <c r="L31">
+        <v>3</v>
+      </c>
+      <c r="M31">
+        <v>2</v>
+      </c>
+      <c r="N31" t="s">
+        <v>41</v>
+      </c>
+      <c r="O31">
+        <v>500</v>
+      </c>
+      <c r="P31" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q31">
+        <v>14</v>
+      </c>
+      <c r="R31">
+        <v>13.204700000000001</v>
+      </c>
+      <c r="S31">
+        <v>32.188000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" s="3">
+        <v>45797</v>
+      </c>
+      <c r="F32" s="4">
+        <v>0.72569444444444442</v>
+      </c>
+      <c r="G32">
+        <v>39</v>
+      </c>
+      <c r="H32">
+        <v>15.23</v>
+      </c>
+      <c r="I32">
+        <v>-74</v>
+      </c>
+      <c r="J32">
+        <v>25.279</v>
+      </c>
+      <c r="K32" t="s">
+        <v>65</v>
+      </c>
+      <c r="L32">
+        <v>3</v>
+      </c>
+      <c r="M32">
+        <v>2</v>
+      </c>
+      <c r="N32" t="s">
+        <v>41</v>
+      </c>
+      <c r="O32">
+        <v>500</v>
+      </c>
+      <c r="P32" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q32">
+        <v>14</v>
+      </c>
+      <c r="R32">
+        <v>13.204700000000001</v>
+      </c>
+      <c r="S32">
+        <v>32.188000000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" s="3">
+        <v>45797</v>
+      </c>
+      <c r="F33" s="4">
+        <v>0.72569444444444442</v>
+      </c>
+      <c r="G33">
+        <v>39</v>
+      </c>
+      <c r="H33">
+        <v>15.23</v>
+      </c>
+      <c r="I33">
+        <v>-74</v>
+      </c>
+      <c r="J33">
+        <v>25.279</v>
+      </c>
+      <c r="K33" t="s">
+        <v>66</v>
+      </c>
+      <c r="L33">
+        <v>3</v>
+      </c>
+      <c r="M33">
+        <v>2</v>
+      </c>
+      <c r="N33" t="s">
+        <v>41</v>
+      </c>
+      <c r="O33">
+        <v>500</v>
+      </c>
+      <c r="P33" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q33">
+        <v>14</v>
+      </c>
+      <c r="R33">
+        <v>13.204700000000001</v>
+      </c>
+      <c r="S33">
+        <v>32.188000000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E34" s="3">
+        <v>45797</v>
+      </c>
+      <c r="F34" s="4">
+        <v>0.72569444444444442</v>
+      </c>
+      <c r="G34">
+        <v>39</v>
+      </c>
+      <c r="H34">
+        <v>15.23</v>
+      </c>
+      <c r="I34">
+        <v>-74</v>
+      </c>
+      <c r="J34">
+        <v>25.279</v>
+      </c>
+      <c r="K34" t="s">
+        <v>67</v>
+      </c>
+      <c r="L34">
+        <v>3</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s">
+        <v>41</v>
+      </c>
+      <c r="O34">
+        <v>500</v>
+      </c>
+      <c r="P34" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q34">
+        <v>14</v>
+      </c>
+      <c r="R34">
+        <v>13.204700000000001</v>
+      </c>
+      <c r="S34">
+        <v>32.188000000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>46</v>
+      </c>
+      <c r="E35" s="3">
+        <v>45797</v>
+      </c>
+      <c r="F35" s="4">
+        <v>0.72569444444444442</v>
+      </c>
+      <c r="G35">
+        <v>39</v>
+      </c>
+      <c r="H35">
+        <v>15.23</v>
+      </c>
+      <c r="I35">
+        <v>-74</v>
+      </c>
+      <c r="J35">
+        <v>25.279</v>
+      </c>
+      <c r="K35" t="s">
+        <v>68</v>
+      </c>
+      <c r="L35">
+        <v>3</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
+        <v>41</v>
+      </c>
+      <c r="O35">
+        <v>500</v>
+      </c>
+      <c r="P35" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q35">
+        <v>14</v>
+      </c>
+      <c r="R35">
+        <v>13.204700000000001</v>
+      </c>
+      <c r="S35">
+        <v>32.188000000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>46</v>
+      </c>
+      <c r="E36" s="3">
+        <v>45797</v>
+      </c>
+      <c r="F36" s="4">
+        <v>0.72569444444444442</v>
+      </c>
+      <c r="G36">
+        <v>39</v>
+      </c>
+      <c r="H36">
+        <v>15.23</v>
+      </c>
+      <c r="I36">
+        <v>-74</v>
+      </c>
+      <c r="J36">
+        <v>25.279</v>
+      </c>
+      <c r="K36" t="s">
+        <v>69</v>
+      </c>
+      <c r="L36">
+        <v>3</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
+        <v>41</v>
+      </c>
+      <c r="O36">
+        <v>500</v>
+      </c>
+      <c r="P36" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q36">
+        <v>14</v>
+      </c>
+      <c r="R36">
+        <v>13.204700000000001</v>
+      </c>
+      <c r="S36">
+        <v>32.188000000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37" s="3">
+        <v>45797</v>
+      </c>
+      <c r="F37" s="4">
+        <v>0.72569444444444442</v>
+      </c>
+      <c r="G37">
+        <v>39</v>
+      </c>
+      <c r="H37">
+        <v>15.23</v>
+      </c>
+      <c r="I37">
+        <v>-74</v>
+      </c>
+      <c r="J37">
+        <v>25.279</v>
+      </c>
+      <c r="K37" t="s">
+        <v>70</v>
+      </c>
+      <c r="L37">
+        <v>3</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+      <c r="N37" t="s">
+        <v>41</v>
+      </c>
+      <c r="O37">
+        <v>500</v>
+      </c>
+      <c r="P37" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q37">
+        <v>14</v>
+      </c>
+      <c r="R37">
+        <v>13.204700000000001</v>
+      </c>
+      <c r="S37">
+        <v>32.188000000000002</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pH_glider/water_sampling/sample_logs/RMI2_pH_Water_Sample_Log.xlsx
+++ b/pH_glider/water_sampling/sample_logs/RMI2_pH_Water_Sample_Log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/garzio/Documents/repo/rucool/dataset_archiving/pH_glider/water_sampling/sample_logs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762A67D1-2696-5140-A675-38E1C7621607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE2268B-AA45-7647-B340-AD594A4F478C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="500" windowWidth="34520" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="34520" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SampleLog" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="76">
   <si>
     <t>Sample #</t>
   </si>
@@ -61,18 +61,6 @@
     <t>pH Stdev</t>
   </si>
   <si>
-    <t>Average TA</t>
-  </si>
-  <si>
-    <t>TA Stdev</t>
-  </si>
-  <si>
-    <t>Average DIC</t>
-  </si>
-  <si>
-    <t>DIC Stdev</t>
-  </si>
-  <si>
     <t>Station ID</t>
   </si>
   <si>
@@ -254,6 +242,27 @@
   </si>
   <si>
     <t>rosette bottles didn't close, so collected this sample immediately after rosette on board with single_niskin; ctd data from ctd profile not bottle file. CTD was on rosette</t>
+  </si>
+  <si>
+    <t>Average DIC (umol/kg)</t>
+  </si>
+  <si>
+    <t>DIC Stdev (umol/kg)</t>
+  </si>
+  <si>
+    <t>Average TA (umol/kg)</t>
+  </si>
+  <si>
+    <t>TA Stdev (umol/kg)</t>
+  </si>
+  <si>
+    <t>pH_from_DIC_TA_total_25C</t>
+  </si>
+  <si>
+    <t>pH(measured-calculated)</t>
+  </si>
+  <si>
+    <t>pH_flag</t>
   </si>
 </sst>
 </file>
@@ -606,11 +615,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z37"/>
+  <dimension ref="A1:AC37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M29" sqref="M29"/>
+      <selection pane="bottomLeft" activeCell="AB6" sqref="AB6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -636,43 +645,46 @@
     <col min="19" max="19" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="8" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="33.1640625" customWidth="1"/>
+    <col min="22" max="22" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="33.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="J1" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>0</v>
@@ -681,13 +693,13 @@
         <v>1</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>4</v>
@@ -708,33 +720,42 @@
         <v>7</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="Y1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Z1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E2" s="3">
         <v>45770</v>
@@ -755,7 +776,7 @@
         <v>51.177999999999997</v>
       </c>
       <c r="K2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -764,13 +785,13 @@
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="O2">
         <v>500</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="Q2">
         <v>14</v>
@@ -782,18 +803,18 @@
         <v>30.8078</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E3" s="3">
         <v>45770</v>
@@ -814,7 +835,7 @@
         <v>51.177999999999997</v>
       </c>
       <c r="K3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L3">
         <v>1</v>
@@ -823,13 +844,13 @@
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="O3">
         <v>500</v>
       </c>
       <c r="P3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="Q3">
         <v>14</v>
@@ -841,18 +862,18 @@
         <v>30.8078</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E4" s="3">
         <v>45770</v>
@@ -873,7 +894,7 @@
         <v>51.177999999999997</v>
       </c>
       <c r="K4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -882,13 +903,13 @@
         <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="O4">
         <v>500</v>
       </c>
       <c r="P4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="Q4">
         <v>7</v>
@@ -900,18 +921,18 @@
         <v>28.705300000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E5" s="3">
         <v>45770</v>
@@ -932,7 +953,7 @@
         <v>51.177999999999997</v>
       </c>
       <c r="K5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="L5">
         <v>1</v>
@@ -941,13 +962,13 @@
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="O5">
         <v>500</v>
       </c>
       <c r="P5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="Q5">
         <v>7</v>
@@ -959,18 +980,18 @@
         <v>28.705300000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E6" s="3">
         <v>45770</v>
@@ -991,7 +1012,7 @@
         <v>51.177999999999997</v>
       </c>
       <c r="K6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L6">
         <v>2</v>
@@ -1000,13 +1021,13 @@
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="O6">
         <v>500</v>
       </c>
       <c r="P6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="Q6">
         <v>2</v>
@@ -1018,18 +1039,18 @@
         <v>26.1554</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E7" s="3">
         <v>45770</v>
@@ -1050,7 +1071,7 @@
         <v>51.177999999999997</v>
       </c>
       <c r="K7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="L7">
         <v>2</v>
@@ -1059,13 +1080,13 @@
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="O7">
         <v>500</v>
       </c>
       <c r="P7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="Q7">
         <v>2</v>
@@ -1077,18 +1098,18 @@
         <v>26.1554</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E8" s="3">
         <v>45770</v>
@@ -1109,7 +1130,7 @@
         <v>51.177999999999997</v>
       </c>
       <c r="K8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="L8">
         <v>3</v>
@@ -1118,13 +1139,13 @@
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="O8">
         <v>500</v>
       </c>
       <c r="P8" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="Q8">
         <v>7</v>
@@ -1136,18 +1157,18 @@
         <v>28.705300000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E9" s="3">
         <v>45770</v>
@@ -1168,7 +1189,7 @@
         <v>51.177999999999997</v>
       </c>
       <c r="K9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="L9">
         <v>3</v>
@@ -1177,13 +1198,13 @@
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="O9">
         <v>500</v>
       </c>
       <c r="P9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="Q9">
         <v>7</v>
@@ -1195,18 +1216,18 @@
         <v>28.705300000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E10" s="3">
         <v>45770</v>
@@ -1227,7 +1248,7 @@
         <v>51.177999999999997</v>
       </c>
       <c r="K10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L10">
         <v>4</v>
@@ -1236,13 +1257,13 @@
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="O10">
         <v>500</v>
       </c>
       <c r="P10" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="Q10">
         <v>14</v>
@@ -1254,18 +1275,18 @@
         <v>30.8078</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E11" s="3">
         <v>45770</v>
@@ -1286,7 +1307,7 @@
         <v>51.177999999999997</v>
       </c>
       <c r="K11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="L11">
         <v>4</v>
@@ -1295,13 +1316,13 @@
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="O11">
         <v>500</v>
       </c>
       <c r="P11" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="Q11">
         <v>14</v>
@@ -1313,18 +1334,18 @@
         <v>30.8078</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E12" s="3">
         <v>45770</v>
@@ -1345,7 +1366,7 @@
         <v>51.177999999999997</v>
       </c>
       <c r="K12" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="L12">
         <v>5</v>
@@ -1354,13 +1375,13 @@
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="O12">
         <v>500</v>
       </c>
       <c r="P12" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="Q12">
         <v>2</v>
@@ -1372,18 +1393,18 @@
         <v>26.1554</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E13" s="3">
         <v>45770</v>
@@ -1404,7 +1425,7 @@
         <v>51.177999999999997</v>
       </c>
       <c r="K13" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L13">
         <v>5</v>
@@ -1413,13 +1434,13 @@
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="O13">
         <v>500</v>
       </c>
       <c r="P13" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -1431,18 +1452,18 @@
         <v>26.1554</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E14" s="3">
         <v>45797</v>
@@ -1463,7 +1484,7 @@
         <v>24.123000000000001</v>
       </c>
       <c r="K14" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="L14">
         <v>1</v>
@@ -1472,13 +1493,13 @@
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="O14">
         <v>500</v>
       </c>
       <c r="P14" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="Q14">
         <v>2</v>
@@ -1490,18 +1511,18 @@
         <v>30.857299999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E15" s="3">
         <v>45797</v>
@@ -1522,7 +1543,7 @@
         <v>24.123000000000001</v>
       </c>
       <c r="K15" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="L15">
         <v>1</v>
@@ -1531,13 +1552,13 @@
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="O15">
         <v>500</v>
       </c>
       <c r="P15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -1549,18 +1570,18 @@
         <v>30.857299999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E16" s="3">
         <v>45797</v>
@@ -1581,7 +1602,7 @@
         <v>24.123000000000001</v>
       </c>
       <c r="K16" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="L16">
         <v>1</v>
@@ -1590,13 +1611,13 @@
         <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="O16">
         <v>500</v>
       </c>
       <c r="P16" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="Q16">
         <v>8</v>
@@ -1610,16 +1631,16 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D17" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E17" s="3">
         <v>45797</v>
@@ -1640,7 +1661,7 @@
         <v>24.123000000000001</v>
       </c>
       <c r="K17" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="L17">
         <v>1</v>
@@ -1649,13 +1670,13 @@
         <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="O17">
         <v>500</v>
       </c>
       <c r="P17" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="Q17">
         <v>8</v>
@@ -1669,16 +1690,16 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D18" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E18" s="3">
         <v>45797</v>
@@ -1699,7 +1720,7 @@
         <v>24.123000000000001</v>
       </c>
       <c r="K18" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="L18">
         <v>1</v>
@@ -1708,13 +1729,13 @@
         <v>2</v>
       </c>
       <c r="N18" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="O18">
         <v>500</v>
       </c>
       <c r="P18" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="Q18">
         <v>14</v>
@@ -1728,16 +1749,16 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D19" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E19" s="3">
         <v>45797</v>
@@ -1758,7 +1779,7 @@
         <v>24.123000000000001</v>
       </c>
       <c r="K19" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="L19">
         <v>1</v>
@@ -1767,13 +1788,13 @@
         <v>2</v>
       </c>
       <c r="N19" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="O19">
         <v>500</v>
       </c>
       <c r="P19" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="Q19">
         <v>14</v>
@@ -1787,16 +1808,16 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D20" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E20" s="3">
         <v>45797</v>
@@ -1817,7 +1838,7 @@
         <v>24.123000000000001</v>
       </c>
       <c r="K20" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="L20">
         <v>1</v>
@@ -1826,13 +1847,13 @@
         <v>2</v>
       </c>
       <c r="N20" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="O20">
         <v>500</v>
       </c>
       <c r="P20" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="Q20">
         <v>14</v>
@@ -1846,16 +1867,16 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D21" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E21" s="3">
         <v>45797</v>
@@ -1876,7 +1897,7 @@
         <v>24.123000000000001</v>
       </c>
       <c r="K21" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L21">
         <v>1</v>
@@ -1885,13 +1906,13 @@
         <v>2</v>
       </c>
       <c r="N21" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="O21">
         <v>500</v>
       </c>
       <c r="P21" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="Q21">
         <v>14</v>
@@ -1905,16 +1926,16 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D22" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E22" s="3">
         <v>45797</v>
@@ -1935,7 +1956,7 @@
         <v>24.123000000000001</v>
       </c>
       <c r="K22" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="L22">
         <v>1</v>
@@ -1944,13 +1965,13 @@
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="O22">
         <v>500</v>
       </c>
       <c r="P22" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="Q22">
         <v>14</v>
@@ -1964,16 +1985,16 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D23" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E23" s="3">
         <v>45797</v>
@@ -1994,7 +2015,7 @@
         <v>24.123000000000001</v>
       </c>
       <c r="K23" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="L23">
         <v>1</v>
@@ -2003,13 +2024,13 @@
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="O23">
         <v>500</v>
       </c>
       <c r="P23" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="Q23">
         <v>14</v>
@@ -2023,16 +2044,16 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E24" s="3">
         <v>45797</v>
@@ -2053,7 +2074,7 @@
         <v>24.123000000000001</v>
       </c>
       <c r="K24" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L24">
         <v>1</v>
@@ -2062,13 +2083,13 @@
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="O24">
         <v>500</v>
       </c>
       <c r="P24" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="Q24">
         <v>14</v>
@@ -2082,16 +2103,16 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D25" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E25" s="3">
         <v>45797</v>
@@ -2112,7 +2133,7 @@
         <v>24.123000000000001</v>
       </c>
       <c r="K25" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="L25">
         <v>1</v>
@@ -2121,13 +2142,13 @@
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="O25">
         <v>500</v>
       </c>
       <c r="P25" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="Q25">
         <v>14</v>
@@ -2141,16 +2162,16 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D26" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E26" s="3">
         <v>45797</v>
@@ -2171,7 +2192,7 @@
         <v>25.279</v>
       </c>
       <c r="K26" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="L26">
         <v>3</v>
@@ -2180,13 +2201,13 @@
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="O26">
         <v>500</v>
       </c>
       <c r="P26" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -2200,16 +2221,16 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D27" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E27" s="3">
         <v>45797</v>
@@ -2230,7 +2251,7 @@
         <v>25.279</v>
       </c>
       <c r="K27" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="L27">
         <v>3</v>
@@ -2239,13 +2260,13 @@
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="O27">
         <v>500</v>
       </c>
       <c r="P27" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -2259,16 +2280,16 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D28" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E28" s="3">
         <v>45797</v>
@@ -2289,7 +2310,7 @@
         <v>25.279</v>
       </c>
       <c r="K28" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="L28">
         <v>3</v>
@@ -2298,13 +2319,13 @@
         <v>3</v>
       </c>
       <c r="N28" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="O28">
         <v>500</v>
       </c>
       <c r="P28" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="Q28">
         <v>8</v>
@@ -2318,16 +2339,16 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B29" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D29" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E29" s="3">
         <v>45797</v>
@@ -2348,7 +2369,7 @@
         <v>25.279</v>
       </c>
       <c r="K29" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="L29">
         <v>3</v>
@@ -2357,13 +2378,13 @@
         <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="O29">
         <v>500</v>
       </c>
       <c r="P29" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="Q29">
         <v>8</v>
@@ -2377,16 +2398,16 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D30" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E30" s="3">
         <v>45797</v>
@@ -2407,7 +2428,7 @@
         <v>25.279</v>
       </c>
       <c r="K30" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L30">
         <v>3</v>
@@ -2416,13 +2437,13 @@
         <v>2</v>
       </c>
       <c r="N30" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="O30">
         <v>500</v>
       </c>
       <c r="P30" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="Q30">
         <v>14</v>
@@ -2436,16 +2457,16 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D31" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E31" s="3">
         <v>45797</v>
@@ -2466,7 +2487,7 @@
         <v>25.279</v>
       </c>
       <c r="K31" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L31">
         <v>3</v>
@@ -2475,13 +2496,13 @@
         <v>2</v>
       </c>
       <c r="N31" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="O31">
         <v>500</v>
       </c>
       <c r="P31" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="Q31">
         <v>14</v>
@@ -2495,16 +2516,16 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D32" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E32" s="3">
         <v>45797</v>
@@ -2525,7 +2546,7 @@
         <v>25.279</v>
       </c>
       <c r="K32" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="L32">
         <v>3</v>
@@ -2534,13 +2555,13 @@
         <v>2</v>
       </c>
       <c r="N32" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="O32">
         <v>500</v>
       </c>
       <c r="P32" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="Q32">
         <v>14</v>
@@ -2554,16 +2575,16 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B33" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D33" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E33" s="3">
         <v>45797</v>
@@ -2584,7 +2605,7 @@
         <v>25.279</v>
       </c>
       <c r="K33" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="L33">
         <v>3</v>
@@ -2593,13 +2614,13 @@
         <v>2</v>
       </c>
       <c r="N33" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="O33">
         <v>500</v>
       </c>
       <c r="P33" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="Q33">
         <v>14</v>
@@ -2613,16 +2634,16 @@
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D34" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E34" s="3">
         <v>45797</v>
@@ -2643,7 +2664,7 @@
         <v>25.279</v>
       </c>
       <c r="K34" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="L34">
         <v>3</v>
@@ -2652,13 +2673,13 @@
         <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="O34">
         <v>500</v>
       </c>
       <c r="P34" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="Q34">
         <v>14</v>
@@ -2672,16 +2693,16 @@
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B35" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C35" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D35" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E35" s="3">
         <v>45797</v>
@@ -2702,7 +2723,7 @@
         <v>25.279</v>
       </c>
       <c r="K35" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L35">
         <v>3</v>
@@ -2711,13 +2732,13 @@
         <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="O35">
         <v>500</v>
       </c>
       <c r="P35" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="Q35">
         <v>14</v>
@@ -2731,16 +2752,16 @@
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B36" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C36" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D36" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E36" s="3">
         <v>45797</v>
@@ -2761,7 +2782,7 @@
         <v>25.279</v>
       </c>
       <c r="K36" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="L36">
         <v>3</v>
@@ -2770,13 +2791,13 @@
         <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="O36">
         <v>500</v>
       </c>
       <c r="P36" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="Q36">
         <v>14</v>
@@ -2790,16 +2811,16 @@
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D37" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E37" s="3">
         <v>45797</v>
@@ -2820,7 +2841,7 @@
         <v>25.279</v>
       </c>
       <c r="K37" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L37">
         <v>3</v>
@@ -2829,13 +2850,13 @@
         <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="O37">
         <v>500</v>
       </c>
       <c r="P37" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="Q37">
         <v>14</v>

--- a/pH_glider/water_sampling/sample_logs/RMI2_pH_Water_Sample_Log.xlsx
+++ b/pH_glider/water_sampling/sample_logs/RMI2_pH_Water_Sample_Log.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10727"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/garzio/Documents/repo/rucool/dataset_archiving/pH_glider/water_sampling/sample_logs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE2268B-AA45-7647-B340-AD594A4F478C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F58EE5-D41B-4C4E-99BE-4885F311F495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="34520" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1280" yWindow="500" windowWidth="35840" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SampleLog" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="111">
   <si>
     <t>Sample #</t>
   </si>
@@ -263,6 +263,111 @@
   </si>
   <si>
     <t>pH_flag</t>
+  </si>
+  <si>
+    <t>RMI-RU-281</t>
+  </si>
+  <si>
+    <t>RMI-RU-282</t>
+  </si>
+  <si>
+    <t>RMI-RU-283</t>
+  </si>
+  <si>
+    <t>RMI-RU-284</t>
+  </si>
+  <si>
+    <t>RMI-RU-285</t>
+  </si>
+  <si>
+    <t>RMI-RU-286</t>
+  </si>
+  <si>
+    <t>RMI-RU-287</t>
+  </si>
+  <si>
+    <t>RMI-RU-288</t>
+  </si>
+  <si>
+    <t>RMI-RU-289</t>
+  </si>
+  <si>
+    <t>RMI-RU-290</t>
+  </si>
+  <si>
+    <t>RMI-RU-291</t>
+  </si>
+  <si>
+    <t>RMI-RU-292</t>
+  </si>
+  <si>
+    <t>RMI-RU-293</t>
+  </si>
+  <si>
+    <t>RMI-RU-294</t>
+  </si>
+  <si>
+    <t>RMI-RU-295</t>
+  </si>
+  <si>
+    <t>RMI-RU-296</t>
+  </si>
+  <si>
+    <t>RMI-RU-297</t>
+  </si>
+  <si>
+    <t>RMI-RU-298</t>
+  </si>
+  <si>
+    <t>RMI-RU-299</t>
+  </si>
+  <si>
+    <t>RMI-RU-300</t>
+  </si>
+  <si>
+    <t>RMI-RU-301</t>
+  </si>
+  <si>
+    <t>RMI-RU-302</t>
+  </si>
+  <si>
+    <t>RMI-RU-303</t>
+  </si>
+  <si>
+    <t>RMI-RU-304</t>
+  </si>
+  <si>
+    <t>tank_test</t>
+  </si>
+  <si>
+    <t>RMI-RU-305</t>
+  </si>
+  <si>
+    <t>RMI-RU-306</t>
+  </si>
+  <si>
+    <t>RMI 2025 Summer Deployment</t>
+  </si>
+  <si>
+    <t>RMI 2025 Summer Deployment Tank Test</t>
+  </si>
+  <si>
+    <t>RMI,NJDEP</t>
+  </si>
+  <si>
+    <t>ru39-20250716T1542,ru32-20250716T1541</t>
+  </si>
+  <si>
+    <t>Shipped to SBU</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>RMI 2025 Summer Recovery</t>
+  </si>
+  <si>
+    <t>ru39-20250716T1542</t>
   </si>
 </sst>
 </file>
@@ -615,18 +720,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC37"/>
+  <dimension ref="A1:AD63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AB6" sqref="AB6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P51" sqref="P51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
@@ -639,23 +744,24 @@
     <col min="13" max="13" width="7" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.83203125" customWidth="1"/>
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="33.1640625" customWidth="1"/>
+    <col min="16" max="16" width="46" customWidth="1"/>
+    <col min="17" max="17" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="33.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -705,46 +811,49 @@
         <v>4</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -793,17 +902,20 @@
       <c r="P2" t="s">
         <v>37</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" t="s">
+        <v>108</v>
+      </c>
+      <c r="R2">
         <v>14</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>6.8342000000000001</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>30.8078</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -852,17 +964,20 @@
       <c r="P3" t="s">
         <v>37</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" t="s">
+        <v>108</v>
+      </c>
+      <c r="R3">
         <v>14</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>6.8342000000000001</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>30.8078</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -911,17 +1026,20 @@
       <c r="P4" t="s">
         <v>37</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" t="s">
+        <v>108</v>
+      </c>
+      <c r="R4">
         <v>7</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>8.2327999999999992</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>28.705300000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -970,17 +1088,20 @@
       <c r="P5" t="s">
         <v>37</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" t="s">
+        <v>108</v>
+      </c>
+      <c r="R5">
         <v>7</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>8.2327999999999992</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>28.705300000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1029,17 +1150,20 @@
       <c r="P6" t="s">
         <v>38</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" t="s">
+        <v>108</v>
+      </c>
+      <c r="R6">
         <v>2</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>9.7957999999999998</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>26.1554</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1088,17 +1212,20 @@
       <c r="P7" t="s">
         <v>38</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" t="s">
+        <v>108</v>
+      </c>
+      <c r="R7">
         <v>2</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>9.7957999999999998</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>26.1554</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1147,17 +1274,20 @@
       <c r="P8" t="s">
         <v>38</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" t="s">
+        <v>108</v>
+      </c>
+      <c r="R8">
         <v>7</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>8.2327999999999992</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>28.705300000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1206,17 +1336,20 @@
       <c r="P9" t="s">
         <v>38</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" t="s">
+        <v>108</v>
+      </c>
+      <c r="R9">
         <v>7</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>8.2327999999999992</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>28.705300000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1265,17 +1398,20 @@
       <c r="P10" t="s">
         <v>38</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" t="s">
+        <v>108</v>
+      </c>
+      <c r="R10">
         <v>14</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>6.8342000000000001</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>30.8078</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1324,17 +1460,20 @@
       <c r="P11" t="s">
         <v>38</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" t="s">
+        <v>108</v>
+      </c>
+      <c r="R11">
         <v>14</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>6.8342000000000001</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>30.8078</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1383,17 +1522,20 @@
       <c r="P12" t="s">
         <v>38</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" t="s">
+        <v>108</v>
+      </c>
+      <c r="R12">
         <v>2</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>9.7957999999999998</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>26.1554</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1442,17 +1584,20 @@
       <c r="P13" t="s">
         <v>38</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" t="s">
+        <v>108</v>
+      </c>
+      <c r="R13">
         <v>2</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>9.7957999999999998</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>26.1554</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1501,17 +1646,20 @@
       <c r="P14" t="s">
         <v>67</v>
       </c>
-      <c r="Q14">
+      <c r="Q14" t="s">
+        <v>108</v>
+      </c>
+      <c r="R14">
         <v>2</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>14.697900000000001</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>30.857299999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1560,17 +1708,20 @@
       <c r="P15" t="s">
         <v>67</v>
       </c>
-      <c r="Q15">
+      <c r="Q15" t="s">
+        <v>108</v>
+      </c>
+      <c r="R15">
         <v>2</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>14.697900000000001</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>30.857299999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1619,17 +1770,20 @@
       <c r="P16" t="s">
         <v>67</v>
       </c>
-      <c r="Q16">
+      <c r="Q16" t="s">
+        <v>108</v>
+      </c>
+      <c r="R16">
         <v>8</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>14.4185</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>31.1082</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1678,17 +1832,20 @@
       <c r="P17" t="s">
         <v>67</v>
       </c>
-      <c r="Q17">
+      <c r="Q17" t="s">
+        <v>108</v>
+      </c>
+      <c r="R17">
         <v>8</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>14.4185</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>31.1082</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -1737,17 +1894,20 @@
       <c r="P18" t="s">
         <v>67</v>
       </c>
-      <c r="Q18">
+      <c r="Q18" t="s">
+        <v>108</v>
+      </c>
+      <c r="R18">
         <v>14</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>12.456200000000001</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>32.173999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -1796,17 +1956,20 @@
       <c r="P19" t="s">
         <v>67</v>
       </c>
-      <c r="Q19">
+      <c r="Q19" t="s">
+        <v>108</v>
+      </c>
+      <c r="R19">
         <v>14</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>12.456200000000001</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>32.173999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -1855,17 +2018,20 @@
       <c r="P20" t="s">
         <v>67</v>
       </c>
-      <c r="Q20">
+      <c r="Q20" t="s">
+        <v>108</v>
+      </c>
+      <c r="R20">
         <v>14</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>12.456200000000001</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>32.173999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -1914,17 +2080,20 @@
       <c r="P21" t="s">
         <v>67</v>
       </c>
-      <c r="Q21">
+      <c r="Q21" t="s">
+        <v>108</v>
+      </c>
+      <c r="R21">
         <v>14</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>12.456200000000001</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>32.173999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -1973,17 +2142,20 @@
       <c r="P22" t="s">
         <v>67</v>
       </c>
-      <c r="Q22">
+      <c r="Q22" t="s">
+        <v>108</v>
+      </c>
+      <c r="R22">
         <v>14</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>12.456200000000001</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>32.173999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -2032,17 +2204,20 @@
       <c r="P23" t="s">
         <v>67</v>
       </c>
-      <c r="Q23">
+      <c r="Q23" t="s">
+        <v>108</v>
+      </c>
+      <c r="R23">
         <v>14</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>12.456200000000001</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>32.173999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -2091,17 +2266,20 @@
       <c r="P24" t="s">
         <v>67</v>
       </c>
-      <c r="Q24">
+      <c r="Q24" t="s">
+        <v>108</v>
+      </c>
+      <c r="R24">
         <v>14</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>12.456200000000001</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>32.173999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -2150,17 +2328,20 @@
       <c r="P25" t="s">
         <v>67</v>
       </c>
-      <c r="Q25">
+      <c r="Q25" t="s">
+        <v>108</v>
+      </c>
+      <c r="R25">
         <v>14</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>12.456200000000001</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>32.173999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -2209,17 +2390,20 @@
       <c r="P26" t="s">
         <v>68</v>
       </c>
-      <c r="Q26">
+      <c r="Q26" t="s">
+        <v>108</v>
+      </c>
+      <c r="R26">
         <v>2</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>14.8284</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>30.6187</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>15</v>
       </c>
@@ -2268,17 +2452,20 @@
       <c r="P27" t="s">
         <v>68</v>
       </c>
-      <c r="Q27">
+      <c r="Q27" t="s">
+        <v>108</v>
+      </c>
+      <c r="R27">
         <v>2</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>14.8284</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>30.6187</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>15</v>
       </c>
@@ -2327,17 +2514,20 @@
       <c r="P28" t="s">
         <v>67</v>
       </c>
-      <c r="Q28">
+      <c r="Q28" t="s">
+        <v>108</v>
+      </c>
+      <c r="R28">
         <v>8</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>14.4033</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>30.9907</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>15</v>
       </c>
@@ -2386,17 +2576,20 @@
       <c r="P29" t="s">
         <v>67</v>
       </c>
-      <c r="Q29">
+      <c r="Q29" t="s">
+        <v>108</v>
+      </c>
+      <c r="R29">
         <v>8</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>14.4033</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>30.9907</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>15</v>
       </c>
@@ -2445,17 +2638,20 @@
       <c r="P30" t="s">
         <v>67</v>
       </c>
-      <c r="Q30">
+      <c r="Q30" t="s">
+        <v>108</v>
+      </c>
+      <c r="R30">
         <v>14</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>13.204700000000001</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>32.188000000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>15</v>
       </c>
@@ -2504,17 +2700,20 @@
       <c r="P31" t="s">
         <v>67</v>
       </c>
-      <c r="Q31">
+      <c r="Q31" t="s">
+        <v>108</v>
+      </c>
+      <c r="R31">
         <v>14</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>13.204700000000001</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>32.188000000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>15</v>
       </c>
@@ -2563,17 +2762,20 @@
       <c r="P32" t="s">
         <v>67</v>
       </c>
-      <c r="Q32">
+      <c r="Q32" t="s">
+        <v>108</v>
+      </c>
+      <c r="R32">
         <v>14</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>13.204700000000001</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>32.188000000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>15</v>
       </c>
@@ -2622,17 +2824,20 @@
       <c r="P33" t="s">
         <v>67</v>
       </c>
-      <c r="Q33">
+      <c r="Q33" t="s">
+        <v>108</v>
+      </c>
+      <c r="R33">
         <v>14</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>13.204700000000001</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>32.188000000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>15</v>
       </c>
@@ -2681,17 +2886,20 @@
       <c r="P34" t="s">
         <v>67</v>
       </c>
-      <c r="Q34">
+      <c r="Q34" t="s">
+        <v>108</v>
+      </c>
+      <c r="R34">
         <v>14</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>13.204700000000001</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>32.188000000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>15</v>
       </c>
@@ -2740,17 +2948,20 @@
       <c r="P35" t="s">
         <v>67</v>
       </c>
-      <c r="Q35">
+      <c r="Q35" t="s">
+        <v>108</v>
+      </c>
+      <c r="R35">
         <v>14</v>
       </c>
-      <c r="R35">
+      <c r="S35">
         <v>13.204700000000001</v>
       </c>
-      <c r="S35">
+      <c r="T35">
         <v>32.188000000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>15</v>
       </c>
@@ -2799,17 +3010,20 @@
       <c r="P36" t="s">
         <v>67</v>
       </c>
-      <c r="Q36">
+      <c r="Q36" t="s">
+        <v>108</v>
+      </c>
+      <c r="R36">
         <v>14</v>
       </c>
-      <c r="R36">
+      <c r="S36">
         <v>13.204700000000001</v>
       </c>
-      <c r="S36">
+      <c r="T36">
         <v>32.188000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>15</v>
       </c>
@@ -2858,14 +3072,1245 @@
       <c r="P37" t="s">
         <v>67</v>
       </c>
-      <c r="Q37">
+      <c r="Q37" t="s">
+        <v>108</v>
+      </c>
+      <c r="R37">
         <v>14</v>
       </c>
-      <c r="R37">
+      <c r="S37">
         <v>13.204700000000001</v>
       </c>
-      <c r="S37">
+      <c r="T37">
         <v>32.188000000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" t="s">
+        <v>104</v>
+      </c>
+      <c r="D38" t="s">
+        <v>100</v>
+      </c>
+      <c r="E38" s="3">
+        <v>45853</v>
+      </c>
+      <c r="F38" s="4">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="K38" t="s">
+        <v>76</v>
+      </c>
+      <c r="O38">
+        <v>500</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>108</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>23.206</v>
+      </c>
+      <c r="T38">
+        <v>30.07</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" t="s">
+        <v>104</v>
+      </c>
+      <c r="D39" t="s">
+        <v>100</v>
+      </c>
+      <c r="E39" s="3">
+        <v>45853</v>
+      </c>
+      <c r="F39" s="4">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="K39" t="s">
+        <v>77</v>
+      </c>
+      <c r="O39">
+        <v>500</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>108</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>23.206</v>
+      </c>
+      <c r="T39">
+        <v>30.07</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>105</v>
+      </c>
+      <c r="B40" t="s">
+        <v>103</v>
+      </c>
+      <c r="C40" t="s">
+        <v>106</v>
+      </c>
+      <c r="D40" t="s">
+        <v>24</v>
+      </c>
+      <c r="E40" s="3">
+        <v>45854</v>
+      </c>
+      <c r="F40" s="4">
+        <v>0.69444444444444442</v>
+      </c>
+      <c r="G40">
+        <v>40</v>
+      </c>
+      <c r="H40">
+        <v>21.93</v>
+      </c>
+      <c r="I40">
+        <v>-73</v>
+      </c>
+      <c r="J40">
+        <v>53.134</v>
+      </c>
+      <c r="K40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40" t="s">
+        <v>40</v>
+      </c>
+      <c r="O40">
+        <v>500</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>108</v>
+      </c>
+      <c r="R40">
+        <v>4</v>
+      </c>
+      <c r="S40">
+        <v>24.59</v>
+      </c>
+      <c r="T40">
+        <v>29.24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>105</v>
+      </c>
+      <c r="B41" t="s">
+        <v>103</v>
+      </c>
+      <c r="C41" t="s">
+        <v>106</v>
+      </c>
+      <c r="D41" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" s="3">
+        <v>45854</v>
+      </c>
+      <c r="F41" s="4">
+        <v>0.69444444444444442</v>
+      </c>
+      <c r="G41">
+        <v>40</v>
+      </c>
+      <c r="H41">
+        <v>21.93</v>
+      </c>
+      <c r="I41">
+        <v>-73</v>
+      </c>
+      <c r="J41">
+        <v>53.134</v>
+      </c>
+      <c r="K41" t="s">
+        <v>79</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
+        <v>40</v>
+      </c>
+      <c r="O41">
+        <v>500</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>108</v>
+      </c>
+      <c r="R41">
+        <v>4</v>
+      </c>
+      <c r="S41">
+        <v>24.59</v>
+      </c>
+      <c r="T41">
+        <v>29.24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>105</v>
+      </c>
+      <c r="B42" t="s">
+        <v>103</v>
+      </c>
+      <c r="C42" t="s">
+        <v>106</v>
+      </c>
+      <c r="D42" t="s">
+        <v>24</v>
+      </c>
+      <c r="E42" s="3">
+        <v>45854</v>
+      </c>
+      <c r="F42" s="4">
+        <v>0.69444444444444442</v>
+      </c>
+      <c r="G42">
+        <v>40</v>
+      </c>
+      <c r="H42">
+        <v>21.93</v>
+      </c>
+      <c r="I42">
+        <v>-73</v>
+      </c>
+      <c r="J42">
+        <v>53.134</v>
+      </c>
+      <c r="K42" t="s">
+        <v>80</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>1</v>
+      </c>
+      <c r="N42" t="s">
+        <v>40</v>
+      </c>
+      <c r="O42">
+        <v>500</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>108</v>
+      </c>
+      <c r="R42">
+        <v>4</v>
+      </c>
+      <c r="S42">
+        <v>24.59</v>
+      </c>
+      <c r="T42">
+        <v>29.24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>105</v>
+      </c>
+      <c r="B43" t="s">
+        <v>103</v>
+      </c>
+      <c r="C43" t="s">
+        <v>106</v>
+      </c>
+      <c r="D43" t="s">
+        <v>24</v>
+      </c>
+      <c r="E43" s="3">
+        <v>45854</v>
+      </c>
+      <c r="F43" s="4">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="G43">
+        <v>40</v>
+      </c>
+      <c r="H43">
+        <v>21.917999999999999</v>
+      </c>
+      <c r="I43">
+        <v>-73</v>
+      </c>
+      <c r="J43">
+        <v>53.228000000000002</v>
+      </c>
+      <c r="K43" t="s">
+        <v>81</v>
+      </c>
+      <c r="L43">
+        <v>2</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+      <c r="N43" t="s">
+        <v>40</v>
+      </c>
+      <c r="O43">
+        <v>500</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>108</v>
+      </c>
+      <c r="R43">
+        <v>16</v>
+      </c>
+      <c r="S43">
+        <v>16.8</v>
+      </c>
+      <c r="T43">
+        <v>31.58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>105</v>
+      </c>
+      <c r="B44" t="s">
+        <v>103</v>
+      </c>
+      <c r="C44" t="s">
+        <v>106</v>
+      </c>
+      <c r="D44" t="s">
+        <v>24</v>
+      </c>
+      <c r="E44" s="3">
+        <v>45854</v>
+      </c>
+      <c r="F44" s="4">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="G44">
+        <v>40</v>
+      </c>
+      <c r="H44">
+        <v>21.917999999999999</v>
+      </c>
+      <c r="I44">
+        <v>-73</v>
+      </c>
+      <c r="J44">
+        <v>53.228000000000002</v>
+      </c>
+      <c r="K44" t="s">
+        <v>82</v>
+      </c>
+      <c r="L44">
+        <v>2</v>
+      </c>
+      <c r="M44">
+        <v>1</v>
+      </c>
+      <c r="N44" t="s">
+        <v>40</v>
+      </c>
+      <c r="O44">
+        <v>500</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>108</v>
+      </c>
+      <c r="R44">
+        <v>16</v>
+      </c>
+      <c r="S44">
+        <v>16.8</v>
+      </c>
+      <c r="T44">
+        <v>31.58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>105</v>
+      </c>
+      <c r="B45" t="s">
+        <v>103</v>
+      </c>
+      <c r="C45" t="s">
+        <v>106</v>
+      </c>
+      <c r="D45" t="s">
+        <v>24</v>
+      </c>
+      <c r="E45" s="3">
+        <v>45854</v>
+      </c>
+      <c r="F45" s="4">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="G45">
+        <v>40</v>
+      </c>
+      <c r="H45">
+        <v>21.917999999999999</v>
+      </c>
+      <c r="I45">
+        <v>-73</v>
+      </c>
+      <c r="J45">
+        <v>53.228000000000002</v>
+      </c>
+      <c r="K45" t="s">
+        <v>83</v>
+      </c>
+      <c r="L45">
+        <v>2</v>
+      </c>
+      <c r="M45">
+        <v>1</v>
+      </c>
+      <c r="N45" t="s">
+        <v>40</v>
+      </c>
+      <c r="O45">
+        <v>500</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>108</v>
+      </c>
+      <c r="R45">
+        <v>16</v>
+      </c>
+      <c r="S45">
+        <v>16.8</v>
+      </c>
+      <c r="T45">
+        <v>31.58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>105</v>
+      </c>
+      <c r="B46" t="s">
+        <v>103</v>
+      </c>
+      <c r="C46" t="s">
+        <v>106</v>
+      </c>
+      <c r="D46" t="s">
+        <v>24</v>
+      </c>
+      <c r="E46" s="3">
+        <v>45854</v>
+      </c>
+      <c r="F46" s="4">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="G46">
+        <v>40</v>
+      </c>
+      <c r="H46">
+        <v>21.943999999999999</v>
+      </c>
+      <c r="I46">
+        <v>-73</v>
+      </c>
+      <c r="J46">
+        <v>53.311999999999998</v>
+      </c>
+      <c r="K46" t="s">
+        <v>84</v>
+      </c>
+      <c r="L46">
+        <v>3</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="N46" t="s">
+        <v>40</v>
+      </c>
+      <c r="O46">
+        <v>500</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>108</v>
+      </c>
+      <c r="R46">
+        <v>4</v>
+      </c>
+      <c r="S46">
+        <v>24.59</v>
+      </c>
+      <c r="T46">
+        <v>29.24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>105</v>
+      </c>
+      <c r="B47" t="s">
+        <v>103</v>
+      </c>
+      <c r="C47" t="s">
+        <v>106</v>
+      </c>
+      <c r="D47" t="s">
+        <v>24</v>
+      </c>
+      <c r="E47" s="3">
+        <v>45854</v>
+      </c>
+      <c r="F47" s="4">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="G47">
+        <v>40</v>
+      </c>
+      <c r="H47">
+        <v>21.943999999999999</v>
+      </c>
+      <c r="I47">
+        <v>-73</v>
+      </c>
+      <c r="J47">
+        <v>53.311999999999998</v>
+      </c>
+      <c r="K47" t="s">
+        <v>85</v>
+      </c>
+      <c r="L47">
+        <v>3</v>
+      </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
+      <c r="N47" t="s">
+        <v>40</v>
+      </c>
+      <c r="O47">
+        <v>500</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>108</v>
+      </c>
+      <c r="R47">
+        <v>4</v>
+      </c>
+      <c r="S47">
+        <v>24.59</v>
+      </c>
+      <c r="T47">
+        <v>29.24</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>105</v>
+      </c>
+      <c r="B48" t="s">
+        <v>103</v>
+      </c>
+      <c r="C48" t="s">
+        <v>106</v>
+      </c>
+      <c r="D48" t="s">
+        <v>24</v>
+      </c>
+      <c r="E48" s="3">
+        <v>45854</v>
+      </c>
+      <c r="F48" s="4">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="G48">
+        <v>40</v>
+      </c>
+      <c r="H48">
+        <v>21.943999999999999</v>
+      </c>
+      <c r="I48">
+        <v>-73</v>
+      </c>
+      <c r="J48">
+        <v>53.311999999999998</v>
+      </c>
+      <c r="K48" t="s">
+        <v>86</v>
+      </c>
+      <c r="L48">
+        <v>3</v>
+      </c>
+      <c r="M48">
+        <v>1</v>
+      </c>
+      <c r="N48" t="s">
+        <v>40</v>
+      </c>
+      <c r="O48">
+        <v>500</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>108</v>
+      </c>
+      <c r="R48">
+        <v>4</v>
+      </c>
+      <c r="S48">
+        <v>24.59</v>
+      </c>
+      <c r="T48">
+        <v>29.24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>105</v>
+      </c>
+      <c r="B49" t="s">
+        <v>103</v>
+      </c>
+      <c r="C49" t="s">
+        <v>106</v>
+      </c>
+      <c r="D49" t="s">
+        <v>24</v>
+      </c>
+      <c r="E49" s="3">
+        <v>45854</v>
+      </c>
+      <c r="F49" s="4">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="G49">
+        <v>40</v>
+      </c>
+      <c r="H49">
+        <v>21.986999999999998</v>
+      </c>
+      <c r="I49">
+        <v>-73</v>
+      </c>
+      <c r="J49">
+        <v>53.381</v>
+      </c>
+      <c r="K49" t="s">
+        <v>87</v>
+      </c>
+      <c r="L49">
+        <v>4</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+      <c r="N49" t="s">
+        <v>40</v>
+      </c>
+      <c r="O49">
+        <v>500</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>108</v>
+      </c>
+      <c r="R49">
+        <v>16</v>
+      </c>
+      <c r="S49">
+        <v>16.8</v>
+      </c>
+      <c r="T49">
+        <v>31.58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>105</v>
+      </c>
+      <c r="B50" t="s">
+        <v>103</v>
+      </c>
+      <c r="C50" t="s">
+        <v>106</v>
+      </c>
+      <c r="D50" t="s">
+        <v>24</v>
+      </c>
+      <c r="E50" s="3">
+        <v>45854</v>
+      </c>
+      <c r="F50" s="4">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="G50">
+        <v>40</v>
+      </c>
+      <c r="H50">
+        <v>21.986999999999998</v>
+      </c>
+      <c r="I50">
+        <v>-73</v>
+      </c>
+      <c r="J50">
+        <v>53.381</v>
+      </c>
+      <c r="K50" t="s">
+        <v>88</v>
+      </c>
+      <c r="L50">
+        <v>4</v>
+      </c>
+      <c r="M50">
+        <v>1</v>
+      </c>
+      <c r="N50" t="s">
+        <v>40</v>
+      </c>
+      <c r="O50">
+        <v>500</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>108</v>
+      </c>
+      <c r="R50">
+        <v>16</v>
+      </c>
+      <c r="S50">
+        <v>16.8</v>
+      </c>
+      <c r="T50">
+        <v>31.58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>105</v>
+      </c>
+      <c r="B51" t="s">
+        <v>103</v>
+      </c>
+      <c r="C51" t="s">
+        <v>106</v>
+      </c>
+      <c r="D51" t="s">
+        <v>24</v>
+      </c>
+      <c r="E51" s="3">
+        <v>45854</v>
+      </c>
+      <c r="F51" s="4">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="G51">
+        <v>40</v>
+      </c>
+      <c r="H51">
+        <v>21.986999999999998</v>
+      </c>
+      <c r="I51">
+        <v>-73</v>
+      </c>
+      <c r="J51">
+        <v>53.381</v>
+      </c>
+      <c r="K51" t="s">
+        <v>89</v>
+      </c>
+      <c r="L51">
+        <v>4</v>
+      </c>
+      <c r="M51">
+        <v>1</v>
+      </c>
+      <c r="N51" t="s">
+        <v>40</v>
+      </c>
+      <c r="O51">
+        <v>500</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>108</v>
+      </c>
+      <c r="R51">
+        <v>16</v>
+      </c>
+      <c r="S51">
+        <v>16.8</v>
+      </c>
+      <c r="T51">
+        <v>31.58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>15</v>
+      </c>
+      <c r="B52" t="s">
+        <v>109</v>
+      </c>
+      <c r="C52" t="s">
+        <v>110</v>
+      </c>
+      <c r="D52" t="s">
+        <v>42</v>
+      </c>
+      <c r="E52" s="3">
+        <v>45880</v>
+      </c>
+      <c r="F52" s="4">
+        <v>0.61250000000000004</v>
+      </c>
+      <c r="G52">
+        <v>39</v>
+      </c>
+      <c r="H52">
+        <v>18.353999999999999</v>
+      </c>
+      <c r="I52">
+        <v>-74</v>
+      </c>
+      <c r="J52">
+        <v>20.068000000000001</v>
+      </c>
+      <c r="K52" t="s">
+        <v>90</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="M52">
+        <v>1</v>
+      </c>
+      <c r="N52" t="s">
+        <v>37</v>
+      </c>
+      <c r="O52">
+        <v>500</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>108</v>
+      </c>
+      <c r="R52">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B53" t="s">
+        <v>109</v>
+      </c>
+      <c r="C53" t="s">
+        <v>110</v>
+      </c>
+      <c r="D53" t="s">
+        <v>42</v>
+      </c>
+      <c r="E53" s="3">
+        <v>45880</v>
+      </c>
+      <c r="F53" s="4">
+        <v>0.61250000000000004</v>
+      </c>
+      <c r="G53">
+        <v>39</v>
+      </c>
+      <c r="H53">
+        <v>18.353999999999999</v>
+      </c>
+      <c r="I53">
+        <v>-74</v>
+      </c>
+      <c r="J53">
+        <v>20.068000000000001</v>
+      </c>
+      <c r="K53" t="s">
+        <v>91</v>
+      </c>
+      <c r="L53">
+        <v>1</v>
+      </c>
+      <c r="M53">
+        <v>1</v>
+      </c>
+      <c r="N53" t="s">
+        <v>37</v>
+      </c>
+      <c r="O53">
+        <v>500</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>108</v>
+      </c>
+      <c r="R53">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>15</v>
+      </c>
+      <c r="B54" t="s">
+        <v>109</v>
+      </c>
+      <c r="C54" t="s">
+        <v>110</v>
+      </c>
+      <c r="D54" t="s">
+        <v>42</v>
+      </c>
+      <c r="E54" s="3">
+        <v>45880</v>
+      </c>
+      <c r="F54" s="4">
+        <v>0.61250000000000004</v>
+      </c>
+      <c r="G54">
+        <v>39</v>
+      </c>
+      <c r="H54">
+        <v>18.353999999999999</v>
+      </c>
+      <c r="I54">
+        <v>-74</v>
+      </c>
+      <c r="J54">
+        <v>20.068000000000001</v>
+      </c>
+      <c r="K54" t="s">
+        <v>92</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+      <c r="M54">
+        <v>2</v>
+      </c>
+      <c r="N54" t="s">
+        <v>37</v>
+      </c>
+      <c r="O54">
+        <v>500</v>
+      </c>
+      <c r="R54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B55" t="s">
+        <v>109</v>
+      </c>
+      <c r="C55" t="s">
+        <v>110</v>
+      </c>
+      <c r="D55" t="s">
+        <v>42</v>
+      </c>
+      <c r="E55" s="3">
+        <v>45880</v>
+      </c>
+      <c r="F55" s="4">
+        <v>0.61250000000000004</v>
+      </c>
+      <c r="G55">
+        <v>39</v>
+      </c>
+      <c r="H55">
+        <v>18.353999999999999</v>
+      </c>
+      <c r="I55">
+        <v>-74</v>
+      </c>
+      <c r="J55">
+        <v>20.068000000000001</v>
+      </c>
+      <c r="K55" t="s">
+        <v>93</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+      <c r="M55">
+        <v>2</v>
+      </c>
+      <c r="N55" t="s">
+        <v>37</v>
+      </c>
+      <c r="O55">
+        <v>500</v>
+      </c>
+      <c r="R55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B56" t="s">
+        <v>109</v>
+      </c>
+      <c r="C56" t="s">
+        <v>110</v>
+      </c>
+      <c r="D56" t="s">
+        <v>42</v>
+      </c>
+      <c r="E56" s="3">
+        <v>45880</v>
+      </c>
+      <c r="F56" s="4">
+        <v>0.62152777777777779</v>
+      </c>
+      <c r="G56">
+        <v>39</v>
+      </c>
+      <c r="H56">
+        <v>18.327999999999999</v>
+      </c>
+      <c r="I56">
+        <v>-74</v>
+      </c>
+      <c r="J56">
+        <v>20.117000000000001</v>
+      </c>
+      <c r="K56" t="s">
+        <v>94</v>
+      </c>
+      <c r="L56">
+        <v>2</v>
+      </c>
+      <c r="M56">
+        <v>1</v>
+      </c>
+      <c r="N56" t="s">
+        <v>37</v>
+      </c>
+      <c r="O56">
+        <v>500</v>
+      </c>
+      <c r="R56">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B57" t="s">
+        <v>109</v>
+      </c>
+      <c r="C57" t="s">
+        <v>110</v>
+      </c>
+      <c r="D57" t="s">
+        <v>42</v>
+      </c>
+      <c r="E57" s="3">
+        <v>45880</v>
+      </c>
+      <c r="F57" s="4">
+        <v>0.62152777777777779</v>
+      </c>
+      <c r="G57">
+        <v>39</v>
+      </c>
+      <c r="H57">
+        <v>18.327999999999999</v>
+      </c>
+      <c r="I57">
+        <v>-74</v>
+      </c>
+      <c r="J57">
+        <v>20.117000000000001</v>
+      </c>
+      <c r="K57" t="s">
+        <v>95</v>
+      </c>
+      <c r="L57">
+        <v>2</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+      <c r="N57" t="s">
+        <v>37</v>
+      </c>
+      <c r="O57">
+        <v>500</v>
+      </c>
+      <c r="R57">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>15</v>
+      </c>
+      <c r="B58" t="s">
+        <v>109</v>
+      </c>
+      <c r="C58" t="s">
+        <v>110</v>
+      </c>
+      <c r="D58" t="s">
+        <v>42</v>
+      </c>
+      <c r="E58" s="3">
+        <v>45880</v>
+      </c>
+      <c r="F58" s="4">
+        <v>0.62152777777777779</v>
+      </c>
+      <c r="G58">
+        <v>39</v>
+      </c>
+      <c r="H58">
+        <v>18.327999999999999</v>
+      </c>
+      <c r="I58">
+        <v>-74</v>
+      </c>
+      <c r="J58">
+        <v>20.117000000000001</v>
+      </c>
+      <c r="K58" t="s">
+        <v>96</v>
+      </c>
+      <c r="L58">
+        <v>2</v>
+      </c>
+      <c r="M58">
+        <v>2</v>
+      </c>
+      <c r="N58" t="s">
+        <v>37</v>
+      </c>
+      <c r="O58">
+        <v>500</v>
+      </c>
+      <c r="R58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B59" t="s">
+        <v>109</v>
+      </c>
+      <c r="C59" t="s">
+        <v>110</v>
+      </c>
+      <c r="D59" t="s">
+        <v>42</v>
+      </c>
+      <c r="E59" s="3">
+        <v>45880</v>
+      </c>
+      <c r="F59" s="4">
+        <v>0.62152777777777779</v>
+      </c>
+      <c r="G59">
+        <v>39</v>
+      </c>
+      <c r="H59">
+        <v>18.327999999999999</v>
+      </c>
+      <c r="I59">
+        <v>-74</v>
+      </c>
+      <c r="J59">
+        <v>20.117000000000001</v>
+      </c>
+      <c r="K59" t="s">
+        <v>97</v>
+      </c>
+      <c r="L59">
+        <v>2</v>
+      </c>
+      <c r="M59">
+        <v>2</v>
+      </c>
+      <c r="N59" t="s">
+        <v>37</v>
+      </c>
+      <c r="O59">
+        <v>500</v>
+      </c>
+      <c r="R59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="K60" t="s">
+        <v>98</v>
+      </c>
+      <c r="N60" t="s">
+        <v>37</v>
+      </c>
+      <c r="O60">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="K61" t="s">
+        <v>99</v>
+      </c>
+      <c r="N61" t="s">
+        <v>37</v>
+      </c>
+      <c r="O61">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="K62" t="s">
+        <v>101</v>
+      </c>
+      <c r="N62" t="s">
+        <v>37</v>
+      </c>
+      <c r="O62">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="K63" t="s">
+        <v>102</v>
+      </c>
+      <c r="N63" t="s">
+        <v>37</v>
+      </c>
+      <c r="O63">
+        <v>500</v>
       </c>
     </row>
   </sheetData>

--- a/pH_glider/water_sampling/sample_logs/RMI2_pH_Water_Sample_Log.xlsx
+++ b/pH_glider/water_sampling/sample_logs/RMI2_pH_Water_Sample_Log.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10810"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/garzio/Documents/repo/rucool/dataset_archiving/pH_glider/water_sampling/sample_logs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F58EE5-D41B-4C4E-99BE-4885F311F495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F2D9FF-828C-184E-8ABE-79044493C4B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1280" yWindow="500" windowWidth="35840" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SampleLog" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="108">
   <si>
     <t>Sample #</t>
   </si>
@@ -331,21 +331,9 @@
     <t>RMI-RU-302</t>
   </si>
   <si>
-    <t>RMI-RU-303</t>
-  </si>
-  <si>
-    <t>RMI-RU-304</t>
-  </si>
-  <si>
     <t>tank_test</t>
   </si>
   <si>
-    <t>RMI-RU-305</t>
-  </si>
-  <si>
-    <t>RMI-RU-306</t>
-  </si>
-  <si>
     <t>RMI 2025 Summer Deployment</t>
   </si>
   <si>
@@ -368,13 +356,16 @@
   </si>
   <si>
     <t>ru39-20250716T1542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bottle had large headspace. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -396,6 +387,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -405,7 +402,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -428,11 +425,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -440,6 +486,22 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -720,11 +782,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD63"/>
+  <dimension ref="A1:AD59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P51" sqref="P51"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AG15" sqref="AG15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -811,7 +873,7 @@
         <v>4</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>5</v>
@@ -853,7 +915,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -903,7 +965,7 @@
         <v>37</v>
       </c>
       <c r="Q2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="R2">
         <v>14</v>
@@ -914,70 +976,103 @@
       <c r="T2">
         <v>30.8078</v>
       </c>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5">
+        <v>2069.870410744009</v>
+      </c>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5">
+        <v>1893.6334145212898</v>
+      </c>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="7">
+        <v>7.8870888826843686</v>
+      </c>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="15"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="8">
         <v>45770</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="9">
         <v>0.72569444444444453</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="6">
         <v>40</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="6">
         <v>22.914000000000001</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="6">
         <v>-73</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="6">
         <v>51.177999999999997</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="L3" s="6">
+        <v>1</v>
+      </c>
+      <c r="M3" s="6">
+        <v>1</v>
+      </c>
+      <c r="N3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="O3">
-        <v>500</v>
-      </c>
-      <c r="P3" t="s">
+      <c r="O3" s="6">
+        <v>500</v>
+      </c>
+      <c r="P3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="Q3" t="s">
-        <v>108</v>
-      </c>
-      <c r="R3">
+      <c r="Q3" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="R3" s="6">
         <v>14</v>
       </c>
-      <c r="S3">
+      <c r="S3" s="6">
         <v>6.8342000000000001</v>
       </c>
-      <c r="T3">
+      <c r="T3" s="6">
         <v>30.8078</v>
       </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="U3" s="6">
+        <v>7.9154191796179072</v>
+      </c>
+      <c r="V3">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6">
+        <f>U3-AA2</f>
+        <v>2.8330296933538612E-2</v>
+      </c>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="16"/>
+    </row>
+    <row r="4" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1027,7 +1122,7 @@
         <v>37</v>
       </c>
       <c r="Q4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="R4">
         <v>7</v>
@@ -1038,70 +1133,103 @@
       <c r="T4">
         <v>28.705300000000001</v>
       </c>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5">
+        <v>2078.2044169003807</v>
+      </c>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5">
+        <v>1906.4402457297563</v>
+      </c>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="7">
+        <v>7.9038907003472749</v>
+      </c>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="15"/>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="8">
         <v>45770</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="9">
         <v>0.72569444444444453</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="6">
         <v>40</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="6">
         <v>22.914000000000001</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="6">
         <v>-73</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="6">
         <v>51.177999999999997</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
+      <c r="L5" s="6">
+        <v>1</v>
+      </c>
+      <c r="M5" s="6">
         <v>3</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="O5">
-        <v>500</v>
-      </c>
-      <c r="P5" t="s">
+      <c r="O5" s="6">
+        <v>500</v>
+      </c>
+      <c r="P5" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="Q5" t="s">
-        <v>108</v>
-      </c>
-      <c r="R5">
+      <c r="Q5" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="R5" s="6">
         <v>7</v>
       </c>
-      <c r="S5">
+      <c r="S5" s="6">
         <v>8.2327999999999992</v>
       </c>
-      <c r="T5">
+      <c r="T5" s="6">
         <v>28.705300000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="U5" s="6">
+        <v>7.9209309517513917</v>
+      </c>
+      <c r="V5">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="6">
+        <f>U5-AA4</f>
+        <v>1.7040251404116802E-2</v>
+      </c>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="16"/>
+    </row>
+    <row r="6" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1151,7 +1279,7 @@
         <v>38</v>
       </c>
       <c r="Q6" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="R6">
         <v>2</v>
@@ -1162,70 +1290,103 @@
       <c r="T6">
         <v>26.1554</v>
       </c>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5">
+        <v>2059.6346182365419</v>
+      </c>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5">
+        <v>1890.7246074329314</v>
+      </c>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="7">
+        <v>7.936204222861984</v>
+      </c>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="15"/>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="8">
         <v>45770</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="9">
         <v>0.72569444444444453</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="6">
         <v>40</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="6">
         <v>22.914000000000001</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="6">
         <v>-73</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="6">
         <v>51.177999999999997</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="6">
         <v>2</v>
       </c>
-      <c r="M7">
-        <v>1</v>
-      </c>
-      <c r="N7" t="s">
+      <c r="M7" s="6">
+        <v>1</v>
+      </c>
+      <c r="N7" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="O7">
-        <v>500</v>
-      </c>
-      <c r="P7" t="s">
+      <c r="O7" s="6">
+        <v>500</v>
+      </c>
+      <c r="P7" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="Q7" t="s">
-        <v>108</v>
-      </c>
-      <c r="R7">
+      <c r="Q7" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="R7" s="6">
         <v>2</v>
       </c>
-      <c r="S7">
+      <c r="S7" s="6">
         <v>9.7957999999999998</v>
       </c>
-      <c r="T7">
+      <c r="T7" s="6">
         <v>26.1554</v>
       </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="U7" s="6">
+        <v>7.9273948695998095</v>
+      </c>
+      <c r="V7">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="6">
+        <f>U7-AA6</f>
+        <v>-8.8093532621744686E-3</v>
+      </c>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="16"/>
+    </row>
+    <row r="8" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1275,7 +1436,7 @@
         <v>38</v>
       </c>
       <c r="Q8" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="R8">
         <v>7</v>
@@ -1286,70 +1447,103 @@
       <c r="T8">
         <v>28.705300000000001</v>
       </c>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5">
+        <v>2069.2087154896967</v>
+      </c>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5">
+        <v>1919.6106778242677</v>
+      </c>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="7">
+        <v>7.8493890313240477</v>
+      </c>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="15"/>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="8">
         <v>45770</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="9">
         <v>0.73958333333333337</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="6">
         <v>40</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="6">
         <v>22.914000000000001</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="6">
         <v>-73</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="6">
         <v>51.177999999999997</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="6">
         <v>3</v>
       </c>
-      <c r="M9">
-        <v>1</v>
-      </c>
-      <c r="N9" t="s">
+      <c r="M9" s="6">
+        <v>1</v>
+      </c>
+      <c r="N9" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="O9">
-        <v>500</v>
-      </c>
-      <c r="P9" t="s">
+      <c r="O9" s="6">
+        <v>500</v>
+      </c>
+      <c r="P9" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="Q9" t="s">
-        <v>108</v>
-      </c>
-      <c r="R9">
+      <c r="Q9" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="R9" s="6">
         <v>7</v>
       </c>
-      <c r="S9">
+      <c r="S9" s="6">
         <v>8.2327999999999992</v>
       </c>
-      <c r="T9">
+      <c r="T9" s="6">
         <v>28.705300000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="U9" s="6">
+        <v>7.8706146008058759</v>
+      </c>
+      <c r="V9">
+        <v>1E-4</v>
+      </c>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="6"/>
+      <c r="AB9" s="6">
+        <f>U9-AA8</f>
+        <v>2.1225569481828188E-2</v>
+      </c>
+      <c r="AC9" s="6"/>
+      <c r="AD9" s="16"/>
+    </row>
+    <row r="10" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1399,7 +1593,7 @@
         <v>38</v>
       </c>
       <c r="Q10" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="R10">
         <v>14</v>
@@ -1410,70 +1604,103 @@
       <c r="T10">
         <v>30.8078</v>
       </c>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5">
+        <v>2217.546045188727</v>
+      </c>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5">
+        <v>2084.4228794486835</v>
+      </c>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="7">
+        <v>7.7619517222028547</v>
+      </c>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="15"/>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="8">
         <v>45770</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="9">
         <v>0.74652777777777779</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="6">
         <v>40</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="6">
         <v>22.914000000000001</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="6">
         <v>-73</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="6">
         <v>51.177999999999997</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="6">
         <v>4</v>
       </c>
-      <c r="M11">
-        <v>1</v>
-      </c>
-      <c r="N11" t="s">
+      <c r="M11" s="6">
+        <v>1</v>
+      </c>
+      <c r="N11" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="O11">
-        <v>500</v>
-      </c>
-      <c r="P11" t="s">
+      <c r="O11" s="6">
+        <v>500</v>
+      </c>
+      <c r="P11" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="Q11" t="s">
-        <v>108</v>
-      </c>
-      <c r="R11">
+      <c r="Q11" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="R11" s="6">
         <v>14</v>
       </c>
-      <c r="S11">
+      <c r="S11" s="6">
         <v>6.8342000000000001</v>
       </c>
-      <c r="T11">
+      <c r="T11" s="6">
         <v>30.8078</v>
       </c>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="U11" s="6">
+        <v>7.7542278959416961</v>
+      </c>
+      <c r="V11">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
+      <c r="AA11" s="6"/>
+      <c r="AB11" s="6">
+        <f>U11-AA10</f>
+        <v>-7.7238262611585284E-3</v>
+      </c>
+      <c r="AC11" s="6"/>
+      <c r="AD11" s="16"/>
+    </row>
+    <row r="12" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1523,7 +1750,7 @@
         <v>38</v>
       </c>
       <c r="Q12" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="R12">
         <v>2</v>
@@ -1534,70 +1761,103 @@
       <c r="T12">
         <v>26.1554</v>
       </c>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5">
+        <v>2060.5105050799712</v>
+      </c>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5">
+        <v>1901.2387330543934</v>
+      </c>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="7">
+        <v>7.9117569279198436</v>
+      </c>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="15"/>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="8">
         <v>45770</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="9">
         <v>0.75347222222222221</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="6">
         <v>40</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="6">
         <v>22.914000000000001</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="6">
         <v>-73</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="6">
         <v>51.177999999999997</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="6">
         <v>5</v>
       </c>
-      <c r="M13">
-        <v>1</v>
-      </c>
-      <c r="N13" t="s">
+      <c r="M13" s="6">
+        <v>1</v>
+      </c>
+      <c r="N13" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="O13">
-        <v>500</v>
-      </c>
-      <c r="P13" t="s">
+      <c r="O13" s="6">
+        <v>500</v>
+      </c>
+      <c r="P13" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="Q13" t="s">
-        <v>108</v>
-      </c>
-      <c r="R13">
+      <c r="Q13" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="R13" s="6">
         <v>2</v>
       </c>
-      <c r="S13">
+      <c r="S13" s="6">
         <v>9.7957999999999998</v>
       </c>
-      <c r="T13">
+      <c r="T13" s="6">
         <v>26.1554</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="U13" s="6">
+        <v>7.9049906046750946</v>
+      </c>
+      <c r="V13">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="6">
+        <f>U13-AA12</f>
+        <v>-6.7663232447490174E-3</v>
+      </c>
+      <c r="AC13" s="6"/>
+      <c r="AD13" s="16"/>
+    </row>
+    <row r="14" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1647,7 +1907,7 @@
         <v>67</v>
       </c>
       <c r="Q14" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="R14">
         <v>2</v>
@@ -1658,70 +1918,103 @@
       <c r="T14">
         <v>30.857299999999999</v>
       </c>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5">
+        <v>2151.8904693140794</v>
+      </c>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5">
+        <v>1978.078650461847</v>
+      </c>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="7">
+        <v>7.8698028502898838</v>
+      </c>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="15"/>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="8">
         <v>45797</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="9">
         <v>0.68194444444444446</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="6">
         <v>39</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="6">
         <v>15.118</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="6">
         <v>-74</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="6">
         <v>24.123000000000001</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
+      <c r="L15" s="6">
+        <v>1</v>
+      </c>
+      <c r="M15" s="6">
         <v>5</v>
       </c>
-      <c r="N15" t="s">
+      <c r="N15" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="O15">
-        <v>500</v>
-      </c>
-      <c r="P15" t="s">
+      <c r="O15" s="6">
+        <v>500</v>
+      </c>
+      <c r="P15" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="Q15" t="s">
-        <v>108</v>
-      </c>
-      <c r="R15">
+      <c r="Q15" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="R15" s="6">
         <v>2</v>
       </c>
-      <c r="S15">
+      <c r="S15" s="6">
         <v>14.697900000000001</v>
       </c>
-      <c r="T15">
+      <c r="T15" s="6">
         <v>30.857299999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="U15" s="6">
+        <v>7.8714448125579786</v>
+      </c>
+      <c r="V15">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="6">
+        <f>U15-AA14</f>
+        <v>1.6419622680947654E-3</v>
+      </c>
+      <c r="AC15" s="6"/>
+      <c r="AD15" s="16"/>
+    </row>
+    <row r="16" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1771,7 +2064,7 @@
         <v>67</v>
       </c>
       <c r="Q16" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="R16">
         <v>8</v>
@@ -1782,70 +2075,103 @@
       <c r="T16">
         <v>31.1082</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5">
+        <v>2160.3906872897714</v>
+      </c>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5">
+        <v>1991.6017664302508</v>
+      </c>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="7">
+        <v>7.8535374653282402</v>
+      </c>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="15"/>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="8">
         <v>45797</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="9">
         <v>0.68194444444444446</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="6">
         <v>39</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="6">
         <v>15.118</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="6">
         <v>-74</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="6">
         <v>24.123000000000001</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K17" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
+      <c r="L17" s="6">
+        <v>1</v>
+      </c>
+      <c r="M17" s="6">
         <v>3</v>
       </c>
-      <c r="N17" t="s">
+      <c r="N17" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="O17">
-        <v>500</v>
-      </c>
-      <c r="P17" t="s">
+      <c r="O17" s="6">
+        <v>500</v>
+      </c>
+      <c r="P17" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="Q17" t="s">
-        <v>108</v>
-      </c>
-      <c r="R17">
+      <c r="Q17" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="R17" s="6">
         <v>8</v>
       </c>
-      <c r="S17">
+      <c r="S17" s="6">
         <v>14.4185</v>
       </c>
-      <c r="T17">
+      <c r="T17" s="6">
         <v>31.1082</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="6">
+        <v>7.8522586353787744</v>
+      </c>
+      <c r="V17">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
+      <c r="AA17" s="6"/>
+      <c r="AB17" s="6">
+        <f>U17-AA16</f>
+        <v>-1.2788299494657096E-3</v>
+      </c>
+      <c r="AC17" s="6"/>
+      <c r="AD17" s="16"/>
+    </row>
+    <row r="18" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -1895,7 +2221,7 @@
         <v>67</v>
       </c>
       <c r="Q18" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="R18">
         <v>14</v>
@@ -1906,70 +2232,103 @@
       <c r="T18">
         <v>32.173999999999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5">
+        <v>2207.0970432710956</v>
+      </c>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5">
+        <v>2066.3523037272394</v>
+      </c>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="7">
+        <v>7.7657076040008253</v>
+      </c>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="5"/>
+      <c r="AD18" s="15"/>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="8">
         <v>45797</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="9">
         <v>0.68194444444444446</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="6">
         <v>39</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="6">
         <v>15.118</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="6">
         <v>-74</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="6">
         <v>24.123000000000001</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K19" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
+      <c r="L19" s="6">
+        <v>1</v>
+      </c>
+      <c r="M19" s="6">
         <v>2</v>
       </c>
-      <c r="N19" t="s">
+      <c r="N19" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="O19">
-        <v>500</v>
-      </c>
-      <c r="P19" t="s">
+      <c r="O19" s="6">
+        <v>500</v>
+      </c>
+      <c r="P19" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="Q19" t="s">
-        <v>108</v>
-      </c>
-      <c r="R19">
+      <c r="Q19" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="R19" s="6">
         <v>14</v>
       </c>
-      <c r="S19">
+      <c r="S19" s="6">
         <v>12.456200000000001</v>
       </c>
-      <c r="T19">
+      <c r="T19" s="6">
         <v>32.173999999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="6">
+        <v>7.76425593179518</v>
+      </c>
+      <c r="V19">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="6"/>
+      <c r="AA19" s="6"/>
+      <c r="AB19" s="6">
+        <f>U19-AA18</f>
+        <v>-1.451672205645238E-3</v>
+      </c>
+      <c r="AC19" s="6"/>
+      <c r="AD19" s="16"/>
+    </row>
+    <row r="20" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -2019,7 +2378,7 @@
         <v>67</v>
       </c>
       <c r="Q20" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="R20">
         <v>14</v>
@@ -2030,70 +2389,103 @@
       <c r="T20">
         <v>32.173999999999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5">
+        <v>2206.8977415600598</v>
+      </c>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5">
+        <v>2067.6137884257846</v>
+      </c>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="7">
+        <v>7.7620162310719323</v>
+      </c>
+      <c r="AB20" s="5"/>
+      <c r="AC20" s="5"/>
+      <c r="AD20" s="15"/>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="8">
         <v>45797</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="9">
         <v>0.68194444444444446</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="6">
         <v>39</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="6">
         <v>15.118</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="6">
         <v>-74</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="6">
         <v>24.123000000000001</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K21" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
+      <c r="L21" s="6">
+        <v>1</v>
+      </c>
+      <c r="M21" s="6">
         <v>2</v>
       </c>
-      <c r="N21" t="s">
+      <c r="N21" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="O21">
-        <v>500</v>
-      </c>
-      <c r="P21" t="s">
+      <c r="O21" s="6">
+        <v>500</v>
+      </c>
+      <c r="P21" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="Q21" t="s">
-        <v>108</v>
-      </c>
-      <c r="R21">
+      <c r="Q21" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="R21" s="6">
         <v>14</v>
       </c>
-      <c r="S21">
+      <c r="S21" s="6">
         <v>12.456200000000001</v>
       </c>
-      <c r="T21">
+      <c r="T21" s="6">
         <v>32.173999999999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="6">
+        <v>7.7710738794205332</v>
+      </c>
+      <c r="V21">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="6"/>
+      <c r="AA21" s="6"/>
+      <c r="AB21" s="6">
+        <f>U21-AA20</f>
+        <v>9.0576483486008996E-3</v>
+      </c>
+      <c r="AC21" s="6"/>
+      <c r="AD21" s="16"/>
+    </row>
+    <row r="22" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -2143,7 +2535,7 @@
         <v>67</v>
       </c>
       <c r="Q22" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="R22">
         <v>14</v>
@@ -2154,318 +2546,417 @@
       <c r="T22">
         <v>32.173999999999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5">
+        <v>2209.8274767122912</v>
+      </c>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5">
+        <v>2072.5991759544349</v>
+      </c>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="7">
+        <v>7.7564627639187034</v>
+      </c>
+      <c r="AB22" s="5"/>
+      <c r="AC22" s="5"/>
+      <c r="AD22" s="15"/>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="8">
         <v>45797</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="9">
         <v>0.68194444444444446</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="6">
         <v>39</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="6">
         <v>15.118</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="6">
         <v>-74</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="6">
         <v>24.123000000000001</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K23" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>1</v>
-      </c>
-      <c r="N23" t="s">
+      <c r="L23" s="6">
+        <v>1</v>
+      </c>
+      <c r="M23" s="6">
+        <v>1</v>
+      </c>
+      <c r="N23" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="O23">
-        <v>500</v>
-      </c>
-      <c r="P23" t="s">
+      <c r="O23" s="6">
+        <v>500</v>
+      </c>
+      <c r="P23" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="Q23" t="s">
-        <v>108</v>
-      </c>
-      <c r="R23">
+      <c r="Q23" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="R23" s="6">
         <v>14</v>
       </c>
-      <c r="S23">
+      <c r="S23" s="6">
         <v>12.456200000000001</v>
       </c>
-      <c r="T23">
+      <c r="T23" s="6">
         <v>32.173999999999999</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="U23" s="6">
+        <v>7.7521924508811928</v>
+      </c>
+      <c r="V23">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="W23" s="6"/>
+      <c r="X23" s="6"/>
+      <c r="Y23" s="6"/>
+      <c r="Z23" s="6"/>
+      <c r="AA23" s="6"/>
+      <c r="AB23" s="6">
+        <f>U23-AA22</f>
+        <v>-4.2703130375105758E-3</v>
+      </c>
+      <c r="AC23" s="6"/>
+      <c r="AD23" s="16"/>
+    </row>
+    <row r="24" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="10">
         <v>45797</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="11">
         <v>0.68194444444444446</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="5">
         <v>39</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="5">
         <v>15.118</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="5">
         <v>-74</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="5">
         <v>24.123000000000001</v>
       </c>
-      <c r="K24" t="s">
+      <c r="K24" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>1</v>
-      </c>
-      <c r="N24" t="s">
+      <c r="L24" s="5">
+        <v>1</v>
+      </c>
+      <c r="M24" s="5">
+        <v>1</v>
+      </c>
+      <c r="N24" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="O24">
-        <v>500</v>
-      </c>
-      <c r="P24" t="s">
+      <c r="O24" s="5">
+        <v>500</v>
+      </c>
+      <c r="P24" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="Q24" t="s">
-        <v>108</v>
-      </c>
-      <c r="R24">
+      <c r="Q24" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="R24" s="5">
         <v>14</v>
       </c>
-      <c r="S24">
+      <c r="S24" s="5">
         <v>12.456200000000001</v>
       </c>
-      <c r="T24">
+      <c r="T24" s="5">
         <v>32.173999999999999</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5">
+        <v>2210.6446137275393</v>
+      </c>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5">
+        <v>2076.2019762534801</v>
+      </c>
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="7">
+        <v>7.7492226366759116</v>
+      </c>
+      <c r="AB24" s="5"/>
+      <c r="AC24" s="5"/>
+      <c r="AD24" s="15"/>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="8">
         <v>45797</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="9">
         <v>0.68194444444444446</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="6">
         <v>39</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="6">
         <v>15.118</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="6">
         <v>-74</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="6">
         <v>24.123000000000001</v>
       </c>
-      <c r="K25" t="s">
+      <c r="K25" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>1</v>
-      </c>
-      <c r="N25" t="s">
+      <c r="L25" s="6">
+        <v>1</v>
+      </c>
+      <c r="M25" s="6">
+        <v>1</v>
+      </c>
+      <c r="N25" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="O25">
-        <v>500</v>
-      </c>
-      <c r="P25" t="s">
+      <c r="O25" s="6">
+        <v>500</v>
+      </c>
+      <c r="P25" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="Q25" t="s">
-        <v>108</v>
-      </c>
-      <c r="R25">
+      <c r="Q25" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="R25" s="6">
         <v>14</v>
       </c>
-      <c r="S25">
+      <c r="S25" s="6">
         <v>12.456200000000001</v>
       </c>
-      <c r="T25">
+      <c r="T25" s="6">
         <v>32.173999999999999</v>
       </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="U25" s="6">
+        <v>7.7519435286023812</v>
+      </c>
+      <c r="V25">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="W25" s="6"/>
+      <c r="X25" s="6"/>
+      <c r="Y25" s="6"/>
+      <c r="Z25" s="6"/>
+      <c r="AA25" s="6"/>
+      <c r="AB25" s="6">
+        <f>U25-AA24</f>
+        <v>2.7208919264696263E-3</v>
+      </c>
+      <c r="AC25" s="6"/>
+      <c r="AD25" s="16"/>
+    </row>
+    <row r="26" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="10">
         <v>45797</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="11">
         <v>0.72569444444444442</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="5">
         <v>39</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="5">
         <v>15.23</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="5">
         <v>-74</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="5">
         <v>25.279</v>
       </c>
-      <c r="K26" t="s">
+      <c r="K26" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="5">
         <v>3</v>
       </c>
-      <c r="M26">
-        <v>1</v>
-      </c>
-      <c r="N26" t="s">
+      <c r="M26" s="5">
+        <v>1</v>
+      </c>
+      <c r="N26" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="O26">
-        <v>500</v>
-      </c>
-      <c r="P26" t="s">
+      <c r="O26" s="5">
+        <v>500</v>
+      </c>
+      <c r="P26" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="Q26" t="s">
-        <v>108</v>
-      </c>
-      <c r="R26">
+      <c r="Q26" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="R26" s="5">
         <v>2</v>
       </c>
-      <c r="S26">
+      <c r="S26" s="5">
         <v>14.8284</v>
       </c>
-      <c r="T26">
+      <c r="T26" s="5">
         <v>30.6187</v>
       </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="5">
+        <v>2150.2860905402385</v>
+      </c>
+      <c r="X26" s="5"/>
+      <c r="Y26" s="5">
+        <v>1975.0611790629271</v>
+      </c>
+      <c r="Z26" s="5"/>
+      <c r="AA26" s="7">
+        <v>7.8764859056163585</v>
+      </c>
+      <c r="AB26" s="5"/>
+      <c r="AC26" s="5"/>
+      <c r="AD26" s="15"/>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="8">
         <v>45797</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="9">
         <v>0.72569444444444442</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="6">
         <v>39</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="6">
         <v>15.23</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="6">
         <v>-74</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="6">
         <v>25.279</v>
       </c>
-      <c r="K27" t="s">
+      <c r="K27" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="6">
         <v>3</v>
       </c>
-      <c r="M27">
-        <v>1</v>
-      </c>
-      <c r="N27" t="s">
+      <c r="M27" s="6">
+        <v>1</v>
+      </c>
+      <c r="N27" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="O27">
-        <v>500</v>
-      </c>
-      <c r="P27" t="s">
+      <c r="O27" s="6">
+        <v>500</v>
+      </c>
+      <c r="P27" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="Q27" t="s">
-        <v>108</v>
-      </c>
-      <c r="R27">
+      <c r="Q27" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="R27" s="6">
         <v>2</v>
       </c>
-      <c r="S27">
+      <c r="S27" s="6">
         <v>14.8284</v>
       </c>
-      <c r="T27">
+      <c r="T27" s="6">
         <v>30.6187</v>
       </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="6">
+        <v>7.8780550237090798</v>
+      </c>
+      <c r="V27">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="W27" s="6"/>
+      <c r="X27" s="6"/>
+      <c r="Y27" s="6"/>
+      <c r="Z27" s="6"/>
+      <c r="AA27" s="6"/>
+      <c r="AB27" s="6">
+        <f>U27-AA26</f>
+        <v>1.5691180927213111E-3</v>
+      </c>
+      <c r="AC27" s="6"/>
+      <c r="AD27" s="16"/>
+    </row>
+    <row r="28" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>15</v>
       </c>
@@ -2515,7 +3006,7 @@
         <v>67</v>
       </c>
       <c r="Q28" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="R28">
         <v>8</v>
@@ -2526,1792 +3017,2079 @@
       <c r="T28">
         <v>30.9907</v>
       </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="5">
+        <v>2158.8859593714483</v>
+      </c>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5">
+        <v>1992.2173709631406</v>
+      </c>
+      <c r="Z28" s="5"/>
+      <c r="AA28" s="7">
+        <v>7.8501855576168591</v>
+      </c>
+      <c r="AB28" s="5"/>
+      <c r="AC28" s="5"/>
+      <c r="AD28" s="15"/>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="8">
         <v>45797</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="9">
         <v>0.72569444444444442</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="6">
         <v>39</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="6">
         <v>15.23</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="6">
         <v>-74</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="6">
         <v>25.279</v>
       </c>
-      <c r="K29" t="s">
+      <c r="K29" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="L29">
+      <c r="L29" s="6">
         <v>3</v>
       </c>
-      <c r="M29">
+      <c r="M29" s="6">
         <v>3</v>
       </c>
-      <c r="N29" t="s">
+      <c r="N29" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="O29">
-        <v>500</v>
-      </c>
-      <c r="P29" t="s">
+      <c r="O29" s="6">
+        <v>500</v>
+      </c>
+      <c r="P29" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="Q29" t="s">
-        <v>108</v>
-      </c>
-      <c r="R29">
+      <c r="Q29" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="R29" s="6">
         <v>8</v>
       </c>
-      <c r="S29">
+      <c r="S29" s="6">
         <v>14.4033</v>
       </c>
-      <c r="T29">
+      <c r="T29" s="6">
         <v>30.9907</v>
       </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="U29" s="6">
+        <v>7.8555331370219124</v>
+      </c>
+      <c r="V29">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="W29" s="6"/>
+      <c r="X29" s="6"/>
+      <c r="Y29" s="6"/>
+      <c r="Z29" s="6"/>
+      <c r="AA29" s="6"/>
+      <c r="AB29" s="6">
+        <f>U29-AA28</f>
+        <v>5.3475794050532599E-3</v>
+      </c>
+      <c r="AC29" s="6"/>
+      <c r="AD29" s="16"/>
+    </row>
+    <row r="30" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="10">
         <v>45797</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="11">
         <v>0.72569444444444442</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="5">
         <v>39</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="5">
         <v>15.23</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="5">
         <v>-74</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="5">
         <v>25.279</v>
       </c>
-      <c r="K30" t="s">
+      <c r="K30" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="L30">
+      <c r="L30" s="5">
         <v>3</v>
       </c>
-      <c r="M30">
+      <c r="M30" s="5">
         <v>2</v>
       </c>
-      <c r="N30" t="s">
+      <c r="N30" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="O30">
-        <v>500</v>
-      </c>
-      <c r="P30" t="s">
+      <c r="O30" s="5">
+        <v>500</v>
+      </c>
+      <c r="P30" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="Q30" t="s">
-        <v>108</v>
-      </c>
-      <c r="R30">
+      <c r="Q30" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="R30" s="5">
         <v>14</v>
       </c>
-      <c r="S30">
+      <c r="S30" s="5">
         <v>13.204700000000001</v>
       </c>
-      <c r="T30">
+      <c r="T30" s="5">
         <v>32.188000000000002</v>
       </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="U30" s="5"/>
+      <c r="V30" s="5"/>
+      <c r="W30" s="5">
+        <v>2173.3951239348812</v>
+      </c>
+      <c r="X30" s="5"/>
+      <c r="Y30" s="5">
+        <v>2016.2965908889698</v>
+      </c>
+      <c r="Z30" s="5"/>
+      <c r="AA30" s="7">
+        <v>7.8099935914939147</v>
+      </c>
+      <c r="AB30" s="5"/>
+      <c r="AC30" s="5"/>
+      <c r="AD30" s="15"/>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="8">
         <v>45797</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="9">
         <v>0.72569444444444442</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="6">
         <v>39</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="6">
         <v>15.23</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="6">
         <v>-74</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="6">
         <v>25.279</v>
       </c>
-      <c r="K31" t="s">
+      <c r="K31" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="L31">
+      <c r="L31" s="6">
         <v>3</v>
       </c>
-      <c r="M31">
+      <c r="M31" s="6">
         <v>2</v>
       </c>
-      <c r="N31" t="s">
+      <c r="N31" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="O31">
-        <v>500</v>
-      </c>
-      <c r="P31" t="s">
+      <c r="O31" s="6">
+        <v>500</v>
+      </c>
+      <c r="P31" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="Q31" t="s">
-        <v>108</v>
-      </c>
-      <c r="R31">
+      <c r="Q31" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="R31" s="6">
         <v>14</v>
       </c>
-      <c r="S31">
+      <c r="S31" s="6">
         <v>13.204700000000001</v>
       </c>
-      <c r="T31">
+      <c r="T31" s="6">
         <v>32.188000000000002</v>
       </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="U31" s="6">
+        <v>7.8181281194350163</v>
+      </c>
+      <c r="V31">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="W31" s="6"/>
+      <c r="X31" s="6"/>
+      <c r="Y31" s="6"/>
+      <c r="Z31" s="6"/>
+      <c r="AA31" s="6"/>
+      <c r="AB31" s="6">
+        <f>U31-AA30</f>
+        <v>8.1345279411015881E-3</v>
+      </c>
+      <c r="AC31" s="6"/>
+      <c r="AD31" s="16"/>
+    </row>
+    <row r="32" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="10">
         <v>45797</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="11">
         <v>0.72569444444444442</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="5">
         <v>39</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="5">
         <v>15.23</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="5">
         <v>-74</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="5">
         <v>25.279</v>
       </c>
-      <c r="K32" t="s">
+      <c r="K32" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="L32">
+      <c r="L32" s="5">
         <v>3</v>
       </c>
-      <c r="M32">
+      <c r="M32" s="5">
         <v>2</v>
       </c>
-      <c r="N32" t="s">
+      <c r="N32" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="O32">
-        <v>500</v>
-      </c>
-      <c r="P32" t="s">
+      <c r="O32" s="5">
+        <v>500</v>
+      </c>
+      <c r="P32" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="Q32" t="s">
-        <v>108</v>
-      </c>
-      <c r="R32">
+      <c r="Q32" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="R32" s="5">
         <v>14</v>
       </c>
-      <c r="S32">
+      <c r="S32" s="5">
         <v>13.204700000000001</v>
       </c>
-      <c r="T32">
+      <c r="T32" s="5">
         <v>32.188000000000002</v>
       </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="U32" s="5"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="5">
+        <v>2170.5251792959607</v>
+      </c>
+      <c r="X32" s="5"/>
+      <c r="Y32" s="5">
+        <v>2013.8240808798214</v>
+      </c>
+      <c r="Z32" s="5"/>
+      <c r="AA32" s="7">
+        <v>7.8093583060130536</v>
+      </c>
+      <c r="AB32" s="5"/>
+      <c r="AC32" s="5"/>
+      <c r="AD32" s="15"/>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="8">
         <v>45797</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33" s="9">
         <v>0.72569444444444442</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="6">
         <v>39</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="6">
         <v>15.23</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="6">
         <v>-74</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="6">
         <v>25.279</v>
       </c>
-      <c r="K33" t="s">
+      <c r="K33" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="L33">
+      <c r="L33" s="6">
         <v>3</v>
       </c>
-      <c r="M33">
+      <c r="M33" s="6">
         <v>2</v>
       </c>
-      <c r="N33" t="s">
+      <c r="N33" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="O33">
-        <v>500</v>
-      </c>
-      <c r="P33" t="s">
+      <c r="O33" s="6">
+        <v>500</v>
+      </c>
+      <c r="P33" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="Q33" t="s">
-        <v>108</v>
-      </c>
-      <c r="R33">
+      <c r="Q33" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="R33" s="6">
         <v>14</v>
       </c>
-      <c r="S33">
+      <c r="S33" s="6">
         <v>13.204700000000001</v>
       </c>
-      <c r="T33">
+      <c r="T33" s="6">
         <v>32.188000000000002</v>
       </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="U33" s="6">
+        <v>7.8235334179394327</v>
+      </c>
+      <c r="V33" s="6">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="W33" s="6"/>
+      <c r="X33" s="6"/>
+      <c r="Y33" s="6"/>
+      <c r="Z33" s="6"/>
+      <c r="AA33" s="6"/>
+      <c r="AB33" s="6">
+        <f>U33-AA32</f>
+        <v>1.4175111926379103E-2</v>
+      </c>
+      <c r="AC33" s="6"/>
+      <c r="AD33" s="16" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="10">
         <v>45797</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F34" s="11">
         <v>0.72569444444444442</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="5">
         <v>39</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="5">
         <v>15.23</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="5">
         <v>-74</v>
       </c>
-      <c r="J34">
+      <c r="J34" s="5">
         <v>25.279</v>
       </c>
-      <c r="K34" t="s">
+      <c r="K34" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="L34">
+      <c r="L34" s="5">
         <v>3</v>
       </c>
-      <c r="M34">
-        <v>1</v>
-      </c>
-      <c r="N34" t="s">
+      <c r="M34" s="5">
+        <v>1</v>
+      </c>
+      <c r="N34" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="O34">
-        <v>500</v>
-      </c>
-      <c r="P34" t="s">
+      <c r="O34" s="5">
+        <v>500</v>
+      </c>
+      <c r="P34" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="Q34" t="s">
-        <v>108</v>
-      </c>
-      <c r="R34">
+      <c r="Q34" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="R34" s="5">
         <v>14</v>
       </c>
-      <c r="S34">
+      <c r="S34" s="5">
         <v>13.204700000000001</v>
       </c>
-      <c r="T34">
+      <c r="T34" s="5">
         <v>32.188000000000002</v>
       </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="AD34" s="17"/>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A35" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="8">
         <v>45797</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35" s="9">
         <v>0.72569444444444442</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="6">
         <v>39</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="6">
         <v>15.23</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="6">
         <v>-74</v>
       </c>
-      <c r="J35">
+      <c r="J35" s="6">
         <v>25.279</v>
       </c>
-      <c r="K35" t="s">
+      <c r="K35" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="L35">
+      <c r="L35" s="6">
         <v>3</v>
       </c>
-      <c r="M35">
-        <v>1</v>
-      </c>
-      <c r="N35" t="s">
+      <c r="M35" s="6">
+        <v>1</v>
+      </c>
+      <c r="N35" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="O35">
-        <v>500</v>
-      </c>
-      <c r="P35" t="s">
+      <c r="O35" s="6">
+        <v>500</v>
+      </c>
+      <c r="P35" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="Q35" t="s">
-        <v>108</v>
-      </c>
-      <c r="R35">
+      <c r="Q35" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="R35" s="6">
         <v>14</v>
       </c>
-      <c r="S35">
+      <c r="S35" s="6">
         <v>13.204700000000001</v>
       </c>
-      <c r="T35">
+      <c r="T35" s="6">
         <v>32.188000000000002</v>
       </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="U35" s="6"/>
+      <c r="V35" s="6"/>
+      <c r="W35" s="6"/>
+      <c r="X35" s="6"/>
+      <c r="Y35" s="6"/>
+      <c r="Z35" s="6"/>
+      <c r="AA35" s="6"/>
+      <c r="AB35" s="6"/>
+      <c r="AC35" s="6"/>
+      <c r="AD35" s="16"/>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="10">
         <v>45797</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F36" s="11">
         <v>0.72569444444444442</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="5">
         <v>39</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="5">
         <v>15.23</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="5">
         <v>-74</v>
       </c>
-      <c r="J36">
+      <c r="J36" s="5">
         <v>25.279</v>
       </c>
-      <c r="K36" t="s">
+      <c r="K36" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="L36">
+      <c r="L36" s="5">
         <v>3</v>
       </c>
-      <c r="M36">
-        <v>1</v>
-      </c>
-      <c r="N36" t="s">
+      <c r="M36" s="5">
+        <v>1</v>
+      </c>
+      <c r="N36" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="O36">
-        <v>500</v>
-      </c>
-      <c r="P36" t="s">
+      <c r="O36" s="5">
+        <v>500</v>
+      </c>
+      <c r="P36" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="Q36" t="s">
-        <v>108</v>
-      </c>
-      <c r="R36">
+      <c r="Q36" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="R36" s="5">
         <v>14</v>
       </c>
-      <c r="S36">
+      <c r="S36" s="5">
         <v>13.204700000000001</v>
       </c>
-      <c r="T36">
+      <c r="T36" s="5">
         <v>32.188000000000002</v>
       </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="AD36" s="17"/>
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A37" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37" s="8">
         <v>45797</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F37" s="9">
         <v>0.72569444444444442</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="6">
         <v>39</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="6">
         <v>15.23</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="6">
         <v>-74</v>
       </c>
-      <c r="J37">
+      <c r="J37" s="6">
         <v>25.279</v>
       </c>
-      <c r="K37" t="s">
+      <c r="K37" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="L37">
+      <c r="L37" s="6">
         <v>3</v>
       </c>
-      <c r="M37">
-        <v>1</v>
-      </c>
-      <c r="N37" t="s">
+      <c r="M37" s="6">
+        <v>1</v>
+      </c>
+      <c r="N37" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="O37">
-        <v>500</v>
-      </c>
-      <c r="P37" t="s">
+      <c r="O37" s="6">
+        <v>500</v>
+      </c>
+      <c r="P37" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="Q37" t="s">
-        <v>108</v>
-      </c>
-      <c r="R37">
+      <c r="Q37" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="R37" s="6">
         <v>14</v>
       </c>
-      <c r="S37">
+      <c r="S37" s="6">
         <v>13.204700000000001</v>
       </c>
-      <c r="T37">
+      <c r="T37" s="6">
         <v>32.188000000000002</v>
       </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="U37" s="6"/>
+      <c r="V37" s="6"/>
+      <c r="W37" s="6"/>
+      <c r="X37" s="6"/>
+      <c r="Y37" s="6"/>
+      <c r="Z37" s="6"/>
+      <c r="AA37" s="6"/>
+      <c r="AB37" s="6"/>
+      <c r="AC37" s="6"/>
+      <c r="AD37" s="16"/>
+    </row>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B38" t="s">
-        <v>104</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="B38" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="E38" s="3">
+      <c r="C38" s="5"/>
+      <c r="D38" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E38" s="10">
         <v>45853</v>
       </c>
-      <c r="F38" s="4">
+      <c r="F38" s="11">
         <v>0.77083333333333337</v>
       </c>
-      <c r="K38" t="s">
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="O38">
-        <v>500</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>108</v>
-      </c>
-      <c r="R38">
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5">
+        <v>500</v>
+      </c>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="R38" s="5">
         <v>0</v>
       </c>
-      <c r="S38">
+      <c r="S38" s="5">
         <v>23.206</v>
       </c>
-      <c r="T38">
+      <c r="T38" s="5">
         <v>30.07</v>
       </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="AD38" s="17"/>
+    </row>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A39" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B39" t="s">
-        <v>104</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="B39" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="E39" s="3">
+      <c r="C39" s="6"/>
+      <c r="D39" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E39" s="8">
         <v>45853</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F39" s="9">
         <v>0.77083333333333337</v>
       </c>
-      <c r="K39" t="s">
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="O39">
-        <v>500</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>108</v>
-      </c>
-      <c r="R39">
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6">
+        <v>500</v>
+      </c>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="R39" s="6">
         <v>0</v>
       </c>
-      <c r="S39">
+      <c r="S39" s="6">
         <v>23.206</v>
       </c>
-      <c r="T39">
+      <c r="T39" s="6">
         <v>30.07</v>
       </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+      <c r="U39" s="6"/>
+      <c r="V39" s="6"/>
+      <c r="W39" s="6"/>
+      <c r="X39" s="6"/>
+      <c r="Y39" s="6"/>
+      <c r="Z39" s="6"/>
+      <c r="AA39" s="6"/>
+      <c r="AB39" s="6"/>
+      <c r="AC39" s="6"/>
+      <c r="AD39" s="16"/>
+    </row>
+    <row r="40" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E40" s="10">
+        <v>45854</v>
+      </c>
+      <c r="F40" s="11">
+        <v>0.69444444444444442</v>
+      </c>
+      <c r="G40" s="5">
+        <v>40</v>
+      </c>
+      <c r="H40" s="5">
+        <v>21.93</v>
+      </c>
+      <c r="I40" s="5">
+        <v>-73</v>
+      </c>
+      <c r="J40" s="5">
+        <v>53.134</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L40" s="5">
+        <v>1</v>
+      </c>
+      <c r="M40" s="5">
+        <v>1</v>
+      </c>
+      <c r="N40" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O40" s="5">
+        <v>500</v>
+      </c>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="R40" s="5">
+        <v>4</v>
+      </c>
+      <c r="S40" s="5">
+        <v>24.59</v>
+      </c>
+      <c r="T40" s="5">
+        <v>29.24</v>
+      </c>
+      <c r="AD40" s="17"/>
+    </row>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A41" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" s="13">
+        <v>45854</v>
+      </c>
+      <c r="F41" s="14">
+        <v>0.69444444444444442</v>
+      </c>
+      <c r="G41" s="12">
+        <v>40</v>
+      </c>
+      <c r="H41" s="12">
+        <v>21.93</v>
+      </c>
+      <c r="I41" s="12">
+        <v>-73</v>
+      </c>
+      <c r="J41" s="12">
+        <v>53.134</v>
+      </c>
+      <c r="K41" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="L41" s="12">
+        <v>1</v>
+      </c>
+      <c r="M41" s="12">
+        <v>1</v>
+      </c>
+      <c r="N41" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="O41" s="12">
+        <v>500</v>
+      </c>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="R41" s="12">
+        <v>4</v>
+      </c>
+      <c r="S41" s="12">
+        <v>24.59</v>
+      </c>
+      <c r="T41" s="12">
+        <v>29.24</v>
+      </c>
+      <c r="U41" s="12"/>
+      <c r="V41" s="12"/>
+      <c r="W41" s="12"/>
+      <c r="X41" s="12"/>
+      <c r="Y41" s="12"/>
+      <c r="Z41" s="12"/>
+      <c r="AA41" s="12"/>
+      <c r="AB41" s="12"/>
+      <c r="AC41" s="12"/>
+      <c r="AD41" s="17"/>
+    </row>
+    <row r="42" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A42" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E42" s="8">
+        <v>45854</v>
+      </c>
+      <c r="F42" s="9">
+        <v>0.69444444444444442</v>
+      </c>
+      <c r="G42" s="6">
+        <v>40</v>
+      </c>
+      <c r="H42" s="6">
+        <v>21.93</v>
+      </c>
+      <c r="I42" s="6">
+        <v>-73</v>
+      </c>
+      <c r="J42" s="6">
+        <v>53.134</v>
+      </c>
+      <c r="K42" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="L42" s="6">
+        <v>1</v>
+      </c>
+      <c r="M42" s="6">
+        <v>1</v>
+      </c>
+      <c r="N42" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="O42" s="6">
+        <v>500</v>
+      </c>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="R42" s="6">
+        <v>4</v>
+      </c>
+      <c r="S42" s="6">
+        <v>24.59</v>
+      </c>
+      <c r="T42" s="6">
+        <v>29.24</v>
+      </c>
+      <c r="U42" s="6"/>
+      <c r="V42" s="6"/>
+      <c r="W42" s="6"/>
+      <c r="X42" s="6"/>
+      <c r="Y42" s="6"/>
+      <c r="Z42" s="6"/>
+      <c r="AA42" s="6"/>
+      <c r="AB42" s="6"/>
+      <c r="AC42" s="6"/>
+      <c r="AD42" s="16"/>
+    </row>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A43" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E43" s="10">
+        <v>45854</v>
+      </c>
+      <c r="F43" s="11">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="G43" s="5">
+        <v>40</v>
+      </c>
+      <c r="H43" s="5">
+        <v>21.917999999999999</v>
+      </c>
+      <c r="I43" s="5">
+        <v>-73</v>
+      </c>
+      <c r="J43" s="5">
+        <v>53.228000000000002</v>
+      </c>
+      <c r="K43" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L43" s="5">
+        <v>2</v>
+      </c>
+      <c r="M43" s="5">
+        <v>1</v>
+      </c>
+      <c r="N43" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O43" s="5">
+        <v>500</v>
+      </c>
+      <c r="P43" s="5"/>
+      <c r="Q43" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="R43" s="5">
+        <v>16</v>
+      </c>
+      <c r="S43" s="5">
+        <v>16.8</v>
+      </c>
+      <c r="T43" s="5">
+        <v>31.58</v>
+      </c>
+      <c r="AD43" s="17"/>
+    </row>
+    <row r="44" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A44" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E44" s="13">
+        <v>45854</v>
+      </c>
+      <c r="F44" s="14">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="G44" s="12">
+        <v>40</v>
+      </c>
+      <c r="H44" s="12">
+        <v>21.917999999999999</v>
+      </c>
+      <c r="I44" s="12">
+        <v>-73</v>
+      </c>
+      <c r="J44" s="12">
+        <v>53.228000000000002</v>
+      </c>
+      <c r="K44" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="L44" s="12">
+        <v>2</v>
+      </c>
+      <c r="M44" s="12">
+        <v>1</v>
+      </c>
+      <c r="N44" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="O44" s="12">
+        <v>500</v>
+      </c>
+      <c r="P44" s="12"/>
+      <c r="Q44" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="R44" s="12">
+        <v>16</v>
+      </c>
+      <c r="S44" s="12">
+        <v>16.8</v>
+      </c>
+      <c r="T44" s="12">
+        <v>31.58</v>
+      </c>
+      <c r="AD44" s="17"/>
+    </row>
+    <row r="45" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A45" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E45" s="8">
+        <v>45854</v>
+      </c>
+      <c r="F45" s="9">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="G45" s="6">
+        <v>40</v>
+      </c>
+      <c r="H45" s="6">
+        <v>21.917999999999999</v>
+      </c>
+      <c r="I45" s="6">
+        <v>-73</v>
+      </c>
+      <c r="J45" s="6">
+        <v>53.228000000000002</v>
+      </c>
+      <c r="K45" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="L45" s="6">
+        <v>2</v>
+      </c>
+      <c r="M45" s="6">
+        <v>1</v>
+      </c>
+      <c r="N45" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="O45" s="6">
+        <v>500</v>
+      </c>
+      <c r="P45" s="6"/>
+      <c r="Q45" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="R45" s="6">
+        <v>16</v>
+      </c>
+      <c r="S45" s="6">
+        <v>16.8</v>
+      </c>
+      <c r="T45" s="6">
+        <v>31.58</v>
+      </c>
+      <c r="U45" s="6"/>
+      <c r="V45" s="6"/>
+      <c r="W45" s="6"/>
+      <c r="X45" s="6"/>
+      <c r="Y45" s="6"/>
+      <c r="Z45" s="6"/>
+      <c r="AA45" s="6"/>
+      <c r="AB45" s="6"/>
+      <c r="AC45" s="6"/>
+      <c r="AD45" s="16"/>
+    </row>
+    <row r="46" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A46" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E46" s="10">
+        <v>45854</v>
+      </c>
+      <c r="F46" s="11">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="G46" s="5">
+        <v>40</v>
+      </c>
+      <c r="H46" s="5">
+        <v>21.943999999999999</v>
+      </c>
+      <c r="I46" s="5">
+        <v>-73</v>
+      </c>
+      <c r="J46" s="5">
+        <v>53.311999999999998</v>
+      </c>
+      <c r="K46" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="L46" s="5">
+        <v>3</v>
+      </c>
+      <c r="M46" s="5">
+        <v>1</v>
+      </c>
+      <c r="N46" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O46" s="5">
+        <v>500</v>
+      </c>
+      <c r="P46" s="5"/>
+      <c r="Q46" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="R46" s="5">
+        <v>4</v>
+      </c>
+      <c r="S46" s="5">
+        <v>24.59</v>
+      </c>
+      <c r="T46" s="5">
+        <v>29.24</v>
+      </c>
+      <c r="AD46" s="17"/>
+    </row>
+    <row r="47" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A47" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E47" s="13">
+        <v>45854</v>
+      </c>
+      <c r="F47" s="14">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="G47" s="12">
+        <v>40</v>
+      </c>
+      <c r="H47" s="12">
+        <v>21.943999999999999</v>
+      </c>
+      <c r="I47" s="12">
+        <v>-73</v>
+      </c>
+      <c r="J47" s="12">
+        <v>53.311999999999998</v>
+      </c>
+      <c r="K47" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="L47" s="12">
+        <v>3</v>
+      </c>
+      <c r="M47" s="12">
+        <v>1</v>
+      </c>
+      <c r="N47" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="O47" s="12">
+        <v>500</v>
+      </c>
+      <c r="P47" s="12"/>
+      <c r="Q47" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="R47" s="12">
+        <v>4</v>
+      </c>
+      <c r="S47" s="12">
+        <v>24.59</v>
+      </c>
+      <c r="T47" s="12">
+        <v>29.24</v>
+      </c>
+      <c r="AD47" s="17"/>
+    </row>
+    <row r="48" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A48" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E48" s="8">
+        <v>45854</v>
+      </c>
+      <c r="F48" s="9">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="G48" s="6">
+        <v>40</v>
+      </c>
+      <c r="H48" s="6">
+        <v>21.943999999999999</v>
+      </c>
+      <c r="I48" s="6">
+        <v>-73</v>
+      </c>
+      <c r="J48" s="6">
+        <v>53.311999999999998</v>
+      </c>
+      <c r="K48" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="L48" s="6">
+        <v>3</v>
+      </c>
+      <c r="M48" s="6">
+        <v>1</v>
+      </c>
+      <c r="N48" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="O48" s="6">
+        <v>500</v>
+      </c>
+      <c r="P48" s="6"/>
+      <c r="Q48" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="R48" s="6">
+        <v>4</v>
+      </c>
+      <c r="S48" s="6">
+        <v>24.59</v>
+      </c>
+      <c r="T48" s="6">
+        <v>29.24</v>
+      </c>
+      <c r="U48" s="6"/>
+      <c r="V48" s="6"/>
+      <c r="W48" s="6"/>
+      <c r="X48" s="6"/>
+      <c r="Y48" s="6"/>
+      <c r="Z48" s="6"/>
+      <c r="AA48" s="6"/>
+      <c r="AB48" s="6"/>
+      <c r="AC48" s="6"/>
+      <c r="AD48" s="16"/>
+    </row>
+    <row r="49" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E49" s="10">
+        <v>45854</v>
+      </c>
+      <c r="F49" s="11">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="G49" s="5">
+        <v>40</v>
+      </c>
+      <c r="H49" s="5">
+        <v>21.986999999999998</v>
+      </c>
+      <c r="I49" s="5">
+        <v>-73</v>
+      </c>
+      <c r="J49" s="5">
+        <v>53.381</v>
+      </c>
+      <c r="K49" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="L49" s="5">
+        <v>4</v>
+      </c>
+      <c r="M49" s="5">
+        <v>1</v>
+      </c>
+      <c r="N49" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O49" s="5">
+        <v>500</v>
+      </c>
+      <c r="P49" s="5"/>
+      <c r="Q49" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="R49" s="5">
+        <v>16</v>
+      </c>
+      <c r="S49" s="5">
+        <v>16.8</v>
+      </c>
+      <c r="T49" s="5">
+        <v>31.58</v>
+      </c>
+      <c r="AD49" s="17"/>
+    </row>
+    <row r="50" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A50" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E50" s="13">
+        <v>45854</v>
+      </c>
+      <c r="F50" s="14">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="G50" s="12">
+        <v>40</v>
+      </c>
+      <c r="H50" s="12">
+        <v>21.986999999999998</v>
+      </c>
+      <c r="I50" s="12">
+        <v>-73</v>
+      </c>
+      <c r="J50" s="12">
+        <v>53.381</v>
+      </c>
+      <c r="K50" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="L50" s="12">
+        <v>4</v>
+      </c>
+      <c r="M50" s="12">
+        <v>1</v>
+      </c>
+      <c r="N50" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="O50" s="12">
+        <v>500</v>
+      </c>
+      <c r="P50" s="12"/>
+      <c r="Q50" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="R50" s="12">
+        <v>16</v>
+      </c>
+      <c r="S50" s="12">
+        <v>16.8</v>
+      </c>
+      <c r="T50" s="12">
+        <v>31.58</v>
+      </c>
+      <c r="U50" s="12"/>
+      <c r="V50" s="12"/>
+      <c r="W50" s="12"/>
+      <c r="X50" s="12"/>
+      <c r="Y50" s="12"/>
+      <c r="Z50" s="12"/>
+      <c r="AA50" s="12"/>
+      <c r="AB50" s="12"/>
+      <c r="AC50" s="12"/>
+      <c r="AD50" s="17"/>
+    </row>
+    <row r="51" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A51" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E51" s="8">
+        <v>45854</v>
+      </c>
+      <c r="F51" s="9">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="G51" s="6">
+        <v>40</v>
+      </c>
+      <c r="H51" s="6">
+        <v>21.986999999999998</v>
+      </c>
+      <c r="I51" s="6">
+        <v>-73</v>
+      </c>
+      <c r="J51" s="6">
+        <v>53.381</v>
+      </c>
+      <c r="K51" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="L51" s="6">
+        <v>4</v>
+      </c>
+      <c r="M51" s="6">
+        <v>1</v>
+      </c>
+      <c r="N51" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="O51" s="6">
+        <v>500</v>
+      </c>
+      <c r="P51" s="6"/>
+      <c r="Q51" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="R51" s="6">
+        <v>16</v>
+      </c>
+      <c r="S51" s="6">
+        <v>16.8</v>
+      </c>
+      <c r="T51" s="6">
+        <v>31.58</v>
+      </c>
+      <c r="U51" s="6"/>
+      <c r="V51" s="6"/>
+      <c r="W51" s="6"/>
+      <c r="X51" s="6"/>
+      <c r="Y51" s="6"/>
+      <c r="Z51" s="6"/>
+      <c r="AA51" s="6"/>
+      <c r="AB51" s="6"/>
+      <c r="AC51" s="6"/>
+      <c r="AD51" s="16"/>
+    </row>
+    <row r="52" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A52" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B52" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B40" t="s">
-        <v>103</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="C52" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="D40" t="s">
-        <v>24</v>
-      </c>
-      <c r="E40" s="3">
-        <v>45854</v>
-      </c>
-      <c r="F40" s="4">
-        <v>0.69444444444444442</v>
-      </c>
-      <c r="G40">
-        <v>40</v>
-      </c>
-      <c r="H40">
-        <v>21.93</v>
-      </c>
-      <c r="I40">
-        <v>-73</v>
-      </c>
-      <c r="J40">
-        <v>53.134</v>
-      </c>
-      <c r="K40" t="s">
-        <v>78</v>
-      </c>
-      <c r="L40">
-        <v>1</v>
-      </c>
-      <c r="M40">
-        <v>1</v>
-      </c>
-      <c r="N40" t="s">
-        <v>40</v>
-      </c>
-      <c r="O40">
-        <v>500</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>108</v>
-      </c>
-      <c r="R40">
-        <v>4</v>
-      </c>
-      <c r="S40">
-        <v>24.59</v>
-      </c>
-      <c r="T40">
-        <v>29.24</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+      <c r="D52" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E52" s="10">
+        <v>45880</v>
+      </c>
+      <c r="F52" s="11">
+        <v>0.61250000000000004</v>
+      </c>
+      <c r="G52" s="5">
+        <v>39</v>
+      </c>
+      <c r="H52" s="5">
+        <v>18.353999999999999</v>
+      </c>
+      <c r="I52" s="5">
+        <v>-74</v>
+      </c>
+      <c r="J52" s="5">
+        <v>20.068000000000001</v>
+      </c>
+      <c r="K52" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="L52" s="5">
+        <v>1</v>
+      </c>
+      <c r="M52" s="5">
+        <v>1</v>
+      </c>
+      <c r="N52" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="O52" s="5">
+        <v>500</v>
+      </c>
+      <c r="P52" s="5"/>
+      <c r="Q52" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="R52" s="5">
+        <v>10</v>
+      </c>
+      <c r="S52" s="5"/>
+      <c r="T52" s="5"/>
+      <c r="AD52" s="17"/>
+    </row>
+    <row r="53" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A53" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B53" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B41" t="s">
-        <v>103</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="C53" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="D41" t="s">
-        <v>24</v>
-      </c>
-      <c r="E41" s="3">
-        <v>45854</v>
-      </c>
-      <c r="F41" s="4">
-        <v>0.69444444444444442</v>
-      </c>
-      <c r="G41">
-        <v>40</v>
-      </c>
-      <c r="H41">
-        <v>21.93</v>
-      </c>
-      <c r="I41">
-        <v>-73</v>
-      </c>
-      <c r="J41">
-        <v>53.134</v>
-      </c>
-      <c r="K41" t="s">
-        <v>79</v>
-      </c>
-      <c r="L41">
-        <v>1</v>
-      </c>
-      <c r="M41">
-        <v>1</v>
-      </c>
-      <c r="N41" t="s">
-        <v>40</v>
-      </c>
-      <c r="O41">
-        <v>500</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>108</v>
-      </c>
-      <c r="R41">
-        <v>4</v>
-      </c>
-      <c r="S41">
-        <v>24.59</v>
-      </c>
-      <c r="T41">
-        <v>29.24</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+      <c r="D53" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E53" s="8">
+        <v>45880</v>
+      </c>
+      <c r="F53" s="9">
+        <v>0.61250000000000004</v>
+      </c>
+      <c r="G53" s="6">
+        <v>39</v>
+      </c>
+      <c r="H53" s="6">
+        <v>18.353999999999999</v>
+      </c>
+      <c r="I53" s="6">
+        <v>-74</v>
+      </c>
+      <c r="J53" s="6">
+        <v>20.068000000000001</v>
+      </c>
+      <c r="K53" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="L53" s="6">
+        <v>1</v>
+      </c>
+      <c r="M53" s="6">
+        <v>1</v>
+      </c>
+      <c r="N53" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O53" s="6">
+        <v>500</v>
+      </c>
+      <c r="P53" s="6"/>
+      <c r="Q53" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="R53" s="6">
+        <v>10</v>
+      </c>
+      <c r="S53" s="6"/>
+      <c r="T53" s="6"/>
+      <c r="U53" s="6"/>
+      <c r="V53" s="6"/>
+      <c r="W53" s="6"/>
+      <c r="X53" s="6"/>
+      <c r="Y53" s="6"/>
+      <c r="Z53" s="6"/>
+      <c r="AA53" s="6"/>
+      <c r="AB53" s="6"/>
+      <c r="AC53" s="6"/>
+      <c r="AD53" s="16"/>
+    </row>
+    <row r="54" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A54" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B54" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B42" t="s">
-        <v>103</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="C54" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="D42" t="s">
-        <v>24</v>
-      </c>
-      <c r="E42" s="3">
-        <v>45854</v>
-      </c>
-      <c r="F42" s="4">
-        <v>0.69444444444444442</v>
-      </c>
-      <c r="G42">
-        <v>40</v>
-      </c>
-      <c r="H42">
-        <v>21.93</v>
-      </c>
-      <c r="I42">
-        <v>-73</v>
-      </c>
-      <c r="J42">
-        <v>53.134</v>
-      </c>
-      <c r="K42" t="s">
-        <v>80</v>
-      </c>
-      <c r="L42">
-        <v>1</v>
-      </c>
-      <c r="M42">
-        <v>1</v>
-      </c>
-      <c r="N42" t="s">
-        <v>40</v>
-      </c>
-      <c r="O42">
-        <v>500</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>108</v>
-      </c>
-      <c r="R42">
-        <v>4</v>
-      </c>
-      <c r="S42">
-        <v>24.59</v>
-      </c>
-      <c r="T42">
-        <v>29.24</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+      <c r="D54" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E54" s="10">
+        <v>45880</v>
+      </c>
+      <c r="F54" s="11">
+        <v>0.61250000000000004</v>
+      </c>
+      <c r="G54" s="5">
+        <v>39</v>
+      </c>
+      <c r="H54" s="5">
+        <v>18.353999999999999</v>
+      </c>
+      <c r="I54" s="5">
+        <v>-74</v>
+      </c>
+      <c r="J54" s="5">
+        <v>20.068000000000001</v>
+      </c>
+      <c r="K54" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="L54" s="5">
+        <v>1</v>
+      </c>
+      <c r="M54" s="5">
+        <v>2</v>
+      </c>
+      <c r="N54" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="O54" s="5">
+        <v>500</v>
+      </c>
+      <c r="P54" s="5"/>
+      <c r="Q54" s="5"/>
+      <c r="R54" s="5">
+        <v>2</v>
+      </c>
+      <c r="S54" s="5"/>
+      <c r="T54" s="5"/>
+      <c r="U54" s="5"/>
+      <c r="V54" s="5"/>
+      <c r="W54" s="5"/>
+      <c r="X54" s="5"/>
+      <c r="Y54" s="5"/>
+      <c r="Z54" s="5"/>
+      <c r="AA54" s="5"/>
+      <c r="AB54" s="5"/>
+      <c r="AC54" s="5"/>
+      <c r="AD54" s="15"/>
+    </row>
+    <row r="55" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A55" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B55" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B43" t="s">
-        <v>103</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="C55" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="D43" t="s">
-        <v>24</v>
-      </c>
-      <c r="E43" s="3">
-        <v>45854</v>
-      </c>
-      <c r="F43" s="4">
-        <v>0.70138888888888884</v>
-      </c>
-      <c r="G43">
-        <v>40</v>
-      </c>
-      <c r="H43">
-        <v>21.917999999999999</v>
-      </c>
-      <c r="I43">
-        <v>-73</v>
-      </c>
-      <c r="J43">
-        <v>53.228000000000002</v>
-      </c>
-      <c r="K43" t="s">
-        <v>81</v>
-      </c>
-      <c r="L43">
+      <c r="D55" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E55" s="8">
+        <v>45880</v>
+      </c>
+      <c r="F55" s="9">
+        <v>0.61250000000000004</v>
+      </c>
+      <c r="G55" s="6">
+        <v>39</v>
+      </c>
+      <c r="H55" s="6">
+        <v>18.353999999999999</v>
+      </c>
+      <c r="I55" s="6">
+        <v>-74</v>
+      </c>
+      <c r="J55" s="6">
+        <v>20.068000000000001</v>
+      </c>
+      <c r="K55" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="L55" s="6">
+        <v>1</v>
+      </c>
+      <c r="M55" s="6">
         <v>2</v>
       </c>
-      <c r="M43">
-        <v>1</v>
-      </c>
-      <c r="N43" t="s">
-        <v>40</v>
-      </c>
-      <c r="O43">
-        <v>500</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>108</v>
-      </c>
-      <c r="R43">
-        <v>16</v>
-      </c>
-      <c r="S43">
-        <v>16.8</v>
-      </c>
-      <c r="T43">
-        <v>31.58</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+      <c r="N55" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O55" s="6">
+        <v>500</v>
+      </c>
+      <c r="P55" s="6"/>
+      <c r="Q55" s="6"/>
+      <c r="R55" s="6">
+        <v>2</v>
+      </c>
+      <c r="S55" s="6"/>
+      <c r="T55" s="6"/>
+      <c r="U55" s="6"/>
+      <c r="V55" s="6"/>
+      <c r="W55" s="6"/>
+      <c r="X55" s="6"/>
+      <c r="Y55" s="6"/>
+      <c r="Z55" s="6"/>
+      <c r="AA55" s="6"/>
+      <c r="AB55" s="6"/>
+      <c r="AC55" s="6"/>
+      <c r="AD55" s="16"/>
+    </row>
+    <row r="56" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A56" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B56" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B44" t="s">
-        <v>103</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="C56" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="D44" t="s">
-        <v>24</v>
-      </c>
-      <c r="E44" s="3">
-        <v>45854</v>
-      </c>
-      <c r="F44" s="4">
-        <v>0.70138888888888884</v>
-      </c>
-      <c r="G44">
-        <v>40</v>
-      </c>
-      <c r="H44">
-        <v>21.917999999999999</v>
-      </c>
-      <c r="I44">
-        <v>-73</v>
-      </c>
-      <c r="J44">
-        <v>53.228000000000002</v>
-      </c>
-      <c r="K44" t="s">
-        <v>82</v>
-      </c>
-      <c r="L44">
+      <c r="D56" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E56" s="10">
+        <v>45880</v>
+      </c>
+      <c r="F56" s="11">
+        <v>0.62152777777777779</v>
+      </c>
+      <c r="G56" s="5">
+        <v>39</v>
+      </c>
+      <c r="H56" s="5">
+        <v>18.327999999999999</v>
+      </c>
+      <c r="I56" s="5">
+        <v>-74</v>
+      </c>
+      <c r="J56" s="5">
+        <v>20.117000000000001</v>
+      </c>
+      <c r="K56" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="L56" s="5">
         <v>2</v>
       </c>
-      <c r="M44">
-        <v>1</v>
-      </c>
-      <c r="N44" t="s">
-        <v>40</v>
-      </c>
-      <c r="O44">
-        <v>500</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>108</v>
-      </c>
-      <c r="R44">
-        <v>16</v>
-      </c>
-      <c r="S44">
-        <v>16.8</v>
-      </c>
-      <c r="T44">
-        <v>31.58</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+      <c r="M56" s="5">
+        <v>1</v>
+      </c>
+      <c r="N56" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="O56" s="5">
+        <v>500</v>
+      </c>
+      <c r="P56" s="5"/>
+      <c r="Q56" s="5"/>
+      <c r="R56" s="5">
+        <v>10</v>
+      </c>
+      <c r="S56" s="5"/>
+      <c r="T56" s="5"/>
+      <c r="U56" s="5"/>
+      <c r="V56" s="5"/>
+      <c r="W56" s="5"/>
+      <c r="X56" s="5"/>
+      <c r="Y56" s="5"/>
+      <c r="Z56" s="5"/>
+      <c r="AA56" s="5"/>
+      <c r="AB56" s="5"/>
+      <c r="AC56" s="5"/>
+      <c r="AD56" s="15"/>
+    </row>
+    <row r="57" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A57" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B57" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B45" t="s">
-        <v>103</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="C57" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="D45" t="s">
-        <v>24</v>
-      </c>
-      <c r="E45" s="3">
-        <v>45854</v>
-      </c>
-      <c r="F45" s="4">
-        <v>0.70138888888888884</v>
-      </c>
-      <c r="G45">
-        <v>40</v>
-      </c>
-      <c r="H45">
-        <v>21.917999999999999</v>
-      </c>
-      <c r="I45">
-        <v>-73</v>
-      </c>
-      <c r="J45">
-        <v>53.228000000000002</v>
-      </c>
-      <c r="K45" t="s">
-        <v>83</v>
-      </c>
-      <c r="L45">
+      <c r="D57" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E57" s="8">
+        <v>45880</v>
+      </c>
+      <c r="F57" s="9">
+        <v>0.62152777777777779</v>
+      </c>
+      <c r="G57" s="6">
+        <v>39</v>
+      </c>
+      <c r="H57" s="6">
+        <v>18.327999999999999</v>
+      </c>
+      <c r="I57" s="6">
+        <v>-74</v>
+      </c>
+      <c r="J57" s="6">
+        <v>20.117000000000001</v>
+      </c>
+      <c r="K57" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="L57" s="6">
         <v>2</v>
       </c>
-      <c r="M45">
-        <v>1</v>
-      </c>
-      <c r="N45" t="s">
-        <v>40</v>
-      </c>
-      <c r="O45">
-        <v>500</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>108</v>
-      </c>
-      <c r="R45">
-        <v>16</v>
-      </c>
-      <c r="S45">
-        <v>16.8</v>
-      </c>
-      <c r="T45">
-        <v>31.58</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+      <c r="M57" s="6">
+        <v>1</v>
+      </c>
+      <c r="N57" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O57" s="6">
+        <v>500</v>
+      </c>
+      <c r="P57" s="6"/>
+      <c r="Q57" s="6"/>
+      <c r="R57" s="6">
+        <v>10</v>
+      </c>
+      <c r="S57" s="6"/>
+      <c r="T57" s="6"/>
+      <c r="U57" s="6"/>
+      <c r="V57" s="6"/>
+      <c r="W57" s="6"/>
+      <c r="X57" s="6"/>
+      <c r="Y57" s="6"/>
+      <c r="Z57" s="6"/>
+      <c r="AA57" s="6"/>
+      <c r="AB57" s="6"/>
+      <c r="AC57" s="6"/>
+      <c r="AD57" s="16"/>
+    </row>
+    <row r="58" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A58" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B58" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B46" t="s">
-        <v>103</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="C58" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="D46" t="s">
-        <v>24</v>
-      </c>
-      <c r="E46" s="3">
-        <v>45854</v>
-      </c>
-      <c r="F46" s="4">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="G46">
-        <v>40</v>
-      </c>
-      <c r="H46">
-        <v>21.943999999999999</v>
-      </c>
-      <c r="I46">
-        <v>-73</v>
-      </c>
-      <c r="J46">
-        <v>53.311999999999998</v>
-      </c>
-      <c r="K46" t="s">
-        <v>84</v>
-      </c>
-      <c r="L46">
-        <v>3</v>
-      </c>
-      <c r="M46">
-        <v>1</v>
-      </c>
-      <c r="N46" t="s">
-        <v>40</v>
-      </c>
-      <c r="O46">
-        <v>500</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>108</v>
-      </c>
-      <c r="R46">
-        <v>4</v>
-      </c>
-      <c r="S46">
-        <v>24.59</v>
-      </c>
-      <c r="T46">
-        <v>29.24</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+      <c r="D58" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E58" s="10">
+        <v>45880</v>
+      </c>
+      <c r="F58" s="11">
+        <v>0.62152777777777779</v>
+      </c>
+      <c r="G58" s="5">
+        <v>39</v>
+      </c>
+      <c r="H58" s="5">
+        <v>18.327999999999999</v>
+      </c>
+      <c r="I58" s="5">
+        <v>-74</v>
+      </c>
+      <c r="J58" s="5">
+        <v>20.117000000000001</v>
+      </c>
+      <c r="K58" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="L58" s="5">
+        <v>2</v>
+      </c>
+      <c r="M58" s="5">
+        <v>2</v>
+      </c>
+      <c r="N58" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="O58" s="5">
+        <v>500</v>
+      </c>
+      <c r="P58" s="5"/>
+      <c r="Q58" s="5"/>
+      <c r="R58" s="5">
+        <v>2</v>
+      </c>
+      <c r="S58" s="5"/>
+      <c r="T58" s="5"/>
+      <c r="U58" s="5"/>
+      <c r="V58" s="5"/>
+      <c r="W58" s="5"/>
+      <c r="X58" s="5"/>
+      <c r="Y58" s="5"/>
+      <c r="Z58" s="5"/>
+      <c r="AA58" s="5"/>
+      <c r="AB58" s="5"/>
+      <c r="AC58" s="5"/>
+      <c r="AD58" s="15"/>
+    </row>
+    <row r="59" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A59" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B59" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B47" t="s">
-        <v>103</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="C59" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="D47" t="s">
-        <v>24</v>
-      </c>
-      <c r="E47" s="3">
-        <v>45854</v>
-      </c>
-      <c r="F47" s="4">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="G47">
-        <v>40</v>
-      </c>
-      <c r="H47">
-        <v>21.943999999999999</v>
-      </c>
-      <c r="I47">
-        <v>-73</v>
-      </c>
-      <c r="J47">
-        <v>53.311999999999998</v>
-      </c>
-      <c r="K47" t="s">
-        <v>85</v>
-      </c>
-      <c r="L47">
-        <v>3</v>
-      </c>
-      <c r="M47">
-        <v>1</v>
-      </c>
-      <c r="N47" t="s">
-        <v>40</v>
-      </c>
-      <c r="O47">
-        <v>500</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>108</v>
-      </c>
-      <c r="R47">
-        <v>4</v>
-      </c>
-      <c r="S47">
-        <v>24.59</v>
-      </c>
-      <c r="T47">
-        <v>29.24</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>105</v>
-      </c>
-      <c r="B48" t="s">
-        <v>103</v>
-      </c>
-      <c r="C48" t="s">
-        <v>106</v>
-      </c>
-      <c r="D48" t="s">
-        <v>24</v>
-      </c>
-      <c r="E48" s="3">
-        <v>45854</v>
-      </c>
-      <c r="F48" s="4">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="G48">
-        <v>40</v>
-      </c>
-      <c r="H48">
-        <v>21.943999999999999</v>
-      </c>
-      <c r="I48">
-        <v>-73</v>
-      </c>
-      <c r="J48">
-        <v>53.311999999999998</v>
-      </c>
-      <c r="K48" t="s">
-        <v>86</v>
-      </c>
-      <c r="L48">
-        <v>3</v>
-      </c>
-      <c r="M48">
-        <v>1</v>
-      </c>
-      <c r="N48" t="s">
-        <v>40</v>
-      </c>
-      <c r="O48">
-        <v>500</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>108</v>
-      </c>
-      <c r="R48">
-        <v>4</v>
-      </c>
-      <c r="S48">
-        <v>24.59</v>
-      </c>
-      <c r="T48">
-        <v>29.24</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>105</v>
-      </c>
-      <c r="B49" t="s">
-        <v>103</v>
-      </c>
-      <c r="C49" t="s">
-        <v>106</v>
-      </c>
-      <c r="D49" t="s">
-        <v>24</v>
-      </c>
-      <c r="E49" s="3">
-        <v>45854</v>
-      </c>
-      <c r="F49" s="4">
-        <v>0.71527777777777779</v>
-      </c>
-      <c r="G49">
-        <v>40</v>
-      </c>
-      <c r="H49">
-        <v>21.986999999999998</v>
-      </c>
-      <c r="I49">
-        <v>-73</v>
-      </c>
-      <c r="J49">
-        <v>53.381</v>
-      </c>
-      <c r="K49" t="s">
-        <v>87</v>
-      </c>
-      <c r="L49">
-        <v>4</v>
-      </c>
-      <c r="M49">
-        <v>1</v>
-      </c>
-      <c r="N49" t="s">
-        <v>40</v>
-      </c>
-      <c r="O49">
-        <v>500</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>108</v>
-      </c>
-      <c r="R49">
-        <v>16</v>
-      </c>
-      <c r="S49">
-        <v>16.8</v>
-      </c>
-      <c r="T49">
-        <v>31.58</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>105</v>
-      </c>
-      <c r="B50" t="s">
-        <v>103</v>
-      </c>
-      <c r="C50" t="s">
-        <v>106</v>
-      </c>
-      <c r="D50" t="s">
-        <v>24</v>
-      </c>
-      <c r="E50" s="3">
-        <v>45854</v>
-      </c>
-      <c r="F50" s="4">
-        <v>0.71527777777777779</v>
-      </c>
-      <c r="G50">
-        <v>40</v>
-      </c>
-      <c r="H50">
-        <v>21.986999999999998</v>
-      </c>
-      <c r="I50">
-        <v>-73</v>
-      </c>
-      <c r="J50">
-        <v>53.381</v>
-      </c>
-      <c r="K50" t="s">
-        <v>88</v>
-      </c>
-      <c r="L50">
-        <v>4</v>
-      </c>
-      <c r="M50">
-        <v>1</v>
-      </c>
-      <c r="N50" t="s">
-        <v>40</v>
-      </c>
-      <c r="O50">
-        <v>500</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>108</v>
-      </c>
-      <c r="R50">
-        <v>16</v>
-      </c>
-      <c r="S50">
-        <v>16.8</v>
-      </c>
-      <c r="T50">
-        <v>31.58</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>105</v>
-      </c>
-      <c r="B51" t="s">
-        <v>103</v>
-      </c>
-      <c r="C51" t="s">
-        <v>106</v>
-      </c>
-      <c r="D51" t="s">
-        <v>24</v>
-      </c>
-      <c r="E51" s="3">
-        <v>45854</v>
-      </c>
-      <c r="F51" s="4">
-        <v>0.71527777777777779</v>
-      </c>
-      <c r="G51">
-        <v>40</v>
-      </c>
-      <c r="H51">
-        <v>21.986999999999998</v>
-      </c>
-      <c r="I51">
-        <v>-73</v>
-      </c>
-      <c r="J51">
-        <v>53.381</v>
-      </c>
-      <c r="K51" t="s">
-        <v>89</v>
-      </c>
-      <c r="L51">
-        <v>4</v>
-      </c>
-      <c r="M51">
-        <v>1</v>
-      </c>
-      <c r="N51" t="s">
-        <v>40</v>
-      </c>
-      <c r="O51">
-        <v>500</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>108</v>
-      </c>
-      <c r="R51">
-        <v>16</v>
-      </c>
-      <c r="S51">
-        <v>16.8</v>
-      </c>
-      <c r="T51">
-        <v>31.58</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>15</v>
-      </c>
-      <c r="B52" t="s">
-        <v>109</v>
-      </c>
-      <c r="C52" t="s">
-        <v>110</v>
-      </c>
-      <c r="D52" t="s">
+      <c r="D59" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E59" s="8">
         <v>45880</v>
       </c>
-      <c r="F52" s="4">
-        <v>0.61250000000000004</v>
-      </c>
-      <c r="G52">
+      <c r="F59" s="9">
+        <v>0.62152777777777779</v>
+      </c>
+      <c r="G59" s="6">
         <v>39</v>
       </c>
-      <c r="H52">
-        <v>18.353999999999999</v>
-      </c>
-      <c r="I52">
+      <c r="H59" s="6">
+        <v>18.327999999999999</v>
+      </c>
+      <c r="I59" s="6">
         <v>-74</v>
       </c>
-      <c r="J52">
-        <v>20.068000000000001</v>
-      </c>
-      <c r="K52" t="s">
-        <v>90</v>
-      </c>
-      <c r="L52">
-        <v>1</v>
-      </c>
-      <c r="M52">
-        <v>1</v>
-      </c>
-      <c r="N52" t="s">
+      <c r="J59" s="6">
+        <v>20.117000000000001</v>
+      </c>
+      <c r="K59" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="L59" s="6">
+        <v>2</v>
+      </c>
+      <c r="M59" s="6">
+        <v>2</v>
+      </c>
+      <c r="N59" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="O52">
-        <v>500</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>108</v>
-      </c>
-      <c r="R52">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B53" t="s">
-        <v>109</v>
-      </c>
-      <c r="C53" t="s">
-        <v>110</v>
-      </c>
-      <c r="D53" t="s">
-        <v>42</v>
-      </c>
-      <c r="E53" s="3">
-        <v>45880</v>
-      </c>
-      <c r="F53" s="4">
-        <v>0.61250000000000004</v>
-      </c>
-      <c r="G53">
-        <v>39</v>
-      </c>
-      <c r="H53">
-        <v>18.353999999999999</v>
-      </c>
-      <c r="I53">
-        <v>-74</v>
-      </c>
-      <c r="J53">
-        <v>20.068000000000001</v>
-      </c>
-      <c r="K53" t="s">
-        <v>91</v>
-      </c>
-      <c r="L53">
-        <v>1</v>
-      </c>
-      <c r="M53">
-        <v>1</v>
-      </c>
-      <c r="N53" t="s">
-        <v>37</v>
-      </c>
-      <c r="O53">
-        <v>500</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>108</v>
-      </c>
-      <c r="R53">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>15</v>
-      </c>
-      <c r="B54" t="s">
-        <v>109</v>
-      </c>
-      <c r="C54" t="s">
-        <v>110</v>
-      </c>
-      <c r="D54" t="s">
-        <v>42</v>
-      </c>
-      <c r="E54" s="3">
-        <v>45880</v>
-      </c>
-      <c r="F54" s="4">
-        <v>0.61250000000000004</v>
-      </c>
-      <c r="G54">
-        <v>39</v>
-      </c>
-      <c r="H54">
-        <v>18.353999999999999</v>
-      </c>
-      <c r="I54">
-        <v>-74</v>
-      </c>
-      <c r="J54">
-        <v>20.068000000000001</v>
-      </c>
-      <c r="K54" t="s">
-        <v>92</v>
-      </c>
-      <c r="L54">
-        <v>1</v>
-      </c>
-      <c r="M54">
+      <c r="O59" s="6">
+        <v>500</v>
+      </c>
+      <c r="P59" s="6"/>
+      <c r="Q59" s="6"/>
+      <c r="R59" s="6">
         <v>2</v>
       </c>
-      <c r="N54" t="s">
-        <v>37</v>
-      </c>
-      <c r="O54">
-        <v>500</v>
-      </c>
-      <c r="R54">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B55" t="s">
-        <v>109</v>
-      </c>
-      <c r="C55" t="s">
-        <v>110</v>
-      </c>
-      <c r="D55" t="s">
-        <v>42</v>
-      </c>
-      <c r="E55" s="3">
-        <v>45880</v>
-      </c>
-      <c r="F55" s="4">
-        <v>0.61250000000000004</v>
-      </c>
-      <c r="G55">
-        <v>39</v>
-      </c>
-      <c r="H55">
-        <v>18.353999999999999</v>
-      </c>
-      <c r="I55">
-        <v>-74</v>
-      </c>
-      <c r="J55">
-        <v>20.068000000000001</v>
-      </c>
-      <c r="K55" t="s">
-        <v>93</v>
-      </c>
-      <c r="L55">
-        <v>1</v>
-      </c>
-      <c r="M55">
-        <v>2</v>
-      </c>
-      <c r="N55" t="s">
-        <v>37</v>
-      </c>
-      <c r="O55">
-        <v>500</v>
-      </c>
-      <c r="R55">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B56" t="s">
-        <v>109</v>
-      </c>
-      <c r="C56" t="s">
-        <v>110</v>
-      </c>
-      <c r="D56" t="s">
-        <v>42</v>
-      </c>
-      <c r="E56" s="3">
-        <v>45880</v>
-      </c>
-      <c r="F56" s="4">
-        <v>0.62152777777777779</v>
-      </c>
-      <c r="G56">
-        <v>39</v>
-      </c>
-      <c r="H56">
-        <v>18.327999999999999</v>
-      </c>
-      <c r="I56">
-        <v>-74</v>
-      </c>
-      <c r="J56">
-        <v>20.117000000000001</v>
-      </c>
-      <c r="K56" t="s">
-        <v>94</v>
-      </c>
-      <c r="L56">
-        <v>2</v>
-      </c>
-      <c r="M56">
-        <v>1</v>
-      </c>
-      <c r="N56" t="s">
-        <v>37</v>
-      </c>
-      <c r="O56">
-        <v>500</v>
-      </c>
-      <c r="R56">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>15</v>
-      </c>
-      <c r="B57" t="s">
-        <v>109</v>
-      </c>
-      <c r="C57" t="s">
-        <v>110</v>
-      </c>
-      <c r="D57" t="s">
-        <v>42</v>
-      </c>
-      <c r="E57" s="3">
-        <v>45880</v>
-      </c>
-      <c r="F57" s="4">
-        <v>0.62152777777777779</v>
-      </c>
-      <c r="G57">
-        <v>39</v>
-      </c>
-      <c r="H57">
-        <v>18.327999999999999</v>
-      </c>
-      <c r="I57">
-        <v>-74</v>
-      </c>
-      <c r="J57">
-        <v>20.117000000000001</v>
-      </c>
-      <c r="K57" t="s">
-        <v>95</v>
-      </c>
-      <c r="L57">
-        <v>2</v>
-      </c>
-      <c r="M57">
-        <v>1</v>
-      </c>
-      <c r="N57" t="s">
-        <v>37</v>
-      </c>
-      <c r="O57">
-        <v>500</v>
-      </c>
-      <c r="R57">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>15</v>
-      </c>
-      <c r="B58" t="s">
-        <v>109</v>
-      </c>
-      <c r="C58" t="s">
-        <v>110</v>
-      </c>
-      <c r="D58" t="s">
-        <v>42</v>
-      </c>
-      <c r="E58" s="3">
-        <v>45880</v>
-      </c>
-      <c r="F58" s="4">
-        <v>0.62152777777777779</v>
-      </c>
-      <c r="G58">
-        <v>39</v>
-      </c>
-      <c r="H58">
-        <v>18.327999999999999</v>
-      </c>
-      <c r="I58">
-        <v>-74</v>
-      </c>
-      <c r="J58">
-        <v>20.117000000000001</v>
-      </c>
-      <c r="K58" t="s">
-        <v>96</v>
-      </c>
-      <c r="L58">
-        <v>2</v>
-      </c>
-      <c r="M58">
-        <v>2</v>
-      </c>
-      <c r="N58" t="s">
-        <v>37</v>
-      </c>
-      <c r="O58">
-        <v>500</v>
-      </c>
-      <c r="R58">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B59" t="s">
-        <v>109</v>
-      </c>
-      <c r="C59" t="s">
-        <v>110</v>
-      </c>
-      <c r="D59" t="s">
-        <v>42</v>
-      </c>
-      <c r="E59" s="3">
-        <v>45880</v>
-      </c>
-      <c r="F59" s="4">
-        <v>0.62152777777777779</v>
-      </c>
-      <c r="G59">
-        <v>39</v>
-      </c>
-      <c r="H59">
-        <v>18.327999999999999</v>
-      </c>
-      <c r="I59">
-        <v>-74</v>
-      </c>
-      <c r="J59">
-        <v>20.117000000000001</v>
-      </c>
-      <c r="K59" t="s">
-        <v>97</v>
-      </c>
-      <c r="L59">
-        <v>2</v>
-      </c>
-      <c r="M59">
-        <v>2</v>
-      </c>
-      <c r="N59" t="s">
-        <v>37</v>
-      </c>
-      <c r="O59">
-        <v>500</v>
-      </c>
-      <c r="R59">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="K60" t="s">
-        <v>98</v>
-      </c>
-      <c r="N60" t="s">
-        <v>37</v>
-      </c>
-      <c r="O60">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="K61" t="s">
-        <v>99</v>
-      </c>
-      <c r="N61" t="s">
-        <v>37</v>
-      </c>
-      <c r="O61">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="K62" t="s">
-        <v>101</v>
-      </c>
-      <c r="N62" t="s">
-        <v>37</v>
-      </c>
-      <c r="O62">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="K63" t="s">
-        <v>102</v>
-      </c>
-      <c r="N63" t="s">
-        <v>37</v>
-      </c>
-      <c r="O63">
-        <v>500</v>
-      </c>
+      <c r="S59" s="6"/>
+      <c r="T59" s="6"/>
+      <c r="U59" s="6"/>
+      <c r="V59" s="6"/>
+      <c r="W59" s="6"/>
+      <c r="X59" s="6"/>
+      <c r="Y59" s="6"/>
+      <c r="Z59" s="6"/>
+      <c r="AA59" s="6"/>
+      <c r="AB59" s="6"/>
+      <c r="AC59" s="6"/>
+      <c r="AD59" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/pH_glider/water_sampling/sample_logs/RMI2_pH_Water_Sample_Log.xlsx
+++ b/pH_glider/water_sampling/sample_logs/RMI2_pH_Water_Sample_Log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/garzio/Documents/repo/rucool/dataset_archiving/pH_glider/water_sampling/sample_logs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F2D9FF-828C-184E-8ABE-79044493C4B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D2142D-A4CB-504C-91CB-F1E513D1336F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2740" yWindow="3840" windowWidth="35840" windowHeight="15700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SampleLog" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="112">
   <si>
     <t>Sample #</t>
   </si>
@@ -359,6 +359,18 @@
   </si>
   <si>
     <t xml:space="preserve">Bottle had large headspace. </t>
+  </si>
+  <si>
+    <t>Water Column location</t>
+  </si>
+  <si>
+    <t>bottom</t>
+  </si>
+  <si>
+    <t>thermocline</t>
+  </si>
+  <si>
+    <t>surface</t>
   </si>
 </sst>
 </file>
@@ -402,7 +414,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -474,11 +486,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -496,12 +534,14 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -782,11 +822,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD59"/>
+  <dimension ref="A1:AE59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AG15" sqref="AG15"/>
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AD37" sqref="AD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -804,10 +844,9 @@
     <col min="11" max="11" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.83203125" customWidth="1"/>
-    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="46" customWidth="1"/>
-    <col min="17" max="17" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="10.83203125" customWidth="1"/>
+    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="46" customWidth="1"/>
     <col min="18" max="18" width="8.83203125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="7.33203125" bestFit="1" customWidth="1"/>
@@ -821,9 +860,10 @@
     <col min="28" max="28" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="6.83203125" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="33.1640625" customWidth="1"/>
+    <col min="31" max="31" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -867,13 +907,13 @@
         <v>39</v>
       </c>
       <c r="O1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>5</v>
@@ -908,14 +948,17 @@
       <c r="AB1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="19" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+      <c r="AE1" s="18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -958,14 +1001,14 @@
       <c r="N2" t="s">
         <v>37</v>
       </c>
-      <c r="O2">
-        <v>500</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="O2" t="s">
+        <v>109</v>
+      </c>
+      <c r="P2">
+        <v>500</v>
+      </c>
+      <c r="Q2" t="s">
         <v>37</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>104</v>
       </c>
       <c r="R2">
         <v>14</v>
@@ -991,9 +1034,12 @@
       </c>
       <c r="AB2" s="5"/>
       <c r="AC2" s="5"/>
-      <c r="AD2" s="15"/>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD2" s="16"/>
+      <c r="AE2" s="14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>15</v>
       </c>
@@ -1036,14 +1082,14 @@
       <c r="N3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="O3" s="6">
-        <v>500</v>
-      </c>
-      <c r="P3" s="6" t="s">
+      <c r="O3" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="P3" s="6">
+        <v>500</v>
+      </c>
+      <c r="Q3" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="Q3" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="R3" s="6">
         <v>14</v>
@@ -1069,10 +1115,15 @@
         <f>U3-AA2</f>
         <v>2.8330296933538612E-2</v>
       </c>
-      <c r="AC3" s="6"/>
-      <c r="AD3" s="16"/>
-    </row>
-    <row r="4" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+      <c r="AC3" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1115,14 +1166,14 @@
       <c r="N4" t="s">
         <v>37</v>
       </c>
-      <c r="O4">
-        <v>500</v>
-      </c>
-      <c r="P4" t="s">
+      <c r="O4" t="s">
+        <v>110</v>
+      </c>
+      <c r="P4">
+        <v>500</v>
+      </c>
+      <c r="Q4" t="s">
         <v>37</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>104</v>
       </c>
       <c r="R4">
         <v>7</v>
@@ -1148,9 +1199,12 @@
       </c>
       <c r="AB4" s="5"/>
       <c r="AC4" s="5"/>
-      <c r="AD4" s="15"/>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD4" s="16"/>
+      <c r="AE4" s="14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>15</v>
       </c>
@@ -1193,14 +1247,14 @@
       <c r="N5" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="O5" s="6">
-        <v>500</v>
-      </c>
-      <c r="P5" s="6" t="s">
+      <c r="O5" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="P5" s="6">
+        <v>500</v>
+      </c>
+      <c r="Q5" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="Q5" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="R5" s="6">
         <v>7</v>
@@ -1226,10 +1280,15 @@
         <f>U5-AA4</f>
         <v>1.7040251404116802E-2</v>
       </c>
-      <c r="AC5" s="6"/>
-      <c r="AD5" s="16"/>
-    </row>
-    <row r="6" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+      <c r="AC5" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="6"/>
+      <c r="AE5" s="13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1272,14 +1331,14 @@
       <c r="N6" t="s">
         <v>40</v>
       </c>
-      <c r="O6">
-        <v>500</v>
-      </c>
-      <c r="P6" t="s">
+      <c r="O6" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="P6">
+        <v>500</v>
+      </c>
+      <c r="Q6" t="s">
         <v>38</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>104</v>
       </c>
       <c r="R6">
         <v>2</v>
@@ -1305,9 +1364,12 @@
       </c>
       <c r="AB6" s="5"/>
       <c r="AC6" s="5"/>
-      <c r="AD6" s="15"/>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD6" s="16"/>
+      <c r="AE6" s="14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>15</v>
       </c>
@@ -1350,14 +1412,14 @@
       <c r="N7" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="O7" s="6">
-        <v>500</v>
-      </c>
-      <c r="P7" s="6" t="s">
+      <c r="O7" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="P7" s="6">
+        <v>500</v>
+      </c>
+      <c r="Q7" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="Q7" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="R7" s="6">
         <v>2</v>
@@ -1383,10 +1445,15 @@
         <f>U7-AA6</f>
         <v>-8.8093532621744686E-3</v>
       </c>
-      <c r="AC7" s="6"/>
-      <c r="AD7" s="16"/>
-    </row>
-    <row r="8" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+      <c r="AC7" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1429,14 +1496,14 @@
       <c r="N8" t="s">
         <v>40</v>
       </c>
-      <c r="O8">
-        <v>500</v>
-      </c>
-      <c r="P8" t="s">
+      <c r="O8" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="P8">
+        <v>500</v>
+      </c>
+      <c r="Q8" t="s">
         <v>38</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>104</v>
       </c>
       <c r="R8">
         <v>7</v>
@@ -1462,9 +1529,12 @@
       </c>
       <c r="AB8" s="5"/>
       <c r="AC8" s="5"/>
-      <c r="AD8" s="15"/>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD8" s="16"/>
+      <c r="AE8" s="14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>15</v>
       </c>
@@ -1507,14 +1577,14 @@
       <c r="N9" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="O9" s="6">
-        <v>500</v>
-      </c>
-      <c r="P9" s="6" t="s">
+      <c r="O9" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="P9" s="6">
+        <v>500</v>
+      </c>
+      <c r="Q9" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="Q9" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="R9" s="6">
         <v>7</v>
@@ -1540,10 +1610,15 @@
         <f>U9-AA8</f>
         <v>2.1225569481828188E-2</v>
       </c>
-      <c r="AC9" s="6"/>
-      <c r="AD9" s="16"/>
-    </row>
-    <row r="10" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+      <c r="AC9" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="6"/>
+      <c r="AE9" s="13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1586,14 +1661,14 @@
       <c r="N10" t="s">
         <v>40</v>
       </c>
-      <c r="O10">
-        <v>500</v>
-      </c>
-      <c r="P10" t="s">
+      <c r="O10" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="P10">
+        <v>500</v>
+      </c>
+      <c r="Q10" t="s">
         <v>38</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>104</v>
       </c>
       <c r="R10">
         <v>14</v>
@@ -1619,9 +1694,12 @@
       </c>
       <c r="AB10" s="5"/>
       <c r="AC10" s="5"/>
-      <c r="AD10" s="15"/>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD10" s="16"/>
+      <c r="AE10" s="14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>15</v>
       </c>
@@ -1664,14 +1742,14 @@
       <c r="N11" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="O11" s="6">
-        <v>500</v>
-      </c>
-      <c r="P11" s="6" t="s">
+      <c r="O11" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="P11" s="6">
+        <v>500</v>
+      </c>
+      <c r="Q11" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="Q11" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="R11" s="6">
         <v>14</v>
@@ -1697,10 +1775,15 @@
         <f>U11-AA10</f>
         <v>-7.7238262611585284E-3</v>
       </c>
-      <c r="AC11" s="6"/>
-      <c r="AD11" s="16"/>
-    </row>
-    <row r="12" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+      <c r="AC11" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="6"/>
+      <c r="AE11" s="13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1743,14 +1826,14 @@
       <c r="N12" t="s">
         <v>40</v>
       </c>
-      <c r="O12">
-        <v>500</v>
-      </c>
-      <c r="P12" t="s">
+      <c r="O12" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="P12">
+        <v>500</v>
+      </c>
+      <c r="Q12" t="s">
         <v>38</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>104</v>
       </c>
       <c r="R12">
         <v>2</v>
@@ -1776,9 +1859,12 @@
       </c>
       <c r="AB12" s="5"/>
       <c r="AC12" s="5"/>
-      <c r="AD12" s="15"/>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD12" s="16"/>
+      <c r="AE12" s="14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>15</v>
       </c>
@@ -1821,14 +1907,14 @@
       <c r="N13" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="O13" s="6">
-        <v>500</v>
-      </c>
-      <c r="P13" s="6" t="s">
+      <c r="O13" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="P13" s="6">
+        <v>500</v>
+      </c>
+      <c r="Q13" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="Q13" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="R13" s="6">
         <v>2</v>
@@ -1854,10 +1940,15 @@
         <f>U13-AA12</f>
         <v>-6.7663232447490174E-3</v>
       </c>
-      <c r="AC13" s="6"/>
-      <c r="AD13" s="16"/>
-    </row>
-    <row r="14" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+      <c r="AC13" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD13" s="6"/>
+      <c r="AE13" s="13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1900,14 +1991,14 @@
       <c r="N14" t="s">
         <v>37</v>
       </c>
-      <c r="O14">
-        <v>500</v>
-      </c>
-      <c r="P14" t="s">
+      <c r="O14" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="P14">
+        <v>500</v>
+      </c>
+      <c r="Q14" t="s">
         <v>67</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>104</v>
       </c>
       <c r="R14">
         <v>2</v>
@@ -1933,9 +2024,12 @@
       </c>
       <c r="AB14" s="5"/>
       <c r="AC14" s="5"/>
-      <c r="AD14" s="15"/>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD14" s="16"/>
+      <c r="AE14" s="14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>15</v>
       </c>
@@ -1978,14 +2072,14 @@
       <c r="N15" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="O15" s="6">
-        <v>500</v>
-      </c>
-      <c r="P15" s="6" t="s">
+      <c r="O15" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="P15" s="6">
+        <v>500</v>
+      </c>
+      <c r="Q15" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="Q15" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="R15" s="6">
         <v>2</v>
@@ -2011,10 +2105,15 @@
         <f>U15-AA14</f>
         <v>1.6419622680947654E-3</v>
       </c>
-      <c r="AC15" s="6"/>
-      <c r="AD15" s="16"/>
-    </row>
-    <row r="16" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+      <c r="AC15" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD15" s="6"/>
+      <c r="AE15" s="13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -2057,14 +2156,14 @@
       <c r="N16" t="s">
         <v>37</v>
       </c>
-      <c r="O16">
-        <v>500</v>
-      </c>
-      <c r="P16" t="s">
+      <c r="O16" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="P16">
+        <v>500</v>
+      </c>
+      <c r="Q16" t="s">
         <v>67</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>104</v>
       </c>
       <c r="R16">
         <v>8</v>
@@ -2090,9 +2189,12 @@
       </c>
       <c r="AB16" s="5"/>
       <c r="AC16" s="5"/>
-      <c r="AD16" s="15"/>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD16" s="16"/>
+      <c r="AE16" s="14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>15</v>
       </c>
@@ -2135,14 +2237,14 @@
       <c r="N17" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="O17" s="6">
-        <v>500</v>
-      </c>
-      <c r="P17" s="6" t="s">
+      <c r="O17" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="P17" s="6">
+        <v>500</v>
+      </c>
+      <c r="Q17" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="Q17" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="R17" s="6">
         <v>8</v>
@@ -2168,10 +2270,15 @@
         <f>U17-AA16</f>
         <v>-1.2788299494657096E-3</v>
       </c>
-      <c r="AC17" s="6"/>
-      <c r="AD17" s="16"/>
-    </row>
-    <row r="18" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+      <c r="AC17" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD17" s="6"/>
+      <c r="AE17" s="13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -2214,14 +2321,14 @@
       <c r="N18" t="s">
         <v>37</v>
       </c>
-      <c r="O18">
-        <v>500</v>
-      </c>
-      <c r="P18" t="s">
+      <c r="O18" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="P18">
+        <v>500</v>
+      </c>
+      <c r="Q18" t="s">
         <v>67</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>104</v>
       </c>
       <c r="R18">
         <v>14</v>
@@ -2247,9 +2354,12 @@
       </c>
       <c r="AB18" s="5"/>
       <c r="AC18" s="5"/>
-      <c r="AD18" s="15"/>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD18" s="16"/>
+      <c r="AE18" s="14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>15</v>
       </c>
@@ -2292,14 +2402,14 @@
       <c r="N19" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="O19" s="6">
-        <v>500</v>
-      </c>
-      <c r="P19" s="6" t="s">
+      <c r="O19" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="P19" s="6">
+        <v>500</v>
+      </c>
+      <c r="Q19" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="Q19" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="R19" s="6">
         <v>14</v>
@@ -2325,10 +2435,15 @@
         <f>U19-AA18</f>
         <v>-1.451672205645238E-3</v>
       </c>
-      <c r="AC19" s="6"/>
-      <c r="AD19" s="16"/>
-    </row>
-    <row r="20" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+      <c r="AC19" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD19" s="6"/>
+      <c r="AE19" s="13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -2371,14 +2486,14 @@
       <c r="N20" t="s">
         <v>37</v>
       </c>
-      <c r="O20">
-        <v>500</v>
-      </c>
-      <c r="P20" t="s">
+      <c r="O20" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="P20">
+        <v>500</v>
+      </c>
+      <c r="Q20" t="s">
         <v>67</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>104</v>
       </c>
       <c r="R20">
         <v>14</v>
@@ -2404,9 +2519,12 @@
       </c>
       <c r="AB20" s="5"/>
       <c r="AC20" s="5"/>
-      <c r="AD20" s="15"/>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD20" s="16"/>
+      <c r="AE20" s="14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>15</v>
       </c>
@@ -2449,14 +2567,14 @@
       <c r="N21" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="O21" s="6">
-        <v>500</v>
-      </c>
-      <c r="P21" s="6" t="s">
+      <c r="O21" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="P21" s="6">
+        <v>500</v>
+      </c>
+      <c r="Q21" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="Q21" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="R21" s="6">
         <v>14</v>
@@ -2482,10 +2600,15 @@
         <f>U21-AA20</f>
         <v>9.0576483486008996E-3</v>
       </c>
-      <c r="AC21" s="6"/>
-      <c r="AD21" s="16"/>
-    </row>
-    <row r="22" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+      <c r="AC21" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD21" s="6"/>
+      <c r="AE21" s="13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -2528,14 +2651,14 @@
       <c r="N22" t="s">
         <v>37</v>
       </c>
-      <c r="O22">
-        <v>500</v>
-      </c>
-      <c r="P22" t="s">
+      <c r="O22" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="P22">
+        <v>500</v>
+      </c>
+      <c r="Q22" t="s">
         <v>67</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>104</v>
       </c>
       <c r="R22">
         <v>14</v>
@@ -2561,9 +2684,12 @@
       </c>
       <c r="AB22" s="5"/>
       <c r="AC22" s="5"/>
-      <c r="AD22" s="15"/>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD22" s="16"/>
+      <c r="AE22" s="14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>15</v>
       </c>
@@ -2606,14 +2732,14 @@
       <c r="N23" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="O23" s="6">
-        <v>500</v>
-      </c>
-      <c r="P23" s="6" t="s">
+      <c r="O23" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="P23" s="6">
+        <v>500</v>
+      </c>
+      <c r="Q23" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="Q23" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="R23" s="6">
         <v>14</v>
@@ -2639,10 +2765,15 @@
         <f>U23-AA22</f>
         <v>-4.2703130375105758E-3</v>
       </c>
-      <c r="AC23" s="6"/>
-      <c r="AD23" s="16"/>
-    </row>
-    <row r="24" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+      <c r="AC23" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD23" s="6"/>
+      <c r="AE23" s="13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>15</v>
       </c>
@@ -2685,14 +2816,14 @@
       <c r="N24" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="O24" s="5">
-        <v>500</v>
-      </c>
-      <c r="P24" s="5" t="s">
+      <c r="O24" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="P24" s="5">
+        <v>500</v>
+      </c>
+      <c r="Q24" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="Q24" s="5" t="s">
-        <v>104</v>
       </c>
       <c r="R24" s="5">
         <v>14</v>
@@ -2718,9 +2849,12 @@
       </c>
       <c r="AB24" s="5"/>
       <c r="AC24" s="5"/>
-      <c r="AD24" s="15"/>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD24" s="16"/>
+      <c r="AE24" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>15</v>
       </c>
@@ -2763,14 +2897,14 @@
       <c r="N25" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="O25" s="6">
-        <v>500</v>
-      </c>
-      <c r="P25" s="6" t="s">
+      <c r="O25" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="P25" s="6">
+        <v>500</v>
+      </c>
+      <c r="Q25" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="Q25" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="R25" s="6">
         <v>14</v>
@@ -2796,10 +2930,15 @@
         <f>U25-AA24</f>
         <v>2.7208919264696263E-3</v>
       </c>
-      <c r="AC25" s="6"/>
-      <c r="AD25" s="16"/>
-    </row>
-    <row r="26" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+      <c r="AC25" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD25" s="6"/>
+      <c r="AE25" s="13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>15</v>
       </c>
@@ -2842,14 +2981,14 @@
       <c r="N26" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="O26" s="5">
-        <v>500</v>
-      </c>
-      <c r="P26" s="5" t="s">
+      <c r="O26" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="P26" s="5">
+        <v>500</v>
+      </c>
+      <c r="Q26" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="Q26" s="5" t="s">
-        <v>104</v>
       </c>
       <c r="R26" s="5">
         <v>2</v>
@@ -2875,9 +3014,12 @@
       </c>
       <c r="AB26" s="5"/>
       <c r="AC26" s="5"/>
-      <c r="AD26" s="15"/>
-    </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD26" s="16"/>
+      <c r="AE26" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>15</v>
       </c>
@@ -2920,14 +3062,14 @@
       <c r="N27" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="O27" s="6">
-        <v>500</v>
-      </c>
-      <c r="P27" s="6" t="s">
+      <c r="O27" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="P27" s="6">
+        <v>500</v>
+      </c>
+      <c r="Q27" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="Q27" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="R27" s="6">
         <v>2</v>
@@ -2953,10 +3095,15 @@
         <f>U27-AA26</f>
         <v>1.5691180927213111E-3</v>
       </c>
-      <c r="AC27" s="6"/>
-      <c r="AD27" s="16"/>
-    </row>
-    <row r="28" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+      <c r="AC27" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD27" s="6"/>
+      <c r="AE27" s="13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>15</v>
       </c>
@@ -2999,14 +3146,14 @@
       <c r="N28" t="s">
         <v>37</v>
       </c>
-      <c r="O28">
-        <v>500</v>
-      </c>
-      <c r="P28" t="s">
+      <c r="O28" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="P28">
+        <v>500</v>
+      </c>
+      <c r="Q28" t="s">
         <v>67</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>104</v>
       </c>
       <c r="R28">
         <v>8</v>
@@ -3032,9 +3179,12 @@
       </c>
       <c r="AB28" s="5"/>
       <c r="AC28" s="5"/>
-      <c r="AD28" s="15"/>
-    </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD28" s="16"/>
+      <c r="AE28" s="14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>15</v>
       </c>
@@ -3077,14 +3227,14 @@
       <c r="N29" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="O29" s="6">
-        <v>500</v>
-      </c>
-      <c r="P29" s="6" t="s">
+      <c r="O29" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="P29" s="6">
+        <v>500</v>
+      </c>
+      <c r="Q29" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="Q29" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="R29" s="6">
         <v>8</v>
@@ -3110,10 +3260,15 @@
         <f>U29-AA28</f>
         <v>5.3475794050532599E-3</v>
       </c>
-      <c r="AC29" s="6"/>
-      <c r="AD29" s="16"/>
-    </row>
-    <row r="30" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+      <c r="AC29" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD29" s="6"/>
+      <c r="AE29" s="13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>15</v>
       </c>
@@ -3156,14 +3311,14 @@
       <c r="N30" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="O30" s="5">
-        <v>500</v>
-      </c>
-      <c r="P30" s="5" t="s">
+      <c r="O30" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="P30" s="5">
+        <v>500</v>
+      </c>
+      <c r="Q30" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="Q30" s="5" t="s">
-        <v>104</v>
       </c>
       <c r="R30" s="5">
         <v>14</v>
@@ -3189,9 +3344,12 @@
       </c>
       <c r="AB30" s="5"/>
       <c r="AC30" s="5"/>
-      <c r="AD30" s="15"/>
-    </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD30" s="16"/>
+      <c r="AE30" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>15</v>
       </c>
@@ -3234,14 +3392,14 @@
       <c r="N31" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="O31" s="6">
-        <v>500</v>
-      </c>
-      <c r="P31" s="6" t="s">
+      <c r="O31" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="P31" s="6">
+        <v>500</v>
+      </c>
+      <c r="Q31" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="Q31" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="R31" s="6">
         <v>14</v>
@@ -3267,10 +3425,15 @@
         <f>U31-AA30</f>
         <v>8.1345279411015881E-3</v>
       </c>
-      <c r="AC31" s="6"/>
-      <c r="AD31" s="16"/>
-    </row>
-    <row r="32" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+      <c r="AC31" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD31" s="6"/>
+      <c r="AE31" s="13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>15</v>
       </c>
@@ -3313,14 +3476,14 @@
       <c r="N32" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="O32" s="5">
-        <v>500</v>
-      </c>
-      <c r="P32" s="5" t="s">
+      <c r="O32" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="P32" s="5">
+        <v>500</v>
+      </c>
+      <c r="Q32" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="Q32" s="5" t="s">
-        <v>104</v>
       </c>
       <c r="R32" s="5">
         <v>14</v>
@@ -3346,9 +3509,12 @@
       </c>
       <c r="AB32" s="5"/>
       <c r="AC32" s="5"/>
-      <c r="AD32" s="15"/>
-    </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD32" s="16"/>
+      <c r="AE32" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>15</v>
       </c>
@@ -3391,14 +3557,14 @@
       <c r="N33" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="O33" s="6">
-        <v>500</v>
-      </c>
-      <c r="P33" s="6" t="s">
+      <c r="O33" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="P33" s="6">
+        <v>500</v>
+      </c>
+      <c r="Q33" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="Q33" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="R33" s="6">
         <v>14</v>
@@ -3424,12 +3590,17 @@
         <f>U33-AA32</f>
         <v>1.4175111926379103E-2</v>
       </c>
-      <c r="AC33" s="6"/>
-      <c r="AD33" s="16" t="s">
+      <c r="AC33" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD33" s="6" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE33" s="13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>15</v>
       </c>
@@ -3472,14 +3643,14 @@
       <c r="N34" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="O34" s="5">
-        <v>500</v>
-      </c>
-      <c r="P34" s="5" t="s">
+      <c r="O34" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="P34" s="5">
+        <v>500</v>
+      </c>
+      <c r="Q34" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="Q34" s="5" t="s">
-        <v>104</v>
       </c>
       <c r="R34" s="5">
         <v>14</v>
@@ -3490,9 +3661,12 @@
       <c r="T34" s="5">
         <v>32.188000000000002</v>
       </c>
-      <c r="AD34" s="17"/>
-    </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD34" s="16"/>
+      <c r="AE34" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>15</v>
       </c>
@@ -3535,14 +3709,14 @@
       <c r="N35" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="O35" s="6">
-        <v>500</v>
-      </c>
-      <c r="P35" s="6" t="s">
+      <c r="O35" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="P35" s="6">
+        <v>500</v>
+      </c>
+      <c r="Q35" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="Q35" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="R35" s="6">
         <v>14</v>
@@ -3562,9 +3736,12 @@
       <c r="AA35" s="6"/>
       <c r="AB35" s="6"/>
       <c r="AC35" s="6"/>
-      <c r="AD35" s="16"/>
-    </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD35" s="6"/>
+      <c r="AE35" s="13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>15</v>
       </c>
@@ -3607,14 +3784,14 @@
       <c r="N36" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="O36" s="5">
-        <v>500</v>
-      </c>
-      <c r="P36" s="5" t="s">
+      <c r="O36" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="P36" s="5">
+        <v>500</v>
+      </c>
+      <c r="Q36" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="Q36" s="5" t="s">
-        <v>104</v>
       </c>
       <c r="R36" s="5">
         <v>14</v>
@@ -3625,9 +3802,12 @@
       <c r="T36" s="5">
         <v>32.188000000000002</v>
       </c>
-      <c r="AD36" s="17"/>
-    </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD36" s="16"/>
+      <c r="AE36" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>15</v>
       </c>
@@ -3670,14 +3850,14 @@
       <c r="N37" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="O37" s="6">
-        <v>500</v>
-      </c>
-      <c r="P37" s="6" t="s">
+      <c r="O37" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="P37" s="6">
+        <v>500</v>
+      </c>
+      <c r="Q37" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="Q37" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="R37" s="6">
         <v>14</v>
@@ -3697,9 +3877,12 @@
       <c r="AA37" s="6"/>
       <c r="AB37" s="6"/>
       <c r="AC37" s="6"/>
-      <c r="AD37" s="16"/>
-    </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD37" s="6"/>
+      <c r="AE37" s="13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>15</v>
       </c>
@@ -3726,13 +3909,11 @@
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
       <c r="N38" s="5"/>
-      <c r="O38" s="5">
-        <v>500</v>
-      </c>
-      <c r="P38" s="5"/>
-      <c r="Q38" s="5" t="s">
-        <v>104</v>
-      </c>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5">
+        <v>500</v>
+      </c>
+      <c r="Q38" s="5"/>
       <c r="R38" s="5">
         <v>0</v>
       </c>
@@ -3742,9 +3923,12 @@
       <c r="T38" s="5">
         <v>30.07</v>
       </c>
-      <c r="AD38" s="17"/>
-    </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD38" s="16"/>
+      <c r="AE38" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>15</v>
       </c>
@@ -3771,13 +3955,11 @@
       <c r="L39" s="6"/>
       <c r="M39" s="6"/>
       <c r="N39" s="6"/>
-      <c r="O39" s="6">
-        <v>500</v>
-      </c>
-      <c r="P39" s="6"/>
-      <c r="Q39" s="6" t="s">
-        <v>104</v>
-      </c>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6">
+        <v>500</v>
+      </c>
+      <c r="Q39" s="6"/>
       <c r="R39" s="6">
         <v>0</v>
       </c>
@@ -3796,9 +3978,12 @@
       <c r="AA39" s="6"/>
       <c r="AB39" s="6"/>
       <c r="AC39" s="6"/>
-      <c r="AD39" s="16"/>
-    </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD39" s="6"/>
+      <c r="AE39" s="13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
         <v>101</v>
       </c>
@@ -3841,13 +4026,13 @@
       <c r="N40" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="O40" s="5">
-        <v>500</v>
-      </c>
-      <c r="P40" s="5"/>
-      <c r="Q40" s="5" t="s">
-        <v>104</v>
-      </c>
+      <c r="O40" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="P40" s="5">
+        <v>500</v>
+      </c>
+      <c r="Q40" s="5"/>
       <c r="R40" s="5">
         <v>4</v>
       </c>
@@ -3857,79 +4042,75 @@
       <c r="T40" s="5">
         <v>29.24</v>
       </c>
-      <c r="AD40" s="17"/>
-    </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A41" s="12" t="s">
+      <c r="AD40" s="16"/>
+      <c r="AE40" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>101</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B41" t="s">
         <v>99</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C41" t="s">
         <v>102</v>
       </c>
-      <c r="D41" s="12" t="s">
+      <c r="D41" t="s">
         <v>24</v>
       </c>
-      <c r="E41" s="13">
+      <c r="E41" s="3">
         <v>45854</v>
       </c>
-      <c r="F41" s="14">
+      <c r="F41" s="4">
         <v>0.69444444444444442</v>
       </c>
-      <c r="G41" s="12">
+      <c r="G41">
         <v>40</v>
       </c>
-      <c r="H41" s="12">
+      <c r="H41">
         <v>21.93</v>
       </c>
-      <c r="I41" s="12">
+      <c r="I41">
         <v>-73</v>
       </c>
-      <c r="J41" s="12">
+      <c r="J41">
         <v>53.134</v>
       </c>
-      <c r="K41" s="12" t="s">
+      <c r="K41" t="s">
         <v>79</v>
       </c>
-      <c r="L41" s="12">
-        <v>1</v>
-      </c>
-      <c r="M41" s="12">
-        <v>1</v>
-      </c>
-      <c r="N41" s="12" t="s">
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
         <v>40</v>
       </c>
-      <c r="O41" s="12">
-        <v>500</v>
-      </c>
-      <c r="P41" s="12"/>
-      <c r="Q41" s="12" t="s">
+      <c r="O41" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="P41">
+        <v>500</v>
+      </c>
+      <c r="R41">
+        <v>4</v>
+      </c>
+      <c r="S41">
+        <v>24.59</v>
+      </c>
+      <c r="T41">
+        <v>29.24</v>
+      </c>
+      <c r="AD41" s="16"/>
+      <c r="AE41" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="R41" s="12">
-        <v>4</v>
-      </c>
-      <c r="S41" s="12">
-        <v>24.59</v>
-      </c>
-      <c r="T41" s="12">
-        <v>29.24</v>
-      </c>
-      <c r="U41" s="12"/>
-      <c r="V41" s="12"/>
-      <c r="W41" s="12"/>
-      <c r="X41" s="12"/>
-      <c r="Y41" s="12"/>
-      <c r="Z41" s="12"/>
-      <c r="AA41" s="12"/>
-      <c r="AB41" s="12"/>
-      <c r="AC41" s="12"/>
-      <c r="AD41" s="17"/>
-    </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>101</v>
       </c>
@@ -3972,13 +4153,13 @@
       <c r="N42" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="O42" s="6">
-        <v>500</v>
-      </c>
-      <c r="P42" s="6"/>
-      <c r="Q42" s="6" t="s">
-        <v>104</v>
-      </c>
+      <c r="O42" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="P42" s="6">
+        <v>500</v>
+      </c>
+      <c r="Q42" s="6"/>
       <c r="R42" s="6">
         <v>4</v>
       </c>
@@ -3997,9 +4178,12 @@
       <c r="AA42" s="6"/>
       <c r="AB42" s="6"/>
       <c r="AC42" s="6"/>
-      <c r="AD42" s="16"/>
-    </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD42" s="6"/>
+      <c r="AE42" s="13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="43" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
         <v>101</v>
       </c>
@@ -4042,13 +4226,13 @@
       <c r="N43" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="O43" s="5">
-        <v>500</v>
-      </c>
-      <c r="P43" s="5"/>
-      <c r="Q43" s="5" t="s">
-        <v>104</v>
-      </c>
+      <c r="O43" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="P43" s="5">
+        <v>500</v>
+      </c>
+      <c r="Q43" s="5"/>
       <c r="R43" s="5">
         <v>16</v>
       </c>
@@ -4058,70 +4242,75 @@
       <c r="T43" s="5">
         <v>31.58</v>
       </c>
-      <c r="AD43" s="17"/>
-    </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A44" s="12" t="s">
+      <c r="AD43" s="16"/>
+      <c r="AE43" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="44" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>101</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="B44" t="s">
         <v>99</v>
       </c>
-      <c r="C44" s="12" t="s">
+      <c r="C44" t="s">
         <v>102</v>
       </c>
-      <c r="D44" s="12" t="s">
+      <c r="D44" t="s">
         <v>24</v>
       </c>
-      <c r="E44" s="13">
+      <c r="E44" s="3">
         <v>45854</v>
       </c>
-      <c r="F44" s="14">
+      <c r="F44" s="4">
         <v>0.70138888888888884</v>
       </c>
-      <c r="G44" s="12">
+      <c r="G44">
         <v>40</v>
       </c>
-      <c r="H44" s="12">
+      <c r="H44">
         <v>21.917999999999999</v>
       </c>
-      <c r="I44" s="12">
+      <c r="I44">
         <v>-73</v>
       </c>
-      <c r="J44" s="12">
+      <c r="J44">
         <v>53.228000000000002</v>
       </c>
-      <c r="K44" s="12" t="s">
+      <c r="K44" t="s">
         <v>82</v>
       </c>
-      <c r="L44" s="12">
+      <c r="L44">
         <v>2</v>
       </c>
-      <c r="M44" s="12">
-        <v>1</v>
-      </c>
-      <c r="N44" s="12" t="s">
+      <c r="M44">
+        <v>1</v>
+      </c>
+      <c r="N44" t="s">
         <v>40</v>
       </c>
-      <c r="O44" s="12">
-        <v>500</v>
-      </c>
-      <c r="P44" s="12"/>
-      <c r="Q44" s="12" t="s">
+      <c r="O44" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="P44">
+        <v>500</v>
+      </c>
+      <c r="R44">
+        <v>16</v>
+      </c>
+      <c r="S44">
+        <v>16.8</v>
+      </c>
+      <c r="T44">
+        <v>31.58</v>
+      </c>
+      <c r="AD44" s="16"/>
+      <c r="AE44" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="R44" s="12">
-        <v>16</v>
-      </c>
-      <c r="S44" s="12">
-        <v>16.8</v>
-      </c>
-      <c r="T44" s="12">
-        <v>31.58</v>
-      </c>
-      <c r="AD44" s="17"/>
-    </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
         <v>101</v>
       </c>
@@ -4164,13 +4353,13 @@
       <c r="N45" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="O45" s="6">
-        <v>500</v>
-      </c>
-      <c r="P45" s="6"/>
-      <c r="Q45" s="6" t="s">
-        <v>104</v>
-      </c>
+      <c r="O45" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="P45" s="6">
+        <v>500</v>
+      </c>
+      <c r="Q45" s="6"/>
       <c r="R45" s="6">
         <v>16</v>
       </c>
@@ -4189,9 +4378,12 @@
       <c r="AA45" s="6"/>
       <c r="AB45" s="6"/>
       <c r="AC45" s="6"/>
-      <c r="AD45" s="16"/>
-    </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD45" s="6"/>
+      <c r="AE45" s="13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="46" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>101</v>
       </c>
@@ -4234,13 +4426,13 @@
       <c r="N46" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="O46" s="5">
-        <v>500</v>
-      </c>
-      <c r="P46" s="5"/>
-      <c r="Q46" s="5" t="s">
-        <v>104</v>
-      </c>
+      <c r="O46" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="P46" s="5">
+        <v>500</v>
+      </c>
+      <c r="Q46" s="5"/>
       <c r="R46" s="5">
         <v>4</v>
       </c>
@@ -4250,70 +4442,75 @@
       <c r="T46" s="5">
         <v>29.24</v>
       </c>
-      <c r="AD46" s="17"/>
-    </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A47" s="12" t="s">
+      <c r="AD46" s="16"/>
+      <c r="AE46" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="47" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>101</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="B47" t="s">
         <v>99</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="C47" t="s">
         <v>102</v>
       </c>
-      <c r="D47" s="12" t="s">
+      <c r="D47" t="s">
         <v>24</v>
       </c>
-      <c r="E47" s="13">
+      <c r="E47" s="3">
         <v>45854</v>
       </c>
-      <c r="F47" s="14">
+      <c r="F47" s="4">
         <v>0.70833333333333337</v>
       </c>
-      <c r="G47" s="12">
+      <c r="G47">
         <v>40</v>
       </c>
-      <c r="H47" s="12">
+      <c r="H47">
         <v>21.943999999999999</v>
       </c>
-      <c r="I47" s="12">
+      <c r="I47">
         <v>-73</v>
       </c>
-      <c r="J47" s="12">
+      <c r="J47">
         <v>53.311999999999998</v>
       </c>
-      <c r="K47" s="12" t="s">
+      <c r="K47" t="s">
         <v>85</v>
       </c>
-      <c r="L47" s="12">
+      <c r="L47">
         <v>3</v>
       </c>
-      <c r="M47" s="12">
-        <v>1</v>
-      </c>
-      <c r="N47" s="12" t="s">
+      <c r="M47">
+        <v>1</v>
+      </c>
+      <c r="N47" t="s">
         <v>40</v>
       </c>
-      <c r="O47" s="12">
-        <v>500</v>
-      </c>
-      <c r="P47" s="12"/>
-      <c r="Q47" s="12" t="s">
+      <c r="O47" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="P47">
+        <v>500</v>
+      </c>
+      <c r="R47">
+        <v>4</v>
+      </c>
+      <c r="S47">
+        <v>24.59</v>
+      </c>
+      <c r="T47">
+        <v>29.24</v>
+      </c>
+      <c r="AD47" s="16"/>
+      <c r="AE47" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="R47" s="12">
-        <v>4</v>
-      </c>
-      <c r="S47" s="12">
-        <v>24.59</v>
-      </c>
-      <c r="T47" s="12">
-        <v>29.24</v>
-      </c>
-      <c r="AD47" s="17"/>
-    </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>101</v>
       </c>
@@ -4356,13 +4553,13 @@
       <c r="N48" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="O48" s="6">
-        <v>500</v>
-      </c>
-      <c r="P48" s="6"/>
-      <c r="Q48" s="6" t="s">
-        <v>104</v>
-      </c>
+      <c r="O48" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="P48" s="6">
+        <v>500</v>
+      </c>
+      <c r="Q48" s="6"/>
       <c r="R48" s="6">
         <v>4</v>
       </c>
@@ -4381,9 +4578,12 @@
       <c r="AA48" s="6"/>
       <c r="AB48" s="6"/>
       <c r="AC48" s="6"/>
-      <c r="AD48" s="16"/>
-    </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD48" s="6"/>
+      <c r="AE48" s="13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="49" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
         <v>101</v>
       </c>
@@ -4426,13 +4626,13 @@
       <c r="N49" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="O49" s="5">
-        <v>500</v>
-      </c>
-      <c r="P49" s="5"/>
-      <c r="Q49" s="5" t="s">
-        <v>104</v>
-      </c>
+      <c r="O49" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="P49" s="5">
+        <v>500</v>
+      </c>
+      <c r="Q49" s="5"/>
       <c r="R49" s="5">
         <v>16</v>
       </c>
@@ -4442,79 +4642,75 @@
       <c r="T49" s="5">
         <v>31.58</v>
       </c>
-      <c r="AD49" s="17"/>
-    </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A50" s="12" t="s">
+      <c r="AD49" s="16"/>
+      <c r="AE49" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="50" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>101</v>
       </c>
-      <c r="B50" s="12" t="s">
+      <c r="B50" t="s">
         <v>99</v>
       </c>
-      <c r="C50" s="12" t="s">
+      <c r="C50" t="s">
         <v>102</v>
       </c>
-      <c r="D50" s="12" t="s">
+      <c r="D50" t="s">
         <v>24</v>
       </c>
-      <c r="E50" s="13">
+      <c r="E50" s="3">
         <v>45854</v>
       </c>
-      <c r="F50" s="14">
+      <c r="F50" s="4">
         <v>0.71527777777777779</v>
       </c>
-      <c r="G50" s="12">
+      <c r="G50">
         <v>40</v>
       </c>
-      <c r="H50" s="12">
+      <c r="H50">
         <v>21.986999999999998</v>
       </c>
-      <c r="I50" s="12">
+      <c r="I50">
         <v>-73</v>
       </c>
-      <c r="J50" s="12">
+      <c r="J50">
         <v>53.381</v>
       </c>
-      <c r="K50" s="12" t="s">
+      <c r="K50" t="s">
         <v>88</v>
       </c>
-      <c r="L50" s="12">
+      <c r="L50">
         <v>4</v>
       </c>
-      <c r="M50" s="12">
-        <v>1</v>
-      </c>
-      <c r="N50" s="12" t="s">
+      <c r="M50">
+        <v>1</v>
+      </c>
+      <c r="N50" t="s">
         <v>40</v>
       </c>
-      <c r="O50" s="12">
-        <v>500</v>
-      </c>
-      <c r="P50" s="12"/>
-      <c r="Q50" s="12" t="s">
+      <c r="O50" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="P50">
+        <v>500</v>
+      </c>
+      <c r="R50">
+        <v>16</v>
+      </c>
+      <c r="S50">
+        <v>16.8</v>
+      </c>
+      <c r="T50">
+        <v>31.58</v>
+      </c>
+      <c r="AD50" s="16"/>
+      <c r="AE50" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="R50" s="12">
-        <v>16</v>
-      </c>
-      <c r="S50" s="12">
-        <v>16.8</v>
-      </c>
-      <c r="T50" s="12">
-        <v>31.58</v>
-      </c>
-      <c r="U50" s="12"/>
-      <c r="V50" s="12"/>
-      <c r="W50" s="12"/>
-      <c r="X50" s="12"/>
-      <c r="Y50" s="12"/>
-      <c r="Z50" s="12"/>
-      <c r="AA50" s="12"/>
-      <c r="AB50" s="12"/>
-      <c r="AC50" s="12"/>
-      <c r="AD50" s="17"/>
-    </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
         <v>101</v>
       </c>
@@ -4557,13 +4753,13 @@
       <c r="N51" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="O51" s="6">
-        <v>500</v>
-      </c>
-      <c r="P51" s="6"/>
-      <c r="Q51" s="6" t="s">
-        <v>104</v>
-      </c>
+      <c r="O51" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="P51" s="6">
+        <v>500</v>
+      </c>
+      <c r="Q51" s="6"/>
       <c r="R51" s="6">
         <v>16</v>
       </c>
@@ -4582,9 +4778,12 @@
       <c r="AA51" s="6"/>
       <c r="AB51" s="6"/>
       <c r="AC51" s="6"/>
-      <c r="AD51" s="16"/>
-    </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD51" s="6"/>
+      <c r="AE51" s="13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="52" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
         <v>15</v>
       </c>
@@ -4627,21 +4826,24 @@
       <c r="N52" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="O52" s="5">
-        <v>500</v>
-      </c>
-      <c r="P52" s="5"/>
-      <c r="Q52" s="5" t="s">
-        <v>104</v>
-      </c>
+      <c r="O52" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="P52" s="5">
+        <v>500</v>
+      </c>
+      <c r="Q52" s="5"/>
       <c r="R52" s="5">
         <v>10</v>
       </c>
       <c r="S52" s="5"/>
       <c r="T52" s="5"/>
-      <c r="AD52" s="17"/>
-    </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD52" s="16"/>
+      <c r="AE52" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="53" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
         <v>15</v>
       </c>
@@ -4684,13 +4886,13 @@
       <c r="N53" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="O53" s="6">
-        <v>500</v>
-      </c>
-      <c r="P53" s="6"/>
-      <c r="Q53" s="6" t="s">
-        <v>104</v>
-      </c>
+      <c r="O53" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="P53" s="6">
+        <v>500</v>
+      </c>
+      <c r="Q53" s="6"/>
       <c r="R53" s="6">
         <v>10</v>
       </c>
@@ -4705,9 +4907,12 @@
       <c r="AA53" s="6"/>
       <c r="AB53" s="6"/>
       <c r="AC53" s="6"/>
-      <c r="AD53" s="16"/>
-    </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD53" s="6"/>
+      <c r="AE53" s="13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="54" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
         <v>15</v>
       </c>
@@ -4750,10 +4955,12 @@
       <c r="N54" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="O54" s="5">
-        <v>500</v>
-      </c>
-      <c r="P54" s="5"/>
+      <c r="O54" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="P54" s="5">
+        <v>500</v>
+      </c>
       <c r="Q54" s="5"/>
       <c r="R54" s="5">
         <v>2</v>
@@ -4769,9 +4976,10 @@
       <c r="AA54" s="5"/>
       <c r="AB54" s="5"/>
       <c r="AC54" s="5"/>
-      <c r="AD54" s="15"/>
-    </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD54" s="16"/>
+      <c r="AE54" s="12"/>
+    </row>
+    <row r="55" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
         <v>15</v>
       </c>
@@ -4814,10 +5022,12 @@
       <c r="N55" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="O55" s="6">
-        <v>500</v>
-      </c>
-      <c r="P55" s="6"/>
+      <c r="O55" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="P55" s="6">
+        <v>500</v>
+      </c>
       <c r="Q55" s="6"/>
       <c r="R55" s="6">
         <v>2</v>
@@ -4833,9 +5043,10 @@
       <c r="AA55" s="6"/>
       <c r="AB55" s="6"/>
       <c r="AC55" s="6"/>
-      <c r="AD55" s="16"/>
-    </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD55" s="6"/>
+      <c r="AE55" s="13"/>
+    </row>
+    <row r="56" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
         <v>15</v>
       </c>
@@ -4878,10 +5089,12 @@
       <c r="N56" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="O56" s="5">
-        <v>500</v>
-      </c>
-      <c r="P56" s="5"/>
+      <c r="O56" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="P56" s="5">
+        <v>500</v>
+      </c>
       <c r="Q56" s="5"/>
       <c r="R56" s="5">
         <v>10</v>
@@ -4897,9 +5110,10 @@
       <c r="AA56" s="5"/>
       <c r="AB56" s="5"/>
       <c r="AC56" s="5"/>
-      <c r="AD56" s="15"/>
-    </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD56" s="16"/>
+      <c r="AE56" s="12"/>
+    </row>
+    <row r="57" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
         <v>15</v>
       </c>
@@ -4942,10 +5156,12 @@
       <c r="N57" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="O57" s="6">
-        <v>500</v>
-      </c>
-      <c r="P57" s="6"/>
+      <c r="O57" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="P57" s="6">
+        <v>500</v>
+      </c>
       <c r="Q57" s="6"/>
       <c r="R57" s="6">
         <v>10</v>
@@ -4961,9 +5177,10 @@
       <c r="AA57" s="6"/>
       <c r="AB57" s="6"/>
       <c r="AC57" s="6"/>
-      <c r="AD57" s="16"/>
-    </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD57" s="6"/>
+      <c r="AE57" s="13"/>
+    </row>
+    <row r="58" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
         <v>15</v>
       </c>
@@ -5006,10 +5223,12 @@
       <c r="N58" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="O58" s="5">
-        <v>500</v>
-      </c>
-      <c r="P58" s="5"/>
+      <c r="O58" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="P58" s="5">
+        <v>500</v>
+      </c>
       <c r="Q58" s="5"/>
       <c r="R58" s="5">
         <v>2</v>
@@ -5025,9 +5244,10 @@
       <c r="AA58" s="5"/>
       <c r="AB58" s="5"/>
       <c r="AC58" s="5"/>
-      <c r="AD58" s="15"/>
-    </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD58" s="16"/>
+      <c r="AE58" s="12"/>
+    </row>
+    <row r="59" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
         <v>15</v>
       </c>
@@ -5070,10 +5290,12 @@
       <c r="N59" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="O59" s="6">
-        <v>500</v>
-      </c>
-      <c r="P59" s="6"/>
+      <c r="O59" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="P59" s="6">
+        <v>500</v>
+      </c>
       <c r="Q59" s="6"/>
       <c r="R59" s="6">
         <v>2</v>
@@ -5089,7 +5311,8 @@
       <c r="AA59" s="6"/>
       <c r="AB59" s="6"/>
       <c r="AC59" s="6"/>
-      <c r="AD59" s="16"/>
+      <c r="AD59" s="6"/>
+      <c r="AE59" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/pH_glider/water_sampling/sample_logs/RMI2_pH_Water_Sample_Log.xlsx
+++ b/pH_glider/water_sampling/sample_logs/RMI2_pH_Water_Sample_Log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/garzio/Documents/repo/rucool/dataset_archiving/pH_glider/water_sampling/sample_logs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D2142D-A4CB-504C-91CB-F1E513D1336F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7FCFA17-176B-9E46-B56A-BD9A0E5BBD42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2740" yWindow="3840" windowWidth="35840" windowHeight="15700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11760" yWindow="2900" windowWidth="35840" windowHeight="15700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SampleLog" sheetId="1" r:id="rId1"/>
@@ -516,7 +516,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -537,8 +537,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -824,9 +822,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AD37" sqref="AD37"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -948,13 +946,13 @@
       <c r="AB1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="AC1" s="17" t="s">
+      <c r="AC1" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="AD1" s="19" t="s">
+      <c r="AD1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="AE1" s="18" t="s">
+      <c r="AE1" s="16" t="s">
         <v>103</v>
       </c>
     </row>
@@ -1034,7 +1032,6 @@
       </c>
       <c r="AB2" s="5"/>
       <c r="AC2" s="5"/>
-      <c r="AD2" s="16"/>
       <c r="AE2" s="14" t="s">
         <v>104</v>
       </c>
@@ -1199,7 +1196,6 @@
       </c>
       <c r="AB4" s="5"/>
       <c r="AC4" s="5"/>
-      <c r="AD4" s="16"/>
       <c r="AE4" s="14" t="s">
         <v>104</v>
       </c>
@@ -1331,7 +1327,7 @@
       <c r="N6" t="s">
         <v>40</v>
       </c>
-      <c r="O6" s="15" t="s">
+      <c r="O6" t="s">
         <v>111</v>
       </c>
       <c r="P6">
@@ -1364,7 +1360,6 @@
       </c>
       <c r="AB6" s="5"/>
       <c r="AC6" s="5"/>
-      <c r="AD6" s="16"/>
       <c r="AE6" s="14" t="s">
         <v>104</v>
       </c>
@@ -1496,7 +1491,7 @@
       <c r="N8" t="s">
         <v>40</v>
       </c>
-      <c r="O8" s="15" t="s">
+      <c r="O8" t="s">
         <v>110</v>
       </c>
       <c r="P8">
@@ -1529,7 +1524,6 @@
       </c>
       <c r="AB8" s="5"/>
       <c r="AC8" s="5"/>
-      <c r="AD8" s="16"/>
       <c r="AE8" s="14" t="s">
         <v>104</v>
       </c>
@@ -1661,7 +1655,7 @@
       <c r="N10" t="s">
         <v>40</v>
       </c>
-      <c r="O10" s="15" t="s">
+      <c r="O10" t="s">
         <v>109</v>
       </c>
       <c r="P10">
@@ -1694,7 +1688,6 @@
       </c>
       <c r="AB10" s="5"/>
       <c r="AC10" s="5"/>
-      <c r="AD10" s="16"/>
       <c r="AE10" s="14" t="s">
         <v>104</v>
       </c>
@@ -1826,7 +1819,7 @@
       <c r="N12" t="s">
         <v>40</v>
       </c>
-      <c r="O12" s="15" t="s">
+      <c r="O12" t="s">
         <v>111</v>
       </c>
       <c r="P12">
@@ -1859,7 +1852,6 @@
       </c>
       <c r="AB12" s="5"/>
       <c r="AC12" s="5"/>
-      <c r="AD12" s="16"/>
       <c r="AE12" s="14" t="s">
         <v>104</v>
       </c>
@@ -1991,7 +1983,7 @@
       <c r="N14" t="s">
         <v>37</v>
       </c>
-      <c r="O14" s="15" t="s">
+      <c r="O14" t="s">
         <v>111</v>
       </c>
       <c r="P14">
@@ -2024,7 +2016,6 @@
       </c>
       <c r="AB14" s="5"/>
       <c r="AC14" s="5"/>
-      <c r="AD14" s="16"/>
       <c r="AE14" s="14" t="s">
         <v>104</v>
       </c>
@@ -2156,7 +2147,7 @@
       <c r="N16" t="s">
         <v>37</v>
       </c>
-      <c r="O16" s="15" t="s">
+      <c r="O16" t="s">
         <v>110</v>
       </c>
       <c r="P16">
@@ -2189,7 +2180,6 @@
       </c>
       <c r="AB16" s="5"/>
       <c r="AC16" s="5"/>
-      <c r="AD16" s="16"/>
       <c r="AE16" s="14" t="s">
         <v>104</v>
       </c>
@@ -2321,7 +2311,7 @@
       <c r="N18" t="s">
         <v>37</v>
       </c>
-      <c r="O18" s="15" t="s">
+      <c r="O18" t="s">
         <v>109</v>
       </c>
       <c r="P18">
@@ -2354,7 +2344,6 @@
       </c>
       <c r="AB18" s="5"/>
       <c r="AC18" s="5"/>
-      <c r="AD18" s="16"/>
       <c r="AE18" s="14" t="s">
         <v>104</v>
       </c>
@@ -2486,7 +2475,7 @@
       <c r="N20" t="s">
         <v>37</v>
       </c>
-      <c r="O20" s="15" t="s">
+      <c r="O20" t="s">
         <v>109</v>
       </c>
       <c r="P20">
@@ -2519,7 +2508,6 @@
       </c>
       <c r="AB20" s="5"/>
       <c r="AC20" s="5"/>
-      <c r="AD20" s="16"/>
       <c r="AE20" s="14" t="s">
         <v>104</v>
       </c>
@@ -2651,7 +2639,7 @@
       <c r="N22" t="s">
         <v>37</v>
       </c>
-      <c r="O22" s="15" t="s">
+      <c r="O22" t="s">
         <v>109</v>
       </c>
       <c r="P22">
@@ -2684,7 +2672,6 @@
       </c>
       <c r="AB22" s="5"/>
       <c r="AC22" s="5"/>
-      <c r="AD22" s="16"/>
       <c r="AE22" s="14" t="s">
         <v>104</v>
       </c>
@@ -2849,7 +2836,6 @@
       </c>
       <c r="AB24" s="5"/>
       <c r="AC24" s="5"/>
-      <c r="AD24" s="16"/>
       <c r="AE24" s="12" t="s">
         <v>104</v>
       </c>
@@ -3014,7 +3000,6 @@
       </c>
       <c r="AB26" s="5"/>
       <c r="AC26" s="5"/>
-      <c r="AD26" s="16"/>
       <c r="AE26" s="12" t="s">
         <v>104</v>
       </c>
@@ -3146,7 +3131,7 @@
       <c r="N28" t="s">
         <v>37</v>
       </c>
-      <c r="O28" s="15" t="s">
+      <c r="O28" t="s">
         <v>110</v>
       </c>
       <c r="P28">
@@ -3179,7 +3164,6 @@
       </c>
       <c r="AB28" s="5"/>
       <c r="AC28" s="5"/>
-      <c r="AD28" s="16"/>
       <c r="AE28" s="14" t="s">
         <v>104</v>
       </c>
@@ -3344,7 +3328,6 @@
       </c>
       <c r="AB30" s="5"/>
       <c r="AC30" s="5"/>
-      <c r="AD30" s="16"/>
       <c r="AE30" s="12" t="s">
         <v>104</v>
       </c>
@@ -3509,7 +3492,6 @@
       </c>
       <c r="AB32" s="5"/>
       <c r="AC32" s="5"/>
-      <c r="AD32" s="16"/>
       <c r="AE32" s="12" t="s">
         <v>104</v>
       </c>
@@ -3661,7 +3643,6 @@
       <c r="T34" s="5">
         <v>32.188000000000002</v>
       </c>
-      <c r="AD34" s="16"/>
       <c r="AE34" s="12" t="s">
         <v>104</v>
       </c>
@@ -3802,7 +3783,6 @@
       <c r="T36" s="5">
         <v>32.188000000000002</v>
       </c>
-      <c r="AD36" s="16"/>
       <c r="AE36" s="12" t="s">
         <v>104</v>
       </c>
@@ -3899,10 +3879,18 @@
       <c r="F38" s="11">
         <v>0.77083333333333337</v>
       </c>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
+      <c r="G38" s="5">
+        <v>40</v>
+      </c>
+      <c r="H38" s="5">
+        <v>28.76</v>
+      </c>
+      <c r="I38" s="5">
+        <v>-74</v>
+      </c>
+      <c r="J38" s="5">
+        <v>13.23</v>
+      </c>
       <c r="K38" s="5" t="s">
         <v>76</v>
       </c>
@@ -3923,7 +3911,6 @@
       <c r="T38" s="5">
         <v>30.07</v>
       </c>
-      <c r="AD38" s="16"/>
       <c r="AE38" s="12" t="s">
         <v>104</v>
       </c>
@@ -3945,10 +3932,18 @@
       <c r="F39" s="9">
         <v>0.77083333333333337</v>
       </c>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
+      <c r="G39" s="6">
+        <v>40</v>
+      </c>
+      <c r="H39" s="6">
+        <v>28.76</v>
+      </c>
+      <c r="I39" s="6">
+        <v>-74</v>
+      </c>
+      <c r="J39" s="6">
+        <v>13.23</v>
+      </c>
       <c r="K39" s="6" t="s">
         <v>77</v>
       </c>
@@ -4042,7 +4037,6 @@
       <c r="T40" s="5">
         <v>29.24</v>
       </c>
-      <c r="AD40" s="16"/>
       <c r="AE40" s="12" t="s">
         <v>104</v>
       </c>
@@ -4090,7 +4084,7 @@
       <c r="N41" t="s">
         <v>40</v>
       </c>
-      <c r="O41" s="15" t="s">
+      <c r="O41" t="s">
         <v>111</v>
       </c>
       <c r="P41">
@@ -4105,7 +4099,6 @@
       <c r="T41">
         <v>29.24</v>
       </c>
-      <c r="AD41" s="16"/>
       <c r="AE41" s="14" t="s">
         <v>104</v>
       </c>
@@ -4242,7 +4235,6 @@
       <c r="T43" s="5">
         <v>31.58</v>
       </c>
-      <c r="AD43" s="16"/>
       <c r="AE43" s="12" t="s">
         <v>104</v>
       </c>
@@ -4290,7 +4282,7 @@
       <c r="N44" t="s">
         <v>40</v>
       </c>
-      <c r="O44" s="15" t="s">
+      <c r="O44" t="s">
         <v>109</v>
       </c>
       <c r="P44">
@@ -4305,7 +4297,6 @@
       <c r="T44">
         <v>31.58</v>
       </c>
-      <c r="AD44" s="16"/>
       <c r="AE44" s="14" t="s">
         <v>104</v>
       </c>
@@ -4442,7 +4433,6 @@
       <c r="T46" s="5">
         <v>29.24</v>
       </c>
-      <c r="AD46" s="16"/>
       <c r="AE46" s="12" t="s">
         <v>104</v>
       </c>
@@ -4490,7 +4480,7 @@
       <c r="N47" t="s">
         <v>40</v>
       </c>
-      <c r="O47" s="15" t="s">
+      <c r="O47" t="s">
         <v>111</v>
       </c>
       <c r="P47">
@@ -4505,7 +4495,6 @@
       <c r="T47">
         <v>29.24</v>
       </c>
-      <c r="AD47" s="16"/>
       <c r="AE47" s="14" t="s">
         <v>104</v>
       </c>
@@ -4642,7 +4631,6 @@
       <c r="T49" s="5">
         <v>31.58</v>
       </c>
-      <c r="AD49" s="16"/>
       <c r="AE49" s="12" t="s">
         <v>104</v>
       </c>
@@ -4690,7 +4678,7 @@
       <c r="N50" t="s">
         <v>40</v>
       </c>
-      <c r="O50" s="15" t="s">
+      <c r="O50" t="s">
         <v>109</v>
       </c>
       <c r="P50">
@@ -4705,7 +4693,6 @@
       <c r="T50">
         <v>31.58</v>
       </c>
-      <c r="AD50" s="16"/>
       <c r="AE50" s="14" t="s">
         <v>104</v>
       </c>
@@ -4838,7 +4825,6 @@
       </c>
       <c r="S52" s="5"/>
       <c r="T52" s="5"/>
-      <c r="AD52" s="16"/>
       <c r="AE52" s="12" t="s">
         <v>104</v>
       </c>
@@ -4976,7 +4962,6 @@
       <c r="AA54" s="5"/>
       <c r="AB54" s="5"/>
       <c r="AC54" s="5"/>
-      <c r="AD54" s="16"/>
       <c r="AE54" s="12"/>
     </row>
     <row r="55" spans="1:31" x14ac:dyDescent="0.2">
@@ -5110,7 +5095,6 @@
       <c r="AA56" s="5"/>
       <c r="AB56" s="5"/>
       <c r="AC56" s="5"/>
-      <c r="AD56" s="16"/>
       <c r="AE56" s="12"/>
     </row>
     <row r="57" spans="1:31" x14ac:dyDescent="0.2">
@@ -5244,7 +5228,6 @@
       <c r="AA58" s="5"/>
       <c r="AB58" s="5"/>
       <c r="AC58" s="5"/>
-      <c r="AD58" s="16"/>
       <c r="AE58" s="12"/>
     </row>
     <row r="59" spans="1:31" x14ac:dyDescent="0.2">

--- a/pH_glider/water_sampling/sample_logs/RMI2_pH_Water_Sample_Log.xlsx
+++ b/pH_glider/water_sampling/sample_logs/RMI2_pH_Water_Sample_Log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/garzio/Documents/repo/rucool/dataset_archiving/pH_glider/water_sampling/sample_logs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7FCFA17-176B-9E46-B56A-BD9A0E5BBD42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36CB1D65-A1C4-714D-B3AA-25FD973DCAE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11760" yWindow="2900" windowWidth="35840" windowHeight="15700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="800" windowWidth="35840" windowHeight="15700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SampleLog" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="114">
   <si>
     <t>Sample #</t>
   </si>
@@ -371,6 +371,12 @@
   </si>
   <si>
     <t>surface</t>
+  </si>
+  <si>
+    <t>ctd data from ctd profile not bottle file. CTD was on rosette. Collected 4 sample bottles from one niskin to assess water sampling technique</t>
+  </si>
+  <si>
+    <t>Collected water for one extra bottle per niskin (3 instead of 2) to assess sampling technique</t>
   </si>
 </sst>
 </file>
@@ -414,7 +420,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -512,11 +518,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -540,6 +557,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -822,9 +842,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K39" sqref="K39"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -940,13 +960,13 @@
       <c r="Z1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="AC1" s="15" t="s">
+      <c r="AC1" s="18" t="s">
         <v>75</v>
       </c>
       <c r="AD1" s="17" t="s">
@@ -1030,8 +1050,13 @@
       <c r="AA2" s="7">
         <v>7.8870888826843686</v>
       </c>
-      <c r="AB2" s="5"/>
-      <c r="AC2" s="5"/>
+      <c r="AB2">
+        <f>U3-AA2</f>
+        <v>2.8330296933538612E-2</v>
+      </c>
+      <c r="AC2" s="5">
+        <v>1</v>
+      </c>
       <c r="AE2" s="14" t="s">
         <v>104</v>
       </c>
@@ -1108,13 +1133,8 @@
       <c r="Y3" s="6"/>
       <c r="Z3" s="6"/>
       <c r="AA3" s="6"/>
-      <c r="AB3" s="6">
-        <f>U3-AA2</f>
-        <v>2.8330296933538612E-2</v>
-      </c>
-      <c r="AC3" s="6">
-        <v>1</v>
-      </c>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
       <c r="AD3" s="6"/>
       <c r="AE3" s="13" t="s">
         <v>104</v>
@@ -1194,8 +1214,13 @@
       <c r="AA4" s="7">
         <v>7.9038907003472749</v>
       </c>
-      <c r="AB4" s="5"/>
-      <c r="AC4" s="5"/>
+      <c r="AB4">
+        <f>U5-AA4</f>
+        <v>1.7040251404116802E-2</v>
+      </c>
+      <c r="AC4" s="5">
+        <v>1</v>
+      </c>
       <c r="AE4" s="14" t="s">
         <v>104</v>
       </c>
@@ -1272,13 +1297,8 @@
       <c r="Y5" s="6"/>
       <c r="Z5" s="6"/>
       <c r="AA5" s="6"/>
-      <c r="AB5" s="6">
-        <f>U5-AA4</f>
-        <v>1.7040251404116802E-2</v>
-      </c>
-      <c r="AC5" s="6">
-        <v>1</v>
-      </c>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="6"/>
       <c r="AD5" s="6"/>
       <c r="AE5" s="13" t="s">
         <v>104</v>
@@ -1358,8 +1378,13 @@
       <c r="AA6" s="7">
         <v>7.936204222861984</v>
       </c>
-      <c r="AB6" s="5"/>
-      <c r="AC6" s="5"/>
+      <c r="AB6">
+        <f>U7-AA6</f>
+        <v>-8.8093532621744686E-3</v>
+      </c>
+      <c r="AC6" s="5">
+        <v>1</v>
+      </c>
       <c r="AE6" s="14" t="s">
         <v>104</v>
       </c>
@@ -1436,13 +1461,8 @@
       <c r="Y7" s="6"/>
       <c r="Z7" s="6"/>
       <c r="AA7" s="6"/>
-      <c r="AB7" s="6">
-        <f>U7-AA6</f>
-        <v>-8.8093532621744686E-3</v>
-      </c>
-      <c r="AC7" s="6">
-        <v>1</v>
-      </c>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="6"/>
       <c r="AD7" s="6"/>
       <c r="AE7" s="13" t="s">
         <v>104</v>
@@ -1522,8 +1542,13 @@
       <c r="AA8" s="7">
         <v>7.8493890313240477</v>
       </c>
-      <c r="AB8" s="5"/>
-      <c r="AC8" s="5"/>
+      <c r="AB8">
+        <f>U9-AA8</f>
+        <v>2.1225569481828188E-2</v>
+      </c>
+      <c r="AC8" s="5">
+        <v>1</v>
+      </c>
       <c r="AE8" s="14" t="s">
         <v>104</v>
       </c>
@@ -1600,13 +1625,8 @@
       <c r="Y9" s="6"/>
       <c r="Z9" s="6"/>
       <c r="AA9" s="6"/>
-      <c r="AB9" s="6">
-        <f>U9-AA8</f>
-        <v>2.1225569481828188E-2</v>
-      </c>
-      <c r="AC9" s="6">
-        <v>1</v>
-      </c>
+      <c r="AB9" s="6"/>
+      <c r="AC9" s="6"/>
       <c r="AD9" s="6"/>
       <c r="AE9" s="13" t="s">
         <v>104</v>
@@ -1686,8 +1706,13 @@
       <c r="AA10" s="7">
         <v>7.7619517222028547</v>
       </c>
-      <c r="AB10" s="5"/>
-      <c r="AC10" s="5"/>
+      <c r="AB10">
+        <f>U11-AA10</f>
+        <v>-7.7238262611585284E-3</v>
+      </c>
+      <c r="AC10" s="5">
+        <v>1</v>
+      </c>
       <c r="AE10" s="14" t="s">
         <v>104</v>
       </c>
@@ -1764,13 +1789,8 @@
       <c r="Y11" s="6"/>
       <c r="Z11" s="6"/>
       <c r="AA11" s="6"/>
-      <c r="AB11" s="6">
-        <f>U11-AA10</f>
-        <v>-7.7238262611585284E-3</v>
-      </c>
-      <c r="AC11" s="6">
-        <v>1</v>
-      </c>
+      <c r="AB11" s="6"/>
+      <c r="AC11" s="6"/>
       <c r="AD11" s="6"/>
       <c r="AE11" s="13" t="s">
         <v>104</v>
@@ -1850,8 +1870,13 @@
       <c r="AA12" s="7">
         <v>7.9117569279198436</v>
       </c>
-      <c r="AB12" s="5"/>
-      <c r="AC12" s="5"/>
+      <c r="AB12">
+        <f>U13-AA12</f>
+        <v>-6.7663232447490174E-3</v>
+      </c>
+      <c r="AC12" s="5">
+        <v>1</v>
+      </c>
       <c r="AE12" s="14" t="s">
         <v>104</v>
       </c>
@@ -1928,13 +1953,8 @@
       <c r="Y13" s="6"/>
       <c r="Z13" s="6"/>
       <c r="AA13" s="6"/>
-      <c r="AB13" s="6">
-        <f>U13-AA12</f>
-        <v>-6.7663232447490174E-3</v>
-      </c>
-      <c r="AC13" s="6">
-        <v>1</v>
-      </c>
+      <c r="AB13" s="6"/>
+      <c r="AC13" s="6"/>
       <c r="AD13" s="6"/>
       <c r="AE13" s="13" t="s">
         <v>104</v>
@@ -2014,8 +2034,13 @@
       <c r="AA14" s="7">
         <v>7.8698028502898838</v>
       </c>
-      <c r="AB14" s="5"/>
-      <c r="AC14" s="5"/>
+      <c r="AB14">
+        <f>U15-AA14</f>
+        <v>1.6419622680947654E-3</v>
+      </c>
+      <c r="AC14" s="5">
+        <v>1</v>
+      </c>
       <c r="AE14" s="14" t="s">
         <v>104</v>
       </c>
@@ -2092,13 +2117,8 @@
       <c r="Y15" s="6"/>
       <c r="Z15" s="6"/>
       <c r="AA15" s="6"/>
-      <c r="AB15" s="6">
-        <f>U15-AA14</f>
-        <v>1.6419622680947654E-3</v>
-      </c>
-      <c r="AC15" s="6">
-        <v>1</v>
-      </c>
+      <c r="AB15" s="6"/>
+      <c r="AC15" s="6"/>
       <c r="AD15" s="6"/>
       <c r="AE15" s="13" t="s">
         <v>104</v>
@@ -2178,8 +2198,13 @@
       <c r="AA16" s="7">
         <v>7.8535374653282402</v>
       </c>
-      <c r="AB16" s="5"/>
-      <c r="AC16" s="5"/>
+      <c r="AB16">
+        <f>U17-AA16</f>
+        <v>-1.2788299494657096E-3</v>
+      </c>
+      <c r="AC16" s="5">
+        <v>1</v>
+      </c>
       <c r="AE16" s="14" t="s">
         <v>104</v>
       </c>
@@ -2256,13 +2281,8 @@
       <c r="Y17" s="6"/>
       <c r="Z17" s="6"/>
       <c r="AA17" s="6"/>
-      <c r="AB17" s="6">
-        <f>U17-AA16</f>
-        <v>-1.2788299494657096E-3</v>
-      </c>
-      <c r="AC17" s="6">
-        <v>1</v>
-      </c>
+      <c r="AB17" s="6"/>
+      <c r="AC17" s="6"/>
       <c r="AD17" s="6"/>
       <c r="AE17" s="13" t="s">
         <v>104</v>
@@ -2306,7 +2326,7 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="N18" t="s">
         <v>37</v>
@@ -2318,7 +2338,7 @@
         <v>500</v>
       </c>
       <c r="Q18" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="R18">
         <v>14</v>
@@ -2342,8 +2362,13 @@
       <c r="AA18" s="7">
         <v>7.7657076040008253</v>
       </c>
-      <c r="AB18" s="5"/>
-      <c r="AC18" s="5"/>
+      <c r="AB18">
+        <f>U19-AA18</f>
+        <v>-1.451672205645238E-3</v>
+      </c>
+      <c r="AC18" s="5">
+        <v>1</v>
+      </c>
       <c r="AE18" s="14" t="s">
         <v>104</v>
       </c>
@@ -2386,7 +2411,7 @@
         <v>1</v>
       </c>
       <c r="M19" s="6">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="N19" s="6" t="s">
         <v>37</v>
@@ -2398,7 +2423,7 @@
         <v>500</v>
       </c>
       <c r="Q19" s="6" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="R19" s="6">
         <v>14</v>
@@ -2420,13 +2445,8 @@
       <c r="Y19" s="6"/>
       <c r="Z19" s="6"/>
       <c r="AA19" s="6"/>
-      <c r="AB19" s="6">
-        <f>U19-AA18</f>
-        <v>-1.451672205645238E-3</v>
-      </c>
-      <c r="AC19" s="6">
-        <v>1</v>
-      </c>
+      <c r="AB19" s="6"/>
+      <c r="AC19" s="6"/>
       <c r="AD19" s="6"/>
       <c r="AE19" s="13" t="s">
         <v>104</v>
@@ -2470,7 +2490,7 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N20" t="s">
         <v>37</v>
@@ -2482,7 +2502,7 @@
         <v>500</v>
       </c>
       <c r="Q20" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="R20">
         <v>14</v>
@@ -2506,8 +2526,13 @@
       <c r="AA20" s="7">
         <v>7.7620162310719323</v>
       </c>
-      <c r="AB20" s="5"/>
-      <c r="AC20" s="5"/>
+      <c r="AB20" s="5">
+        <f>U21-AA20</f>
+        <v>9.0576483486008996E-3</v>
+      </c>
+      <c r="AC20" s="5">
+        <v>1</v>
+      </c>
       <c r="AE20" s="14" t="s">
         <v>104</v>
       </c>
@@ -2550,7 +2575,7 @@
         <v>1</v>
       </c>
       <c r="M21" s="6">
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N21" s="6" t="s">
         <v>37</v>
@@ -2562,7 +2587,7 @@
         <v>500</v>
       </c>
       <c r="Q21" s="6" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="R21" s="6">
         <v>14</v>
@@ -2584,13 +2609,8 @@
       <c r="Y21" s="6"/>
       <c r="Z21" s="6"/>
       <c r="AA21" s="6"/>
-      <c r="AB21" s="6">
-        <f>U21-AA20</f>
-        <v>9.0576483486008996E-3</v>
-      </c>
-      <c r="AC21" s="6">
-        <v>1</v>
-      </c>
+      <c r="AB21" s="6"/>
+      <c r="AC21" s="6"/>
       <c r="AD21" s="6"/>
       <c r="AE21" s="13" t="s">
         <v>104</v>
@@ -2634,7 +2654,7 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N22" t="s">
         <v>37</v>
@@ -2646,7 +2666,7 @@
         <v>500</v>
       </c>
       <c r="Q22" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="R22">
         <v>14</v>
@@ -2670,8 +2690,13 @@
       <c r="AA22" s="7">
         <v>7.7564627639187034</v>
       </c>
-      <c r="AB22" s="5"/>
-      <c r="AC22" s="5"/>
+      <c r="AB22">
+        <f>U23-AA22</f>
+        <v>-4.2703130375105758E-3</v>
+      </c>
+      <c r="AC22" s="5">
+        <v>1</v>
+      </c>
       <c r="AE22" s="14" t="s">
         <v>104</v>
       </c>
@@ -2714,7 +2739,7 @@
         <v>1</v>
       </c>
       <c r="M23" s="6">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N23" s="6" t="s">
         <v>37</v>
@@ -2726,7 +2751,7 @@
         <v>500</v>
       </c>
       <c r="Q23" s="6" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="R23" s="6">
         <v>14</v>
@@ -2748,13 +2773,8 @@
       <c r="Y23" s="6"/>
       <c r="Z23" s="6"/>
       <c r="AA23" s="6"/>
-      <c r="AB23" s="6">
-        <f>U23-AA22</f>
-        <v>-4.2703130375105758E-3</v>
-      </c>
-      <c r="AC23" s="6">
-        <v>1</v>
-      </c>
+      <c r="AB23" s="6"/>
+      <c r="AC23" s="6"/>
       <c r="AD23" s="6"/>
       <c r="AE23" s="13" t="s">
         <v>104</v>
@@ -2798,7 +2818,7 @@
         <v>1</v>
       </c>
       <c r="M24" s="5">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="N24" s="5" t="s">
         <v>37</v>
@@ -2809,8 +2829,8 @@
       <c r="P24" s="5">
         <v>500</v>
       </c>
-      <c r="Q24" s="5" t="s">
-        <v>67</v>
+      <c r="Q24" t="s">
+        <v>112</v>
       </c>
       <c r="R24" s="5">
         <v>14</v>
@@ -2834,8 +2854,13 @@
       <c r="AA24" s="7">
         <v>7.7492226366759116</v>
       </c>
-      <c r="AB24" s="5"/>
-      <c r="AC24" s="5"/>
+      <c r="AB24">
+        <f>U25-AA24</f>
+        <v>2.7208919264696263E-3</v>
+      </c>
+      <c r="AC24" s="5">
+        <v>1</v>
+      </c>
       <c r="AE24" s="12" t="s">
         <v>104</v>
       </c>
@@ -2878,7 +2903,7 @@
         <v>1</v>
       </c>
       <c r="M25" s="6">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="N25" s="6" t="s">
         <v>37</v>
@@ -2890,7 +2915,7 @@
         <v>500</v>
       </c>
       <c r="Q25" s="6" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="R25" s="6">
         <v>14</v>
@@ -2912,13 +2937,8 @@
       <c r="Y25" s="6"/>
       <c r="Z25" s="6"/>
       <c r="AA25" s="6"/>
-      <c r="AB25" s="6">
-        <f>U25-AA24</f>
-        <v>2.7208919264696263E-3</v>
-      </c>
-      <c r="AC25" s="6">
-        <v>1</v>
-      </c>
+      <c r="AB25" s="6"/>
+      <c r="AC25" s="6"/>
       <c r="AD25" s="6"/>
       <c r="AE25" s="13" t="s">
         <v>104</v>
@@ -2998,8 +3018,13 @@
       <c r="AA26" s="7">
         <v>7.8764859056163585</v>
       </c>
-      <c r="AB26" s="5"/>
-      <c r="AC26" s="5"/>
+      <c r="AB26">
+        <f>U27-AA26</f>
+        <v>1.5691180927213111E-3</v>
+      </c>
+      <c r="AC26" s="5">
+        <v>1</v>
+      </c>
       <c r="AE26" s="12" t="s">
         <v>104</v>
       </c>
@@ -3076,13 +3101,8 @@
       <c r="Y27" s="6"/>
       <c r="Z27" s="6"/>
       <c r="AA27" s="6"/>
-      <c r="AB27" s="6">
-        <f>U27-AA26</f>
-        <v>1.5691180927213111E-3</v>
-      </c>
-      <c r="AC27" s="6">
-        <v>1</v>
-      </c>
+      <c r="AB27" s="6"/>
+      <c r="AC27" s="6"/>
       <c r="AD27" s="6"/>
       <c r="AE27" s="13" t="s">
         <v>104</v>
@@ -3162,8 +3182,13 @@
       <c r="AA28" s="7">
         <v>7.8501855576168591</v>
       </c>
-      <c r="AB28" s="5"/>
-      <c r="AC28" s="5"/>
+      <c r="AB28">
+        <f>U29-AA28</f>
+        <v>5.3475794050532599E-3</v>
+      </c>
+      <c r="AC28" s="5">
+        <v>1</v>
+      </c>
       <c r="AE28" s="14" t="s">
         <v>104</v>
       </c>
@@ -3240,13 +3265,8 @@
       <c r="Y29" s="6"/>
       <c r="Z29" s="6"/>
       <c r="AA29" s="6"/>
-      <c r="AB29" s="6">
-        <f>U29-AA28</f>
-        <v>5.3475794050532599E-3</v>
-      </c>
-      <c r="AC29" s="6">
-        <v>1</v>
-      </c>
+      <c r="AB29" s="6"/>
+      <c r="AC29" s="6"/>
       <c r="AD29" s="6"/>
       <c r="AE29" s="13" t="s">
         <v>104</v>
@@ -3290,7 +3310,7 @@
         <v>3</v>
       </c>
       <c r="M30" s="5">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="N30" s="5" t="s">
         <v>37</v>
@@ -3301,8 +3321,8 @@
       <c r="P30" s="5">
         <v>500</v>
       </c>
-      <c r="Q30" s="5" t="s">
-        <v>67</v>
+      <c r="Q30" t="s">
+        <v>112</v>
       </c>
       <c r="R30" s="5">
         <v>14</v>
@@ -3326,8 +3346,13 @@
       <c r="AA30" s="7">
         <v>7.8099935914939147</v>
       </c>
-      <c r="AB30" s="5"/>
-      <c r="AC30" s="5"/>
+      <c r="AB30">
+        <f>U31-AA30</f>
+        <v>8.1345279411015881E-3</v>
+      </c>
+      <c r="AC30" s="5">
+        <v>1</v>
+      </c>
       <c r="AE30" s="12" t="s">
         <v>104</v>
       </c>
@@ -3370,7 +3395,7 @@
         <v>3</v>
       </c>
       <c r="M31" s="6">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="N31" s="6" t="s">
         <v>37</v>
@@ -3382,7 +3407,7 @@
         <v>500</v>
       </c>
       <c r="Q31" s="6" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="R31" s="6">
         <v>14</v>
@@ -3404,13 +3429,8 @@
       <c r="Y31" s="6"/>
       <c r="Z31" s="6"/>
       <c r="AA31" s="6"/>
-      <c r="AB31" s="6">
-        <f>U31-AA30</f>
-        <v>8.1345279411015881E-3</v>
-      </c>
-      <c r="AC31" s="6">
-        <v>1</v>
-      </c>
+      <c r="AB31" s="6"/>
+      <c r="AC31" s="6"/>
       <c r="AD31" s="6"/>
       <c r="AE31" s="13" t="s">
         <v>104</v>
@@ -3454,7 +3474,7 @@
         <v>3</v>
       </c>
       <c r="M32" s="5">
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N32" s="5" t="s">
         <v>37</v>
@@ -3465,8 +3485,8 @@
       <c r="P32" s="5">
         <v>500</v>
       </c>
-      <c r="Q32" s="5" t="s">
-        <v>67</v>
+      <c r="Q32" t="s">
+        <v>112</v>
       </c>
       <c r="R32" s="5">
         <v>14</v>
@@ -3490,8 +3510,13 @@
       <c r="AA32" s="7">
         <v>7.8093583060130536</v>
       </c>
-      <c r="AB32" s="5"/>
-      <c r="AC32" s="5"/>
+      <c r="AB32">
+        <f>U33-AA32</f>
+        <v>1.4175111926379103E-2</v>
+      </c>
+      <c r="AC32" s="5">
+        <v>1</v>
+      </c>
       <c r="AE32" s="12" t="s">
         <v>104</v>
       </c>
@@ -3534,7 +3559,7 @@
         <v>3</v>
       </c>
       <c r="M33" s="6">
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N33" s="6" t="s">
         <v>37</v>
@@ -3546,7 +3571,7 @@
         <v>500</v>
       </c>
       <c r="Q33" s="6" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="R33" s="6">
         <v>14</v>
@@ -3568,13 +3593,8 @@
       <c r="Y33" s="6"/>
       <c r="Z33" s="6"/>
       <c r="AA33" s="6"/>
-      <c r="AB33" s="6">
-        <f>U33-AA32</f>
-        <v>1.4175111926379103E-2</v>
-      </c>
-      <c r="AC33" s="6">
-        <v>1</v>
-      </c>
+      <c r="AB33" s="6"/>
+      <c r="AC33" s="6"/>
       <c r="AD33" s="6" t="s">
         <v>107</v>
       </c>
@@ -3620,7 +3640,7 @@
         <v>3</v>
       </c>
       <c r="M34" s="5">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N34" s="5" t="s">
         <v>37</v>
@@ -3631,8 +3651,8 @@
       <c r="P34" s="5">
         <v>500</v>
       </c>
-      <c r="Q34" s="5" t="s">
-        <v>67</v>
+      <c r="Q34" t="s">
+        <v>112</v>
       </c>
       <c r="R34" s="5">
         <v>14</v>
@@ -3685,7 +3705,7 @@
         <v>3</v>
       </c>
       <c r="M35" s="6">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N35" s="6" t="s">
         <v>37</v>
@@ -3697,7 +3717,7 @@
         <v>500</v>
       </c>
       <c r="Q35" s="6" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="R35" s="6">
         <v>14</v>
@@ -3760,7 +3780,7 @@
         <v>3</v>
       </c>
       <c r="M36" s="5">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="N36" s="5" t="s">
         <v>37</v>
@@ -3771,8 +3791,8 @@
       <c r="P36" s="5">
         <v>500</v>
       </c>
-      <c r="Q36" s="5" t="s">
-        <v>67</v>
+      <c r="Q36" t="s">
+        <v>112</v>
       </c>
       <c r="R36" s="5">
         <v>14</v>
@@ -3825,7 +3845,7 @@
         <v>3</v>
       </c>
       <c r="M37" s="6">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="N37" s="6" t="s">
         <v>37</v>
@@ -3837,7 +3857,7 @@
         <v>500</v>
       </c>
       <c r="Q37" s="6" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="R37" s="6">
         <v>14</v>
@@ -4016,7 +4036,7 @@
         <v>1</v>
       </c>
       <c r="M40" s="5">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N40" s="5" t="s">
         <v>40</v>
@@ -4027,7 +4047,9 @@
       <c r="P40" s="5">
         <v>500</v>
       </c>
-      <c r="Q40" s="5"/>
+      <c r="Q40" s="20" t="s">
+        <v>113</v>
+      </c>
       <c r="R40" s="5">
         <v>4</v>
       </c>
@@ -4079,7 +4101,7 @@
         <v>1</v>
       </c>
       <c r="M41">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N41" t="s">
         <v>40</v>
@@ -4089,6 +4111,9 @@
       </c>
       <c r="P41">
         <v>500</v>
+      </c>
+      <c r="Q41" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="R41">
         <v>4</v>
@@ -4141,7 +4166,7 @@
         <v>1</v>
       </c>
       <c r="M42" s="6">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="N42" s="6" t="s">
         <v>40</v>
@@ -4152,7 +4177,9 @@
       <c r="P42" s="6">
         <v>500</v>
       </c>
-      <c r="Q42" s="6"/>
+      <c r="Q42" s="6" t="s">
+        <v>113</v>
+      </c>
       <c r="R42" s="6">
         <v>4</v>
       </c>
@@ -4214,7 +4241,7 @@
         <v>2</v>
       </c>
       <c r="M43" s="5">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N43" s="5" t="s">
         <v>40</v>
@@ -4225,7 +4252,9 @@
       <c r="P43" s="5">
         <v>500</v>
       </c>
-      <c r="Q43" s="5"/>
+      <c r="Q43" s="20" t="s">
+        <v>113</v>
+      </c>
       <c r="R43" s="5">
         <v>16</v>
       </c>
@@ -4277,7 +4306,7 @@
         <v>2</v>
       </c>
       <c r="M44">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N44" t="s">
         <v>40</v>
@@ -4287,6 +4316,9 @@
       </c>
       <c r="P44">
         <v>500</v>
+      </c>
+      <c r="Q44" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="R44">
         <v>16</v>
@@ -4339,7 +4371,7 @@
         <v>2</v>
       </c>
       <c r="M45" s="6">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="N45" s="6" t="s">
         <v>40</v>
@@ -4350,7 +4382,9 @@
       <c r="P45" s="6">
         <v>500</v>
       </c>
-      <c r="Q45" s="6"/>
+      <c r="Q45" s="6" t="s">
+        <v>113</v>
+      </c>
       <c r="R45" s="6">
         <v>16</v>
       </c>
@@ -4412,7 +4446,7 @@
         <v>3</v>
       </c>
       <c r="M46" s="5">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N46" s="5" t="s">
         <v>40</v>
@@ -4423,7 +4457,9 @@
       <c r="P46" s="5">
         <v>500</v>
       </c>
-      <c r="Q46" s="5"/>
+      <c r="Q46" s="20" t="s">
+        <v>113</v>
+      </c>
       <c r="R46" s="5">
         <v>4</v>
       </c>
@@ -4475,7 +4511,7 @@
         <v>3</v>
       </c>
       <c r="M47">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N47" t="s">
         <v>40</v>
@@ -4485,6 +4521,9 @@
       </c>
       <c r="P47">
         <v>500</v>
+      </c>
+      <c r="Q47" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="R47">
         <v>4</v>
@@ -4537,7 +4576,7 @@
         <v>3</v>
       </c>
       <c r="M48" s="6">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="N48" s="6" t="s">
         <v>40</v>
@@ -4548,7 +4587,9 @@
       <c r="P48" s="6">
         <v>500</v>
       </c>
-      <c r="Q48" s="6"/>
+      <c r="Q48" s="6" t="s">
+        <v>113</v>
+      </c>
       <c r="R48" s="6">
         <v>4</v>
       </c>
@@ -4610,7 +4651,7 @@
         <v>4</v>
       </c>
       <c r="M49" s="5">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N49" s="5" t="s">
         <v>40</v>
@@ -4621,7 +4662,9 @@
       <c r="P49" s="5">
         <v>500</v>
       </c>
-      <c r="Q49" s="5"/>
+      <c r="Q49" s="20" t="s">
+        <v>113</v>
+      </c>
       <c r="R49" s="5">
         <v>16</v>
       </c>
@@ -4673,7 +4716,7 @@
         <v>4</v>
       </c>
       <c r="M50">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N50" t="s">
         <v>40</v>
@@ -4683,6 +4726,9 @@
       </c>
       <c r="P50">
         <v>500</v>
+      </c>
+      <c r="Q50" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="R50">
         <v>16</v>
@@ -4735,7 +4781,7 @@
         <v>4</v>
       </c>
       <c r="M51" s="6">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="N51" s="6" t="s">
         <v>40</v>
@@ -4746,11 +4792,13 @@
       <c r="P51" s="6">
         <v>500</v>
       </c>
-      <c r="Q51" s="6"/>
+      <c r="Q51" s="6" t="s">
+        <v>113</v>
+      </c>
       <c r="R51" s="6">
         <v>16</v>
       </c>
-      <c r="S51" s="6">
+      <c r="S51">
         <v>16.8</v>
       </c>
       <c r="T51" s="6">
@@ -4819,12 +4867,16 @@
       <c r="P52" s="5">
         <v>500</v>
       </c>
-      <c r="Q52" s="5"/>
+      <c r="Q52" s="20"/>
       <c r="R52" s="5">
         <v>10</v>
       </c>
-      <c r="S52" s="5"/>
-      <c r="T52" s="5"/>
+      <c r="S52" s="5">
+        <v>23.764099999999999</v>
+      </c>
+      <c r="T52">
+        <v>31.234300000000001</v>
+      </c>
       <c r="AE52" s="12" t="s">
         <v>104</v>
       </c>
@@ -4882,8 +4934,12 @@
       <c r="R53" s="6">
         <v>10</v>
       </c>
-      <c r="S53" s="6"/>
-      <c r="T53" s="6"/>
+      <c r="S53" s="6">
+        <v>23.764099999999999</v>
+      </c>
+      <c r="T53" s="6">
+        <v>31.234300000000001</v>
+      </c>
       <c r="U53" s="6"/>
       <c r="V53" s="6"/>
       <c r="W53" s="6"/>
@@ -4951,8 +5007,12 @@
       <c r="R54" s="5">
         <v>2</v>
       </c>
-      <c r="S54" s="5"/>
-      <c r="T54" s="5"/>
+      <c r="S54">
+        <v>24.1586</v>
+      </c>
+      <c r="T54">
+        <v>31.085699999999999</v>
+      </c>
       <c r="U54" s="5"/>
       <c r="V54" s="5"/>
       <c r="W54" s="5"/>
@@ -4960,7 +5020,6 @@
       <c r="Y54" s="5"/>
       <c r="Z54" s="5"/>
       <c r="AA54" s="5"/>
-      <c r="AB54" s="5"/>
       <c r="AC54" s="5"/>
       <c r="AE54" s="12"/>
     </row>
@@ -5017,8 +5076,12 @@
       <c r="R55" s="6">
         <v>2</v>
       </c>
-      <c r="S55" s="6"/>
-      <c r="T55" s="6"/>
+      <c r="S55" s="6">
+        <v>24.1586</v>
+      </c>
+      <c r="T55" s="6">
+        <v>31.085699999999999</v>
+      </c>
       <c r="U55" s="6"/>
       <c r="V55" s="6"/>
       <c r="W55" s="6"/>
@@ -5084,8 +5147,12 @@
       <c r="R56" s="5">
         <v>10</v>
       </c>
-      <c r="S56" s="5"/>
-      <c r="T56" s="5"/>
+      <c r="S56">
+        <v>23.781099999999999</v>
+      </c>
+      <c r="T56">
+        <v>31.214200000000002</v>
+      </c>
       <c r="U56" s="5"/>
       <c r="V56" s="5"/>
       <c r="W56" s="5"/>
@@ -5093,7 +5160,6 @@
       <c r="Y56" s="5"/>
       <c r="Z56" s="5"/>
       <c r="AA56" s="5"/>
-      <c r="AB56" s="5"/>
       <c r="AC56" s="5"/>
       <c r="AE56" s="12"/>
     </row>
@@ -5150,8 +5216,12 @@
       <c r="R57" s="6">
         <v>10</v>
       </c>
-      <c r="S57" s="6"/>
-      <c r="T57" s="6"/>
+      <c r="S57" s="6">
+        <v>23.781099999999999</v>
+      </c>
+      <c r="T57" s="6">
+        <v>31.214200000000002</v>
+      </c>
       <c r="U57" s="6"/>
       <c r="V57" s="6"/>
       <c r="W57" s="6"/>
@@ -5217,8 +5287,12 @@
       <c r="R58" s="5">
         <v>2</v>
       </c>
-      <c r="S58" s="5"/>
-      <c r="T58" s="5"/>
+      <c r="S58">
+        <v>24.164000000000001</v>
+      </c>
+      <c r="T58">
+        <v>30.924399999999999</v>
+      </c>
       <c r="U58" s="5"/>
       <c r="V58" s="5"/>
       <c r="W58" s="5"/>
@@ -5226,7 +5300,6 @@
       <c r="Y58" s="5"/>
       <c r="Z58" s="5"/>
       <c r="AA58" s="5"/>
-      <c r="AB58" s="5"/>
       <c r="AC58" s="5"/>
       <c r="AE58" s="12"/>
     </row>
@@ -5283,8 +5356,12 @@
       <c r="R59" s="6">
         <v>2</v>
       </c>
-      <c r="S59" s="6"/>
-      <c r="T59" s="6"/>
+      <c r="S59" s="6">
+        <v>24.164000000000001</v>
+      </c>
+      <c r="T59" s="6">
+        <v>30.924399999999999</v>
+      </c>
       <c r="U59" s="6"/>
       <c r="V59" s="6"/>
       <c r="W59" s="6"/>

--- a/pH_glider/water_sampling/sample_logs/RMI2_pH_Water_Sample_Log.xlsx
+++ b/pH_glider/water_sampling/sample_logs/RMI2_pH_Water_Sample_Log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/garzio/Documents/repo/rucool/dataset_archiving/pH_glider/water_sampling/sample_logs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36CB1D65-A1C4-714D-B3AA-25FD973DCAE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD1856B-1501-A644-8F6F-8C5A2C21C403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="800" windowWidth="35840" windowHeight="15700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="800" windowWidth="21500" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SampleLog" sheetId="1" r:id="rId1"/>
@@ -533,7 +533,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -559,7 +559,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -842,9 +841,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4047,7 +4046,7 @@
       <c r="P40" s="5">
         <v>500</v>
       </c>
-      <c r="Q40" s="20" t="s">
+      <c r="Q40" t="s">
         <v>113</v>
       </c>
       <c r="R40" s="5">
@@ -4112,7 +4111,7 @@
       <c r="P41">
         <v>500</v>
       </c>
-      <c r="Q41" s="20" t="s">
+      <c r="Q41" t="s">
         <v>113</v>
       </c>
       <c r="R41">
@@ -4252,7 +4251,7 @@
       <c r="P43" s="5">
         <v>500</v>
       </c>
-      <c r="Q43" s="20" t="s">
+      <c r="Q43" t="s">
         <v>113</v>
       </c>
       <c r="R43" s="5">
@@ -4317,7 +4316,7 @@
       <c r="P44">
         <v>500</v>
       </c>
-      <c r="Q44" s="20" t="s">
+      <c r="Q44" t="s">
         <v>113</v>
       </c>
       <c r="R44">
@@ -4457,7 +4456,7 @@
       <c r="P46" s="5">
         <v>500</v>
       </c>
-      <c r="Q46" s="20" t="s">
+      <c r="Q46" t="s">
         <v>113</v>
       </c>
       <c r="R46" s="5">
@@ -4522,7 +4521,7 @@
       <c r="P47">
         <v>500</v>
       </c>
-      <c r="Q47" s="20" t="s">
+      <c r="Q47" t="s">
         <v>113</v>
       </c>
       <c r="R47">
@@ -4662,7 +4661,7 @@
       <c r="P49" s="5">
         <v>500</v>
       </c>
-      <c r="Q49" s="20" t="s">
+      <c r="Q49" t="s">
         <v>113</v>
       </c>
       <c r="R49" s="5">
@@ -4727,7 +4726,7 @@
       <c r="P50">
         <v>500</v>
       </c>
-      <c r="Q50" s="20" t="s">
+      <c r="Q50" t="s">
         <v>113</v>
       </c>
       <c r="R50">
@@ -4867,7 +4866,6 @@
       <c r="P52" s="5">
         <v>500</v>
       </c>
-      <c r="Q52" s="20"/>
       <c r="R52" s="5">
         <v>10</v>
       </c>

--- a/pH_glider/water_sampling/sample_logs/RMI2_pH_Water_Sample_Log.xlsx
+++ b/pH_glider/water_sampling/sample_logs/RMI2_pH_Water_Sample_Log.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10201"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/garzio/Documents/repo/rucool/dataset_archiving/pH_glider/water_sampling/sample_logs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD1856B-1501-A644-8F6F-8C5A2C21C403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BABE087B-EB64-AB44-BA3F-A5A808928ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="800" windowWidth="21500" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="6980" windowWidth="35840" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SampleLog" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="135">
   <si>
     <t>Sample #</t>
   </si>
@@ -349,9 +349,6 @@
     <t>Shipped to SBU</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
     <t>RMI 2025 Summer Recovery</t>
   </si>
   <si>
@@ -377,13 +374,82 @@
   </si>
   <si>
     <t>Collected water for one extra bottle per niskin (3 instead of 2) to assess sampling technique</t>
+  </si>
+  <si>
+    <t>RMI 2025 Fall Deployment</t>
+  </si>
+  <si>
+    <t>RMI-RU-303</t>
+  </si>
+  <si>
+    <t>RMI-RU-304</t>
+  </si>
+  <si>
+    <t>RMI-RU-305</t>
+  </si>
+  <si>
+    <t>RMI-RU-306</t>
+  </si>
+  <si>
+    <t>RMI-RU-307</t>
+  </si>
+  <si>
+    <t>RMI-RU-308</t>
+  </si>
+  <si>
+    <t>RMI-RU-309</t>
+  </si>
+  <si>
+    <t>RMI-RU-310</t>
+  </si>
+  <si>
+    <t>Did cast 1 then went to check on ru43 then repositioned to do casts 2-4</t>
+  </si>
+  <si>
+    <t>ru39-20251024T1506</t>
+  </si>
+  <si>
+    <t>RMI-RU-311</t>
+  </si>
+  <si>
+    <t>RMI-RU-312</t>
+  </si>
+  <si>
+    <t>RMI-RU-313</t>
+  </si>
+  <si>
+    <t>RMI-RU-314</t>
+  </si>
+  <si>
+    <t>RMI-RU-315</t>
+  </si>
+  <si>
+    <t>RMI-RU-316</t>
+  </si>
+  <si>
+    <t>RMI-RU-317</t>
+  </si>
+  <si>
+    <t>RMI-RU-318</t>
+  </si>
+  <si>
+    <t>RMI 2025 Fall Recovery</t>
+  </si>
+  <si>
+    <t>Bottle didn't close, sent right back down to grab sample, consider this the same cast</t>
+  </si>
+  <si>
+    <t>Tank sample had strange TA and DIC values</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00000000"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -411,6 +477,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -420,7 +492,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -529,11 +601,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -551,7 +645,6 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
@@ -559,6 +652,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -839,11 +943,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE59"/>
+  <dimension ref="A1:AE75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V63" sqref="V63:V73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -924,7 +1028,7 @@
         <v>39</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>12</v>
@@ -959,19 +1063,19 @@
       <c r="Z1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AA1" s="15" t="s">
+      <c r="AA1" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="AB1" s="19" t="s">
+      <c r="AB1" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="AC1" s="18" t="s">
+      <c r="AC1" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="AD1" s="17" t="s">
+      <c r="AD1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="AE1" s="16" t="s">
+      <c r="AE1" s="15" t="s">
         <v>103</v>
       </c>
     </row>
@@ -1019,7 +1123,7 @@
         <v>37</v>
       </c>
       <c r="O2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P2">
         <v>500</v>
@@ -1056,8 +1160,8 @@
       <c r="AC2" s="5">
         <v>1</v>
       </c>
-      <c r="AE2" s="14" t="s">
-        <v>104</v>
+      <c r="AE2" s="24">
+        <v>45797</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.2">
@@ -1104,7 +1208,7 @@
         <v>37</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P3" s="6">
         <v>500</v>
@@ -1135,8 +1239,8 @@
       <c r="AB3" s="6"/>
       <c r="AC3" s="6"/>
       <c r="AD3" s="6"/>
-      <c r="AE3" s="13" t="s">
-        <v>104</v>
+      <c r="AE3" s="22">
+        <v>45797</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="16" x14ac:dyDescent="0.2">
@@ -1183,7 +1287,7 @@
         <v>37</v>
       </c>
       <c r="O4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P4">
         <v>500</v>
@@ -1220,8 +1324,8 @@
       <c r="AC4" s="5">
         <v>1</v>
       </c>
-      <c r="AE4" s="14" t="s">
-        <v>104</v>
+      <c r="AE4" s="24">
+        <v>45797</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.2">
@@ -1268,7 +1372,7 @@
         <v>37</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P5" s="6">
         <v>500</v>
@@ -1299,8 +1403,8 @@
       <c r="AB5" s="6"/>
       <c r="AC5" s="6"/>
       <c r="AD5" s="6"/>
-      <c r="AE5" s="13" t="s">
-        <v>104</v>
+      <c r="AE5" s="22">
+        <v>45797</v>
       </c>
     </row>
     <row r="6" spans="1:31" ht="16" x14ac:dyDescent="0.2">
@@ -1347,7 +1451,7 @@
         <v>40</v>
       </c>
       <c r="O6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P6">
         <v>500</v>
@@ -1384,8 +1488,8 @@
       <c r="AC6" s="5">
         <v>1</v>
       </c>
-      <c r="AE6" s="14" t="s">
-        <v>104</v>
+      <c r="AE6" s="24">
+        <v>45797</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.2">
@@ -1432,7 +1536,7 @@
         <v>40</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P7" s="6">
         <v>500</v>
@@ -1463,8 +1567,8 @@
       <c r="AB7" s="6"/>
       <c r="AC7" s="6"/>
       <c r="AD7" s="6"/>
-      <c r="AE7" s="13" t="s">
-        <v>104</v>
+      <c r="AE7" s="22">
+        <v>45797</v>
       </c>
     </row>
     <row r="8" spans="1:31" ht="16" x14ac:dyDescent="0.2">
@@ -1511,7 +1615,7 @@
         <v>40</v>
       </c>
       <c r="O8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P8">
         <v>500</v>
@@ -1548,8 +1652,8 @@
       <c r="AC8" s="5">
         <v>1</v>
       </c>
-      <c r="AE8" s="14" t="s">
-        <v>104</v>
+      <c r="AE8" s="24">
+        <v>45797</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.2">
@@ -1596,7 +1700,7 @@
         <v>40</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P9" s="6">
         <v>500</v>
@@ -1627,8 +1731,8 @@
       <c r="AB9" s="6"/>
       <c r="AC9" s="6"/>
       <c r="AD9" s="6"/>
-      <c r="AE9" s="13" t="s">
-        <v>104</v>
+      <c r="AE9" s="22">
+        <v>45797</v>
       </c>
     </row>
     <row r="10" spans="1:31" ht="16" x14ac:dyDescent="0.2">
@@ -1675,7 +1779,7 @@
         <v>40</v>
       </c>
       <c r="O10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P10">
         <v>500</v>
@@ -1712,8 +1816,8 @@
       <c r="AC10" s="5">
         <v>1</v>
       </c>
-      <c r="AE10" s="14" t="s">
-        <v>104</v>
+      <c r="AE10" s="24">
+        <v>45797</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.2">
@@ -1760,7 +1864,7 @@
         <v>40</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P11" s="6">
         <v>500</v>
@@ -1791,8 +1895,8 @@
       <c r="AB11" s="6"/>
       <c r="AC11" s="6"/>
       <c r="AD11" s="6"/>
-      <c r="AE11" s="13" t="s">
-        <v>104</v>
+      <c r="AE11" s="22">
+        <v>45797</v>
       </c>
     </row>
     <row r="12" spans="1:31" ht="16" x14ac:dyDescent="0.2">
@@ -1839,7 +1943,7 @@
         <v>40</v>
       </c>
       <c r="O12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P12">
         <v>500</v>
@@ -1876,8 +1980,8 @@
       <c r="AC12" s="5">
         <v>1</v>
       </c>
-      <c r="AE12" s="14" t="s">
-        <v>104</v>
+      <c r="AE12" s="24">
+        <v>45797</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.2">
@@ -1924,7 +2028,7 @@
         <v>40</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P13" s="6">
         <v>500</v>
@@ -1955,8 +2059,8 @@
       <c r="AB13" s="6"/>
       <c r="AC13" s="6"/>
       <c r="AD13" s="6"/>
-      <c r="AE13" s="13" t="s">
-        <v>104</v>
+      <c r="AE13" s="22">
+        <v>45797</v>
       </c>
     </row>
     <row r="14" spans="1:31" ht="16" x14ac:dyDescent="0.2">
@@ -2003,7 +2107,7 @@
         <v>37</v>
       </c>
       <c r="O14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P14">
         <v>500</v>
@@ -2040,8 +2144,8 @@
       <c r="AC14" s="5">
         <v>1</v>
       </c>
-      <c r="AE14" s="14" t="s">
-        <v>104</v>
+      <c r="AE14" s="24">
+        <v>45818</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.2">
@@ -2088,7 +2192,7 @@
         <v>37</v>
       </c>
       <c r="O15" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P15" s="6">
         <v>500</v>
@@ -2119,8 +2223,8 @@
       <c r="AB15" s="6"/>
       <c r="AC15" s="6"/>
       <c r="AD15" s="6"/>
-      <c r="AE15" s="13" t="s">
-        <v>104</v>
+      <c r="AE15" s="22">
+        <v>45818</v>
       </c>
     </row>
     <row r="16" spans="1:31" ht="16" x14ac:dyDescent="0.2">
@@ -2167,7 +2271,7 @@
         <v>37</v>
       </c>
       <c r="O16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P16">
         <v>500</v>
@@ -2204,8 +2308,8 @@
       <c r="AC16" s="5">
         <v>1</v>
       </c>
-      <c r="AE16" s="14" t="s">
-        <v>104</v>
+      <c r="AE16" s="24">
+        <v>45818</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.2">
@@ -2252,7 +2356,7 @@
         <v>37</v>
       </c>
       <c r="O17" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P17" s="6">
         <v>500</v>
@@ -2283,8 +2387,8 @@
       <c r="AB17" s="6"/>
       <c r="AC17" s="6"/>
       <c r="AD17" s="6"/>
-      <c r="AE17" s="13" t="s">
-        <v>104</v>
+      <c r="AE17" s="22">
+        <v>45818</v>
       </c>
     </row>
     <row r="18" spans="1:31" ht="16" x14ac:dyDescent="0.2">
@@ -2331,13 +2435,13 @@
         <v>37</v>
       </c>
       <c r="O18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P18">
         <v>500</v>
       </c>
       <c r="Q18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="R18">
         <v>14</v>
@@ -2368,8 +2472,8 @@
       <c r="AC18" s="5">
         <v>1</v>
       </c>
-      <c r="AE18" s="14" t="s">
-        <v>104</v>
+      <c r="AE18" s="24">
+        <v>45818</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.2">
@@ -2416,13 +2520,13 @@
         <v>37</v>
       </c>
       <c r="O19" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P19" s="6">
         <v>500</v>
       </c>
       <c r="Q19" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="R19" s="6">
         <v>14</v>
@@ -2447,8 +2551,8 @@
       <c r="AB19" s="6"/>
       <c r="AC19" s="6"/>
       <c r="AD19" s="6"/>
-      <c r="AE19" s="13" t="s">
-        <v>104</v>
+      <c r="AE19" s="22">
+        <v>45818</v>
       </c>
     </row>
     <row r="20" spans="1:31" ht="16" x14ac:dyDescent="0.2">
@@ -2495,13 +2599,13 @@
         <v>37</v>
       </c>
       <c r="O20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P20">
         <v>500</v>
       </c>
       <c r="Q20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="R20">
         <v>14</v>
@@ -2532,8 +2636,8 @@
       <c r="AC20" s="5">
         <v>1</v>
       </c>
-      <c r="AE20" s="14" t="s">
-        <v>104</v>
+      <c r="AE20" s="24">
+        <v>45818</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.2">
@@ -2580,13 +2684,13 @@
         <v>37</v>
       </c>
       <c r="O21" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P21" s="6">
         <v>500</v>
       </c>
       <c r="Q21" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="R21" s="6">
         <v>14</v>
@@ -2611,8 +2715,8 @@
       <c r="AB21" s="6"/>
       <c r="AC21" s="6"/>
       <c r="AD21" s="6"/>
-      <c r="AE21" s="13" t="s">
-        <v>104</v>
+      <c r="AE21" s="22">
+        <v>45818</v>
       </c>
     </row>
     <row r="22" spans="1:31" ht="16" x14ac:dyDescent="0.2">
@@ -2659,13 +2763,13 @@
         <v>37</v>
       </c>
       <c r="O22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P22">
         <v>500</v>
       </c>
       <c r="Q22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="R22">
         <v>14</v>
@@ -2696,8 +2800,8 @@
       <c r="AC22" s="5">
         <v>1</v>
       </c>
-      <c r="AE22" s="14" t="s">
-        <v>104</v>
+      <c r="AE22" s="24">
+        <v>45818</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.2">
@@ -2744,13 +2848,13 @@
         <v>37</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P23" s="6">
         <v>500</v>
       </c>
       <c r="Q23" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="R23" s="6">
         <v>14</v>
@@ -2775,8 +2879,8 @@
       <c r="AB23" s="6"/>
       <c r="AC23" s="6"/>
       <c r="AD23" s="6"/>
-      <c r="AE23" s="13" t="s">
-        <v>104</v>
+      <c r="AE23" s="22">
+        <v>45818</v>
       </c>
     </row>
     <row r="24" spans="1:31" ht="16" x14ac:dyDescent="0.2">
@@ -2823,13 +2927,13 @@
         <v>37</v>
       </c>
       <c r="O24" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P24" s="5">
         <v>500</v>
       </c>
       <c r="Q24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="R24" s="5">
         <v>14</v>
@@ -2860,8 +2964,8 @@
       <c r="AC24" s="5">
         <v>1</v>
       </c>
-      <c r="AE24" s="12" t="s">
-        <v>104</v>
+      <c r="AE24" s="24">
+        <v>45818</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.2">
@@ -2908,13 +3012,13 @@
         <v>37</v>
       </c>
       <c r="O25" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P25" s="6">
         <v>500</v>
       </c>
       <c r="Q25" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="R25" s="6">
         <v>14</v>
@@ -2939,8 +3043,8 @@
       <c r="AB25" s="6"/>
       <c r="AC25" s="6"/>
       <c r="AD25" s="6"/>
-      <c r="AE25" s="13" t="s">
-        <v>104</v>
+      <c r="AE25" s="22">
+        <v>45818</v>
       </c>
     </row>
     <row r="26" spans="1:31" ht="16" x14ac:dyDescent="0.2">
@@ -2987,7 +3091,7 @@
         <v>40</v>
       </c>
       <c r="O26" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P26" s="5">
         <v>500</v>
@@ -3024,8 +3128,8 @@
       <c r="AC26" s="5">
         <v>1</v>
       </c>
-      <c r="AE26" s="12" t="s">
-        <v>104</v>
+      <c r="AE26" s="24">
+        <v>45818</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.2">
@@ -3072,7 +3176,7 @@
         <v>40</v>
       </c>
       <c r="O27" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P27" s="6">
         <v>500</v>
@@ -3103,8 +3207,8 @@
       <c r="AB27" s="6"/>
       <c r="AC27" s="6"/>
       <c r="AD27" s="6"/>
-      <c r="AE27" s="13" t="s">
-        <v>104</v>
+      <c r="AE27" s="22">
+        <v>45818</v>
       </c>
     </row>
     <row r="28" spans="1:31" ht="16" x14ac:dyDescent="0.2">
@@ -3151,7 +3255,7 @@
         <v>37</v>
       </c>
       <c r="O28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P28">
         <v>500</v>
@@ -3188,8 +3292,8 @@
       <c r="AC28" s="5">
         <v>1</v>
       </c>
-      <c r="AE28" s="14" t="s">
-        <v>104</v>
+      <c r="AE28" s="24">
+        <v>45818</v>
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.2">
@@ -3236,7 +3340,7 @@
         <v>37</v>
       </c>
       <c r="O29" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P29" s="6">
         <v>500</v>
@@ -3267,8 +3371,8 @@
       <c r="AB29" s="6"/>
       <c r="AC29" s="6"/>
       <c r="AD29" s="6"/>
-      <c r="AE29" s="13" t="s">
-        <v>104</v>
+      <c r="AE29" s="22">
+        <v>45818</v>
       </c>
     </row>
     <row r="30" spans="1:31" ht="16" x14ac:dyDescent="0.2">
@@ -3315,13 +3419,13 @@
         <v>37</v>
       </c>
       <c r="O30" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P30" s="5">
         <v>500</v>
       </c>
       <c r="Q30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="R30" s="5">
         <v>14</v>
@@ -3352,8 +3456,8 @@
       <c r="AC30" s="5">
         <v>1</v>
       </c>
-      <c r="AE30" s="12" t="s">
-        <v>104</v>
+      <c r="AE30" s="24">
+        <v>45818</v>
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.2">
@@ -3400,13 +3504,13 @@
         <v>37</v>
       </c>
       <c r="O31" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P31" s="6">
         <v>500</v>
       </c>
       <c r="Q31" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="R31" s="6">
         <v>14</v>
@@ -3431,8 +3535,8 @@
       <c r="AB31" s="6"/>
       <c r="AC31" s="6"/>
       <c r="AD31" s="6"/>
-      <c r="AE31" s="13" t="s">
-        <v>104</v>
+      <c r="AE31" s="22">
+        <v>45818</v>
       </c>
     </row>
     <row r="32" spans="1:31" ht="16" x14ac:dyDescent="0.2">
@@ -3479,13 +3583,13 @@
         <v>37</v>
       </c>
       <c r="O32" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P32" s="5">
         <v>500</v>
       </c>
       <c r="Q32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="R32" s="5">
         <v>14</v>
@@ -3516,8 +3620,8 @@
       <c r="AC32" s="5">
         <v>1</v>
       </c>
-      <c r="AE32" s="12" t="s">
-        <v>104</v>
+      <c r="AE32" s="24">
+        <v>45818</v>
       </c>
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.2">
@@ -3564,13 +3668,13 @@
         <v>37</v>
       </c>
       <c r="O33" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P33" s="6">
         <v>500</v>
       </c>
       <c r="Q33" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="R33" s="6">
         <v>14</v>
@@ -3595,10 +3699,10 @@
       <c r="AB33" s="6"/>
       <c r="AC33" s="6"/>
       <c r="AD33" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE33" s="13" t="s">
-        <v>104</v>
+        <v>106</v>
+      </c>
+      <c r="AE33" s="22">
+        <v>45818</v>
       </c>
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.2">
@@ -3645,13 +3749,13 @@
         <v>37</v>
       </c>
       <c r="O34" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P34" s="5">
         <v>500</v>
       </c>
       <c r="Q34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="R34" s="5">
         <v>14</v>
@@ -3662,8 +3766,24 @@
       <c r="T34" s="5">
         <v>32.188000000000002</v>
       </c>
-      <c r="AE34" s="12" t="s">
-        <v>104</v>
+      <c r="W34">
+        <v>2185.9182554366776</v>
+      </c>
+      <c r="Y34">
+        <v>2031.2371273308154</v>
+      </c>
+      <c r="AA34">
+        <v>7.8026263630691792</v>
+      </c>
+      <c r="AB34">
+        <f>U35-AA34</f>
+        <v>-3.6463889121609583E-3</v>
+      </c>
+      <c r="AC34">
+        <v>1</v>
+      </c>
+      <c r="AE34" s="23">
+        <v>45882</v>
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.2">
@@ -3710,13 +3830,13 @@
         <v>37</v>
       </c>
       <c r="O35" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P35" s="6">
         <v>500</v>
       </c>
       <c r="Q35" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="R35" s="6">
         <v>14</v>
@@ -3727,8 +3847,12 @@
       <c r="T35" s="6">
         <v>32.188000000000002</v>
       </c>
-      <c r="U35" s="6"/>
-      <c r="V35" s="6"/>
+      <c r="U35" s="6">
+        <v>7.7989799741570183</v>
+      </c>
+      <c r="V35" s="6">
+        <v>2.0000000000000001E-4</v>
+      </c>
       <c r="W35" s="6"/>
       <c r="X35" s="6"/>
       <c r="Y35" s="6"/>
@@ -3737,8 +3861,8 @@
       <c r="AB35" s="6"/>
       <c r="AC35" s="6"/>
       <c r="AD35" s="6"/>
-      <c r="AE35" s="13" t="s">
-        <v>104</v>
+      <c r="AE35" s="22">
+        <v>45882</v>
       </c>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.2">
@@ -3785,13 +3909,13 @@
         <v>37</v>
       </c>
       <c r="O36" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P36" s="5">
         <v>500</v>
       </c>
       <c r="Q36" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="R36" s="5">
         <v>14</v>
@@ -3802,8 +3926,24 @@
       <c r="T36" s="5">
         <v>32.188000000000002</v>
       </c>
-      <c r="AE36" s="12" t="s">
-        <v>104</v>
+      <c r="W36">
+        <v>2188.1560730789515</v>
+      </c>
+      <c r="Y36">
+        <v>2035.2163608676831</v>
+      </c>
+      <c r="AA36">
+        <v>7.7980920484799814</v>
+      </c>
+      <c r="AB36">
+        <f>U37-AA36</f>
+        <v>-2.8781511864206522E-4</v>
+      </c>
+      <c r="AC36">
+        <v>1</v>
+      </c>
+      <c r="AE36" s="24">
+        <v>45882</v>
       </c>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.2">
@@ -3850,13 +3990,13 @@
         <v>37</v>
       </c>
       <c r="O37" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P37" s="6">
         <v>500</v>
       </c>
       <c r="Q37" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="R37" s="6">
         <v>14</v>
@@ -3867,8 +4007,12 @@
       <c r="T37" s="6">
         <v>32.188000000000002</v>
       </c>
-      <c r="U37" s="6"/>
-      <c r="V37" s="6"/>
+      <c r="U37" s="6">
+        <v>7.7978042333613393</v>
+      </c>
+      <c r="V37" s="6">
+        <v>2.9999999999999997E-4</v>
+      </c>
       <c r="W37" s="6"/>
       <c r="X37" s="6"/>
       <c r="Y37" s="6"/>
@@ -3877,8 +4021,8 @@
       <c r="AB37" s="6"/>
       <c r="AC37" s="6"/>
       <c r="AD37" s="6"/>
-      <c r="AE37" s="13" t="s">
-        <v>104</v>
+      <c r="AE37" s="22">
+        <v>45882</v>
       </c>
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.2">
@@ -3930,8 +4074,27 @@
       <c r="T38" s="5">
         <v>30.07</v>
       </c>
-      <c r="AE38" s="12" t="s">
-        <v>104</v>
+      <c r="W38">
+        <v>3492.9273910400798</v>
+      </c>
+      <c r="Y38">
+        <v>2943.4287791564757</v>
+      </c>
+      <c r="AA38">
+        <v>8.2655524259284938</v>
+      </c>
+      <c r="AB38">
+        <f>U39-AA38</f>
+        <v>-0.28889957638623542</v>
+      </c>
+      <c r="AC38">
+        <v>3</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE38" s="24">
+        <v>45882</v>
       </c>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.2">
@@ -3983,8 +4146,12 @@
       <c r="T39" s="6">
         <v>30.07</v>
       </c>
-      <c r="U39" s="6"/>
-      <c r="V39" s="6"/>
+      <c r="U39" s="6">
+        <v>7.9766528495422584</v>
+      </c>
+      <c r="V39" s="6">
+        <v>2.0000000000000001E-4</v>
+      </c>
       <c r="W39" s="6"/>
       <c r="X39" s="6"/>
       <c r="Y39" s="6"/>
@@ -3993,8 +4160,8 @@
       <c r="AB39" s="6"/>
       <c r="AC39" s="6"/>
       <c r="AD39" s="6"/>
-      <c r="AE39" s="13" t="s">
-        <v>104</v>
+      <c r="AE39" s="22">
+        <v>45882</v>
       </c>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.2">
@@ -4041,13 +4208,13 @@
         <v>40</v>
       </c>
       <c r="O40" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P40" s="5">
         <v>500</v>
       </c>
       <c r="Q40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R40" s="5">
         <v>4</v>
@@ -4058,8 +4225,24 @@
       <c r="T40" s="5">
         <v>29.24</v>
       </c>
-      <c r="AE40" s="12" t="s">
-        <v>104</v>
+      <c r="W40">
+        <v>2060.5804869546569</v>
+      </c>
+      <c r="Y40">
+        <v>1843.1931187734895</v>
+      </c>
+      <c r="AA40">
+        <v>8.0031364340107309</v>
+      </c>
+      <c r="AB40">
+        <f>U41-AA40</f>
+        <v>-1.6930732589417907E-2</v>
+      </c>
+      <c r="AC40">
+        <v>1</v>
+      </c>
+      <c r="AE40" s="24">
+        <v>45882</v>
       </c>
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.2">
@@ -4106,13 +4289,13 @@
         <v>40</v>
       </c>
       <c r="O41" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P41">
         <v>500</v>
       </c>
       <c r="Q41" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R41">
         <v>4</v>
@@ -4123,8 +4306,14 @@
       <c r="T41">
         <v>29.24</v>
       </c>
-      <c r="AE41" s="14" t="s">
-        <v>104</v>
+      <c r="U41">
+        <v>7.986205701421313</v>
+      </c>
+      <c r="V41">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="AE41" s="24">
+        <v>45882</v>
       </c>
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.2">
@@ -4171,13 +4360,13 @@
         <v>40</v>
       </c>
       <c r="O42" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P42" s="6">
         <v>500</v>
       </c>
       <c r="Q42" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R42" s="6">
         <v>4</v>
@@ -4188,18 +4377,33 @@
       <c r="T42" s="6">
         <v>29.24</v>
       </c>
-      <c r="U42" s="6"/>
-      <c r="V42" s="6"/>
-      <c r="W42" s="6"/>
+      <c r="U42" s="6">
+        <v>7.9821971524936437</v>
+      </c>
+      <c r="V42" s="6">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="W42" s="6">
+        <v>2058.6498570509616</v>
+      </c>
       <c r="X42" s="6"/>
-      <c r="Y42" s="6"/>
+      <c r="Y42" s="6">
+        <v>1847.4046175895378</v>
+      </c>
       <c r="Z42" s="6"/>
-      <c r="AA42" s="6"/>
-      <c r="AB42" s="6"/>
-      <c r="AC42" s="6"/>
+      <c r="AA42" s="6">
+        <v>7.9901285228446319</v>
+      </c>
+      <c r="AB42" s="6">
+        <f>U42-AA42</f>
+        <v>-7.9313703509882316E-3</v>
+      </c>
+      <c r="AC42" s="6">
+        <v>1</v>
+      </c>
       <c r="AD42" s="6"/>
-      <c r="AE42" s="13" t="s">
-        <v>104</v>
+      <c r="AE42" s="22">
+        <v>45882</v>
       </c>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.2">
@@ -4246,13 +4450,13 @@
         <v>40</v>
       </c>
       <c r="O43" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P43" s="5">
         <v>500</v>
       </c>
       <c r="Q43" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R43" s="5">
         <v>16</v>
@@ -4263,8 +4467,14 @@
       <c r="T43" s="5">
         <v>31.58</v>
       </c>
-      <c r="AE43" s="12" t="s">
-        <v>104</v>
+      <c r="U43">
+        <v>7.6675127773629734</v>
+      </c>
+      <c r="V43">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="AE43" s="24">
+        <v>45882</v>
       </c>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.2">
@@ -4311,13 +4521,13 @@
         <v>40</v>
       </c>
       <c r="O44" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P44">
         <v>500</v>
       </c>
       <c r="Q44" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R44">
         <v>16</v>
@@ -4328,8 +4538,24 @@
       <c r="T44">
         <v>31.58</v>
       </c>
-      <c r="AE44" s="14" t="s">
-        <v>104</v>
+      <c r="W44">
+        <v>2145.1679957811566</v>
+      </c>
+      <c r="Y44">
+        <v>2042.6865641591603</v>
+      </c>
+      <c r="AA44">
+        <v>7.6754346734679615</v>
+      </c>
+      <c r="AB44">
+        <f>U43-AA44</f>
+        <v>-7.9218961049880576E-3</v>
+      </c>
+      <c r="AC44">
+        <v>1</v>
+      </c>
+      <c r="AE44" s="24">
+        <v>45882</v>
       </c>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.2">
@@ -4376,13 +4602,13 @@
         <v>40</v>
       </c>
       <c r="O45" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P45" s="6">
         <v>500</v>
       </c>
       <c r="Q45" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R45" s="6">
         <v>16</v>
@@ -4393,18 +4619,33 @@
       <c r="T45" s="6">
         <v>31.58</v>
       </c>
-      <c r="U45" s="6"/>
-      <c r="V45" s="6"/>
-      <c r="W45" s="6"/>
+      <c r="U45" s="19">
+        <v>7.6699436069344422</v>
+      </c>
+      <c r="V45" s="6">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="W45" s="6">
+        <v>2145.2873847473379</v>
+      </c>
       <c r="X45" s="6"/>
-      <c r="Y45" s="6"/>
+      <c r="Y45" s="6">
+        <v>2040.0944568024725</v>
+      </c>
       <c r="Z45" s="6"/>
-      <c r="AA45" s="6"/>
-      <c r="AB45" s="6"/>
-      <c r="AC45" s="6"/>
+      <c r="AA45" s="6">
+        <v>7.6831892224843008</v>
+      </c>
+      <c r="AB45" s="19">
+        <f>U45-AA45</f>
+        <v>-1.3245615549858591E-2</v>
+      </c>
+      <c r="AC45" s="6">
+        <v>1</v>
+      </c>
       <c r="AD45" s="6"/>
-      <c r="AE45" s="13" t="s">
-        <v>104</v>
+      <c r="AE45" s="22">
+        <v>45882</v>
       </c>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.2">
@@ -4451,13 +4692,13 @@
         <v>40</v>
       </c>
       <c r="O46" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P46" s="5">
         <v>500</v>
       </c>
       <c r="Q46" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R46" s="5">
         <v>4</v>
@@ -4468,8 +4709,24 @@
       <c r="T46" s="5">
         <v>29.24</v>
       </c>
-      <c r="AE46" s="12" t="s">
-        <v>104</v>
+      <c r="W46">
+        <v>2062.0190840104046</v>
+      </c>
+      <c r="Y46">
+        <v>1849.4282348028396</v>
+      </c>
+      <c r="AA46">
+        <v>7.9925375570781974</v>
+      </c>
+      <c r="AB46">
+        <f>U47-AA46</f>
+        <v>-1.2553853362192946E-2</v>
+      </c>
+      <c r="AC46">
+        <v>1</v>
+      </c>
+      <c r="AE46" s="24">
+        <v>45882</v>
       </c>
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.2">
@@ -4516,13 +4773,13 @@
         <v>40</v>
       </c>
       <c r="O47" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P47">
         <v>500</v>
       </c>
       <c r="Q47" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R47">
         <v>4</v>
@@ -4533,8 +4790,14 @@
       <c r="T47">
         <v>29.24</v>
       </c>
-      <c r="AE47" s="14" t="s">
-        <v>104</v>
+      <c r="U47">
+        <v>7.9799837037160044</v>
+      </c>
+      <c r="V47">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="AE47" s="24">
+        <v>45882</v>
       </c>
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.2">
@@ -4581,13 +4844,13 @@
         <v>40</v>
       </c>
       <c r="O48" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P48" s="6">
         <v>500</v>
       </c>
       <c r="Q48" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R48" s="6">
         <v>4</v>
@@ -4598,18 +4861,33 @@
       <c r="T48" s="6">
         <v>29.24</v>
       </c>
-      <c r="U48" s="6"/>
-      <c r="V48" s="6"/>
-      <c r="W48" s="6"/>
+      <c r="U48" s="6">
+        <v>7.9693261951242809</v>
+      </c>
+      <c r="V48" s="6">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="W48" s="6">
+        <v>2058.5899417482669</v>
+      </c>
       <c r="X48" s="6"/>
-      <c r="Y48" s="6"/>
+      <c r="Y48" s="6">
+        <v>1850.3334950659123</v>
+      </c>
       <c r="Z48" s="6"/>
-      <c r="AA48" s="6"/>
-      <c r="AB48" s="6"/>
-      <c r="AC48" s="6"/>
+      <c r="AA48" s="6">
+        <v>7.9835835130772308</v>
+      </c>
+      <c r="AB48" s="6">
+        <f>U48-AA48</f>
+        <v>-1.4257317952949933E-2</v>
+      </c>
+      <c r="AC48" s="6">
+        <v>1</v>
+      </c>
       <c r="AD48" s="6"/>
-      <c r="AE48" s="13" t="s">
-        <v>104</v>
+      <c r="AE48" s="22">
+        <v>45882</v>
       </c>
     </row>
     <row r="49" spans="1:31" x14ac:dyDescent="0.2">
@@ -4656,13 +4934,13 @@
         <v>40</v>
       </c>
       <c r="O49" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P49" s="5">
         <v>500</v>
       </c>
       <c r="Q49" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R49" s="5">
         <v>16</v>
@@ -4673,8 +4951,14 @@
       <c r="T49" s="5">
         <v>31.58</v>
       </c>
-      <c r="AE49" s="12" t="s">
-        <v>104</v>
+      <c r="U49">
+        <v>7.6559387105330385</v>
+      </c>
+      <c r="V49">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="AE49" s="24">
+        <v>45882</v>
       </c>
     </row>
     <row r="50" spans="1:31" x14ac:dyDescent="0.2">
@@ -4721,13 +5005,13 @@
         <v>40</v>
       </c>
       <c r="O50" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P50">
         <v>500</v>
       </c>
       <c r="Q50" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R50">
         <v>16</v>
@@ -4738,8 +5022,24 @@
       <c r="T50">
         <v>31.58</v>
       </c>
-      <c r="AE50" s="14" t="s">
-        <v>104</v>
+      <c r="W50">
+        <v>2147.8430369337484</v>
+      </c>
+      <c r="Y50">
+        <v>2044.1595850981328</v>
+      </c>
+      <c r="AA50">
+        <v>7.6786571434733215</v>
+      </c>
+      <c r="AB50">
+        <f>U49-AA50</f>
+        <v>-2.2718432940282973E-2</v>
+      </c>
+      <c r="AC50">
+        <v>1</v>
+      </c>
+      <c r="AE50" s="24">
+        <v>45882</v>
       </c>
     </row>
     <row r="51" spans="1:31" x14ac:dyDescent="0.2">
@@ -4786,13 +5086,13 @@
         <v>40</v>
       </c>
       <c r="O51" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P51" s="6">
         <v>500</v>
       </c>
       <c r="Q51" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R51" s="6">
         <v>16</v>
@@ -4803,18 +5103,33 @@
       <c r="T51" s="6">
         <v>31.58</v>
       </c>
-      <c r="U51" s="6"/>
-      <c r="V51" s="6"/>
-      <c r="W51" s="6"/>
+      <c r="U51" s="6">
+        <v>7.6542974432256523</v>
+      </c>
+      <c r="V51" s="6">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="W51" s="6">
+        <v>2145.9464530769783</v>
+      </c>
       <c r="X51" s="6"/>
-      <c r="Y51" s="6"/>
+      <c r="Y51" s="6">
+        <v>2045.4674320349941</v>
+      </c>
       <c r="Z51" s="6"/>
-      <c r="AA51" s="6"/>
-      <c r="AB51" s="6"/>
-      <c r="AC51" s="6"/>
+      <c r="AA51" s="6">
+        <v>7.6695999854861299</v>
+      </c>
+      <c r="AB51" s="6">
+        <f>U51-AA51</f>
+        <v>-1.5302542260477559E-2</v>
+      </c>
+      <c r="AC51" s="6">
+        <v>1</v>
+      </c>
       <c r="AD51" s="6"/>
-      <c r="AE51" s="13" t="s">
-        <v>104</v>
+      <c r="AE51" s="22">
+        <v>45882</v>
       </c>
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.2">
@@ -4822,10 +5137,10 @@
         <v>15</v>
       </c>
       <c r="B52" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C52" s="5" t="s">
         <v>105</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>106</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>42</v>
@@ -4861,7 +5176,7 @@
         <v>37</v>
       </c>
       <c r="O52" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P52" s="5">
         <v>500</v>
@@ -4875,8 +5190,24 @@
       <c r="T52">
         <v>31.234300000000001</v>
       </c>
-      <c r="AE52" s="12" t="s">
-        <v>104</v>
+      <c r="W52">
+        <v>2126.713076084236</v>
+      </c>
+      <c r="Y52">
+        <v>1893.8710925848598</v>
+      </c>
+      <c r="AA52">
+        <v>7.9973522580316425</v>
+      </c>
+      <c r="AB52">
+        <f>U53-AA52</f>
+        <v>-1.3930456802633273E-3</v>
+      </c>
+      <c r="AC52">
+        <v>1</v>
+      </c>
+      <c r="AE52" s="24">
+        <v>45882</v>
       </c>
     </row>
     <row r="53" spans="1:31" x14ac:dyDescent="0.2">
@@ -4884,10 +5215,10 @@
         <v>15</v>
       </c>
       <c r="B53" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C53" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="D53" s="6" t="s">
         <v>42</v>
@@ -4923,7 +5254,7 @@
         <v>37</v>
       </c>
       <c r="O53" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P53" s="6">
         <v>500</v>
@@ -4938,8 +5269,12 @@
       <c r="T53" s="6">
         <v>31.234300000000001</v>
       </c>
-      <c r="U53" s="6"/>
-      <c r="V53" s="6"/>
+      <c r="U53" s="6">
+        <v>7.9959592123513792</v>
+      </c>
+      <c r="V53" s="6">
+        <v>2.0000000000000001E-4</v>
+      </c>
       <c r="W53" s="6"/>
       <c r="X53" s="6"/>
       <c r="Y53" s="6"/>
@@ -4948,8 +5283,8 @@
       <c r="AB53" s="6"/>
       <c r="AC53" s="6"/>
       <c r="AD53" s="6"/>
-      <c r="AE53" s="13" t="s">
-        <v>104</v>
+      <c r="AE53" s="22">
+        <v>45882</v>
       </c>
     </row>
     <row r="54" spans="1:31" x14ac:dyDescent="0.2">
@@ -4957,10 +5292,10 @@
         <v>15</v>
       </c>
       <c r="B54" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C54" s="5" t="s">
         <v>105</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>106</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>42</v>
@@ -4996,7 +5331,7 @@
         <v>37</v>
       </c>
       <c r="O54" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P54" s="5">
         <v>500</v>
@@ -5013,23 +5348,37 @@
       </c>
       <c r="U54" s="5"/>
       <c r="V54" s="5"/>
-      <c r="W54" s="5"/>
+      <c r="W54" s="5">
+        <v>2121.3493866152762</v>
+      </c>
       <c r="X54" s="5"/>
-      <c r="Y54" s="5"/>
+      <c r="Y54" s="5">
+        <v>1881.0849910169063</v>
+      </c>
       <c r="Z54" s="5"/>
-      <c r="AA54" s="5"/>
-      <c r="AC54" s="5"/>
-      <c r="AE54" s="12"/>
+      <c r="AA54" s="25">
+        <v>8.0151759260971644</v>
+      </c>
+      <c r="AB54">
+        <f>U55-AA54</f>
+        <v>-1.0020504895447147E-3</v>
+      </c>
+      <c r="AC54" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE54" s="24">
+        <v>46029</v>
+      </c>
     </row>
     <row r="55" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B55" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C55" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="D55" s="6" t="s">
         <v>42</v>
@@ -5065,7 +5414,7 @@
         <v>37</v>
       </c>
       <c r="O55" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P55" s="6">
         <v>500</v>
@@ -5080,8 +5429,12 @@
       <c r="T55" s="6">
         <v>31.085699999999999</v>
       </c>
-      <c r="U55" s="6"/>
-      <c r="V55" s="6"/>
+      <c r="U55" s="6">
+        <v>8.0141738756076197</v>
+      </c>
+      <c r="V55" s="6">
+        <v>3.0000000000000001E-3</v>
+      </c>
       <c r="W55" s="6"/>
       <c r="X55" s="6"/>
       <c r="Y55" s="6"/>
@@ -5090,17 +5443,19 @@
       <c r="AB55" s="6"/>
       <c r="AC55" s="6"/>
       <c r="AD55" s="6"/>
-      <c r="AE55" s="13"/>
+      <c r="AE55" s="22">
+        <v>46029</v>
+      </c>
     </row>
     <row r="56" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B56" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C56" s="5" t="s">
         <v>105</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>106</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>42</v>
@@ -5136,7 +5491,7 @@
         <v>37</v>
       </c>
       <c r="O56" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P56" s="5">
         <v>500</v>
@@ -5153,23 +5508,37 @@
       </c>
       <c r="U56" s="5"/>
       <c r="V56" s="5"/>
-      <c r="W56" s="5"/>
+      <c r="W56" s="5">
+        <v>2126.8041112389928</v>
+      </c>
       <c r="X56" s="5"/>
-      <c r="Y56" s="5"/>
+      <c r="Y56" s="5">
+        <v>1882.7616543823065</v>
+      </c>
       <c r="Z56" s="5"/>
-      <c r="AA56" s="5"/>
-      <c r="AC56" s="5"/>
-      <c r="AE56" s="12"/>
+      <c r="AA56" s="25">
+        <v>8.0200717149190925</v>
+      </c>
+      <c r="AB56">
+        <f>U57-AA56</f>
+        <v>-2.299130998487442E-3</v>
+      </c>
+      <c r="AC56" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE56" s="24">
+        <v>46029</v>
+      </c>
     </row>
     <row r="57" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B57" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C57" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="D57" s="6" t="s">
         <v>42</v>
@@ -5205,7 +5574,7 @@
         <v>37</v>
       </c>
       <c r="O57" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P57" s="6">
         <v>500</v>
@@ -5220,8 +5589,12 @@
       <c r="T57" s="6">
         <v>31.214200000000002</v>
       </c>
-      <c r="U57" s="6"/>
-      <c r="V57" s="6"/>
+      <c r="U57" s="6">
+        <v>8.0177725839206051</v>
+      </c>
+      <c r="V57" s="6">
+        <v>2.9999999999999997E-4</v>
+      </c>
       <c r="W57" s="6"/>
       <c r="X57" s="6"/>
       <c r="Y57" s="6"/>
@@ -5230,17 +5603,19 @@
       <c r="AB57" s="6"/>
       <c r="AC57" s="6"/>
       <c r="AD57" s="6"/>
-      <c r="AE57" s="13"/>
+      <c r="AE57" s="22">
+        <v>46029</v>
+      </c>
     </row>
     <row r="58" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B58" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C58" s="5" t="s">
         <v>105</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>106</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>42</v>
@@ -5276,7 +5651,7 @@
         <v>37</v>
       </c>
       <c r="O58" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P58" s="5">
         <v>500</v>
@@ -5293,23 +5668,37 @@
       </c>
       <c r="U58" s="5"/>
       <c r="V58" s="5"/>
-      <c r="W58" s="5"/>
+      <c r="W58" s="5">
+        <v>2122.4762310073788</v>
+      </c>
       <c r="X58" s="5"/>
-      <c r="Y58" s="5"/>
+      <c r="Y58" s="5">
+        <v>1883.1555692693585</v>
+      </c>
       <c r="Z58" s="5"/>
-      <c r="AA58" s="5"/>
-      <c r="AC58" s="5"/>
-      <c r="AE58" s="12"/>
+      <c r="AA58" s="25">
+        <v>8.0153217628954199</v>
+      </c>
+      <c r="AB58">
+        <f>U59-AA58</f>
+        <v>-7.483663275607455E-3</v>
+      </c>
+      <c r="AC58" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE58" s="24">
+        <v>46029</v>
+      </c>
     </row>
     <row r="59" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A59" s="6" t="s">
+      <c r="A59" t="s">
         <v>15</v>
       </c>
       <c r="B59" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C59" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>42</v>
@@ -5345,7 +5734,7 @@
         <v>37</v>
       </c>
       <c r="O59" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P59" s="6">
         <v>500</v>
@@ -5360,8 +5749,12 @@
       <c r="T59" s="6">
         <v>30.924399999999999</v>
       </c>
-      <c r="U59" s="6"/>
-      <c r="V59" s="6"/>
+      <c r="U59" s="6">
+        <v>8.0078380996198124</v>
+      </c>
+      <c r="V59" s="6">
+        <v>1E-4</v>
+      </c>
       <c r="W59" s="6"/>
       <c r="X59" s="6"/>
       <c r="Y59" s="6"/>
@@ -5370,7 +5763,1280 @@
       <c r="AB59" s="6"/>
       <c r="AC59" s="6"/>
       <c r="AD59" s="6"/>
-      <c r="AE59" s="13"/>
+      <c r="AE59" s="22">
+        <v>46029</v>
+      </c>
+    </row>
+    <row r="60" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A60" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E60" s="10">
+        <v>45954</v>
+      </c>
+      <c r="F60" s="11">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="G60" s="5">
+        <v>40</v>
+      </c>
+      <c r="H60" s="5">
+        <v>15.371</v>
+      </c>
+      <c r="I60" s="5">
+        <v>-73</v>
+      </c>
+      <c r="J60" s="5">
+        <v>51.457000000000001</v>
+      </c>
+      <c r="K60" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="L60" s="5">
+        <v>1</v>
+      </c>
+      <c r="M60" s="5">
+        <v>1</v>
+      </c>
+      <c r="N60" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O60" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="P60" s="5">
+        <v>500</v>
+      </c>
+      <c r="Q60" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="R60" s="5">
+        <v>2</v>
+      </c>
+      <c r="S60" s="5">
+        <v>17.806999999999999</v>
+      </c>
+      <c r="T60" s="5">
+        <v>32.393000000000001</v>
+      </c>
+      <c r="U60" s="5"/>
+      <c r="V60" s="5"/>
+      <c r="W60" s="5">
+        <v>2185.9783999357619</v>
+      </c>
+      <c r="X60" s="5"/>
+      <c r="Y60" s="5">
+        <v>1991.2094529022113</v>
+      </c>
+      <c r="Z60" s="5"/>
+      <c r="AA60" s="25">
+        <v>7.8930801216404758</v>
+      </c>
+      <c r="AB60" s="5">
+        <f>U61-AA60</f>
+        <v>6.8955533461352303E-3</v>
+      </c>
+      <c r="AC60" s="5">
+        <v>1</v>
+      </c>
+      <c r="AD60" s="5"/>
+      <c r="AE60" s="24">
+        <v>46029</v>
+      </c>
+    </row>
+    <row r="61" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A61" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E61" s="8">
+        <v>45954</v>
+      </c>
+      <c r="F61" s="9">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="G61" s="6">
+        <v>40</v>
+      </c>
+      <c r="H61" s="6">
+        <v>15.371</v>
+      </c>
+      <c r="I61" s="6">
+        <v>-73</v>
+      </c>
+      <c r="J61" s="6">
+        <v>51.457000000000001</v>
+      </c>
+      <c r="K61" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="L61" s="6">
+        <v>1</v>
+      </c>
+      <c r="M61" s="6">
+        <v>1</v>
+      </c>
+      <c r="N61" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="O61" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="P61" s="6">
+        <v>500</v>
+      </c>
+      <c r="Q61" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="R61" s="6">
+        <v>2</v>
+      </c>
+      <c r="S61" s="6">
+        <v>17.806999999999999</v>
+      </c>
+      <c r="T61" s="6">
+        <v>32.393000000000001</v>
+      </c>
+      <c r="U61" s="6">
+        <v>7.899975674986611</v>
+      </c>
+      <c r="V61" s="6">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="W61" s="6"/>
+      <c r="X61" s="6"/>
+      <c r="Y61" s="6"/>
+      <c r="Z61" s="6"/>
+      <c r="AA61" s="6"/>
+      <c r="AB61" s="6"/>
+      <c r="AC61" s="6"/>
+      <c r="AD61" s="6"/>
+      <c r="AE61" s="22">
+        <v>46029</v>
+      </c>
+    </row>
+    <row r="62" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A62" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E62" s="10">
+        <v>45954</v>
+      </c>
+      <c r="F62" s="11">
+        <v>0.66319444444444442</v>
+      </c>
+      <c r="G62" s="5">
+        <v>40</v>
+      </c>
+      <c r="H62" s="5">
+        <v>15.423</v>
+      </c>
+      <c r="I62" s="5">
+        <v>-73</v>
+      </c>
+      <c r="J62" s="5">
+        <v>51.52</v>
+      </c>
+      <c r="K62" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="L62" s="5">
+        <v>2</v>
+      </c>
+      <c r="M62" s="5">
+        <v>1</v>
+      </c>
+      <c r="N62" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O62" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="P62" s="5">
+        <v>500</v>
+      </c>
+      <c r="Q62" s="5"/>
+      <c r="R62" s="5">
+        <v>2</v>
+      </c>
+      <c r="S62" s="5">
+        <v>17.806999999999999</v>
+      </c>
+      <c r="T62" s="5">
+        <v>32.393000000000001</v>
+      </c>
+      <c r="U62" s="5"/>
+      <c r="V62" s="5"/>
+      <c r="W62" s="5">
+        <v>2187.1152164021305</v>
+      </c>
+      <c r="X62" s="5"/>
+      <c r="Y62" s="5">
+        <v>1990.9670437409486</v>
+      </c>
+      <c r="Z62" s="5"/>
+      <c r="AA62" s="25">
+        <v>7.8959548015883216</v>
+      </c>
+      <c r="AB62" s="26">
+        <f>U63-AA62</f>
+        <v>1.2274791052720779E-2</v>
+      </c>
+      <c r="AC62" s="5">
+        <v>1</v>
+      </c>
+      <c r="AD62" s="5"/>
+      <c r="AE62" s="24">
+        <v>46029</v>
+      </c>
+    </row>
+    <row r="63" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A63" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E63" s="8">
+        <v>45954</v>
+      </c>
+      <c r="F63" s="9">
+        <v>0.66319444444444442</v>
+      </c>
+      <c r="G63" s="6">
+        <v>40</v>
+      </c>
+      <c r="H63" s="6">
+        <v>15.423</v>
+      </c>
+      <c r="I63" s="6">
+        <v>-73</v>
+      </c>
+      <c r="J63" s="6">
+        <v>51.52</v>
+      </c>
+      <c r="K63" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="L63" s="6">
+        <v>2</v>
+      </c>
+      <c r="M63" s="6">
+        <v>1</v>
+      </c>
+      <c r="N63" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="O63" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="P63" s="6">
+        <v>500</v>
+      </c>
+      <c r="Q63" s="6"/>
+      <c r="R63" s="6">
+        <v>2</v>
+      </c>
+      <c r="S63" s="6">
+        <v>17.806999999999999</v>
+      </c>
+      <c r="T63" s="6">
+        <v>32.393000000000001</v>
+      </c>
+      <c r="U63" s="19">
+        <v>7.9082295926410424</v>
+      </c>
+      <c r="V63" s="6">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="W63" s="6"/>
+      <c r="X63" s="6"/>
+      <c r="Y63" s="6"/>
+      <c r="Z63" s="6"/>
+      <c r="AA63" s="6"/>
+      <c r="AB63" s="6"/>
+      <c r="AC63" s="6"/>
+      <c r="AD63" s="6"/>
+      <c r="AE63" s="22">
+        <v>46029</v>
+      </c>
+    </row>
+    <row r="64" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A64" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E64" s="10">
+        <v>45954</v>
+      </c>
+      <c r="F64" s="11">
+        <v>0.66597222222222219</v>
+      </c>
+      <c r="G64" s="5">
+        <v>40</v>
+      </c>
+      <c r="H64" s="5">
+        <v>15.423</v>
+      </c>
+      <c r="I64" s="5">
+        <v>-73</v>
+      </c>
+      <c r="J64" s="5">
+        <v>51.52</v>
+      </c>
+      <c r="K64" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="L64" s="5">
+        <v>3</v>
+      </c>
+      <c r="M64" s="5">
+        <v>1</v>
+      </c>
+      <c r="N64" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O64" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="P64" s="5">
+        <v>500</v>
+      </c>
+      <c r="Q64" s="5"/>
+      <c r="R64" s="5">
+        <v>8</v>
+      </c>
+      <c r="S64" s="5">
+        <v>17.797000000000001</v>
+      </c>
+      <c r="T64" s="5">
+        <v>32.4</v>
+      </c>
+      <c r="U64" s="5"/>
+      <c r="V64" s="5"/>
+      <c r="W64" s="5">
+        <v>2185.0809132517866</v>
+      </c>
+      <c r="X64" s="5"/>
+      <c r="Y64" s="5">
+        <v>1990.1287120582481</v>
+      </c>
+      <c r="Z64" s="5"/>
+      <c r="AA64" s="25">
+        <v>7.8935131225408464</v>
+      </c>
+      <c r="AB64" s="5">
+        <f>U65-AA64</f>
+        <v>6.783958407158508E-3</v>
+      </c>
+      <c r="AC64" s="5">
+        <v>1</v>
+      </c>
+      <c r="AD64" s="5"/>
+      <c r="AE64" s="24">
+        <v>46029</v>
+      </c>
+    </row>
+    <row r="65" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A65" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E65" s="8">
+        <v>45954</v>
+      </c>
+      <c r="F65" s="9">
+        <v>0.66597222222222219</v>
+      </c>
+      <c r="G65" s="6">
+        <v>40</v>
+      </c>
+      <c r="H65" s="6">
+        <v>15.423</v>
+      </c>
+      <c r="I65" s="6">
+        <v>-73</v>
+      </c>
+      <c r="J65" s="6">
+        <v>51.52</v>
+      </c>
+      <c r="K65" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="L65" s="6">
+        <v>3</v>
+      </c>
+      <c r="M65" s="6">
+        <v>1</v>
+      </c>
+      <c r="N65" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="O65" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="P65" s="6">
+        <v>500</v>
+      </c>
+      <c r="Q65" s="6"/>
+      <c r="R65" s="6">
+        <v>8</v>
+      </c>
+      <c r="S65" s="6">
+        <v>17.797000000000001</v>
+      </c>
+      <c r="T65" s="6">
+        <v>32.4</v>
+      </c>
+      <c r="U65" s="6">
+        <v>7.9002970809480049</v>
+      </c>
+      <c r="V65" s="6">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="W65" s="6"/>
+      <c r="X65" s="6"/>
+      <c r="Y65" s="6"/>
+      <c r="Z65" s="6"/>
+      <c r="AA65" s="6"/>
+      <c r="AB65" s="6"/>
+      <c r="AC65" s="6"/>
+      <c r="AD65" s="6"/>
+      <c r="AE65" s="22">
+        <v>46029</v>
+      </c>
+    </row>
+    <row r="66" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>15</v>
+      </c>
+      <c r="B66" t="s">
+        <v>113</v>
+      </c>
+      <c r="C66" t="s">
+        <v>123</v>
+      </c>
+      <c r="D66" t="s">
+        <v>24</v>
+      </c>
+      <c r="E66" s="3">
+        <v>45954</v>
+      </c>
+      <c r="F66" s="4">
+        <v>0.67083333333333328</v>
+      </c>
+      <c r="G66">
+        <v>40</v>
+      </c>
+      <c r="H66">
+        <v>15.423</v>
+      </c>
+      <c r="I66">
+        <v>-73</v>
+      </c>
+      <c r="J66">
+        <v>51.52</v>
+      </c>
+      <c r="K66" t="s">
+        <v>120</v>
+      </c>
+      <c r="L66">
+        <v>4</v>
+      </c>
+      <c r="M66">
+        <v>1</v>
+      </c>
+      <c r="N66" t="s">
+        <v>40</v>
+      </c>
+      <c r="O66" t="s">
+        <v>108</v>
+      </c>
+      <c r="P66">
+        <v>500</v>
+      </c>
+      <c r="R66">
+        <v>8</v>
+      </c>
+      <c r="S66">
+        <v>17.797000000000001</v>
+      </c>
+      <c r="T66">
+        <v>32.4</v>
+      </c>
+      <c r="W66">
+        <v>2190.1782570681703</v>
+      </c>
+      <c r="Y66">
+        <v>1990.5226269453001</v>
+      </c>
+      <c r="AA66" s="25">
+        <v>7.9030985726270799</v>
+      </c>
+      <c r="AB66">
+        <f>U67-AA66</f>
+        <v>5.8758288200584374E-3</v>
+      </c>
+      <c r="AC66">
+        <v>1</v>
+      </c>
+      <c r="AE66" s="24">
+        <v>46029</v>
+      </c>
+    </row>
+    <row r="67" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A67" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E67" s="8">
+        <v>45954</v>
+      </c>
+      <c r="F67" s="9">
+        <v>0.67083333333333328</v>
+      </c>
+      <c r="G67" s="6">
+        <v>40</v>
+      </c>
+      <c r="H67" s="6">
+        <v>15.423</v>
+      </c>
+      <c r="I67" s="6">
+        <v>-73</v>
+      </c>
+      <c r="J67" s="6">
+        <v>51.52</v>
+      </c>
+      <c r="K67" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="L67" s="6">
+        <v>4</v>
+      </c>
+      <c r="M67" s="6">
+        <v>1</v>
+      </c>
+      <c r="N67" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="O67" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="P67" s="6">
+        <v>500</v>
+      </c>
+      <c r="Q67" s="6"/>
+      <c r="R67" s="6">
+        <v>8</v>
+      </c>
+      <c r="S67" s="6">
+        <v>17.797000000000001</v>
+      </c>
+      <c r="T67" s="6">
+        <v>32.4</v>
+      </c>
+      <c r="U67" s="6">
+        <v>7.9089744014471384</v>
+      </c>
+      <c r="V67" s="6">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="W67" s="6"/>
+      <c r="X67" s="6"/>
+      <c r="Y67" s="6"/>
+      <c r="Z67" s="6"/>
+      <c r="AA67" s="6"/>
+      <c r="AB67" s="6"/>
+      <c r="AC67" s="6"/>
+      <c r="AD67" s="6"/>
+      <c r="AE67" s="22">
+        <v>46029</v>
+      </c>
+    </row>
+    <row r="68" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A68" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E68" s="10">
+        <v>45982</v>
+      </c>
+      <c r="F68" s="11">
+        <v>0.63958333333333328</v>
+      </c>
+      <c r="G68" s="5">
+        <v>39</v>
+      </c>
+      <c r="H68" s="5">
+        <v>20.635999999999999</v>
+      </c>
+      <c r="I68" s="5">
+        <v>-74</v>
+      </c>
+      <c r="J68" s="5">
+        <v>17.972999999999999</v>
+      </c>
+      <c r="K68" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="L68" s="5">
+        <v>1</v>
+      </c>
+      <c r="M68" s="5">
+        <v>1</v>
+      </c>
+      <c r="N68" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="O68" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="P68" s="5">
+        <v>500</v>
+      </c>
+      <c r="Q68" s="5"/>
+      <c r="R68" s="5">
+        <v>8</v>
+      </c>
+      <c r="S68" s="5">
+        <v>11.0213</v>
+      </c>
+      <c r="T68" s="5">
+        <v>31.828700000000001</v>
+      </c>
+      <c r="U68" s="5"/>
+      <c r="V68" s="5"/>
+      <c r="W68" s="5">
+        <v>2177.0056170653156</v>
+      </c>
+      <c r="X68" s="5"/>
+      <c r="Y68" s="5">
+        <v>2016.2684999477437</v>
+      </c>
+      <c r="Z68" s="5"/>
+      <c r="AA68" s="25">
+        <v>7.82292850845604</v>
+      </c>
+      <c r="AB68" s="5">
+        <f>U69-AA68</f>
+        <v>-3.7352760608566626E-3</v>
+      </c>
+      <c r="AC68" s="5">
+        <v>1</v>
+      </c>
+      <c r="AD68" s="5"/>
+      <c r="AE68" s="24">
+        <v>46029</v>
+      </c>
+    </row>
+    <row r="69" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A69" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E69" s="8">
+        <v>45982</v>
+      </c>
+      <c r="F69" s="9">
+        <v>0.63958333333333328</v>
+      </c>
+      <c r="G69" s="6">
+        <v>39</v>
+      </c>
+      <c r="H69" s="6">
+        <v>20.635999999999999</v>
+      </c>
+      <c r="I69" s="6">
+        <v>-74</v>
+      </c>
+      <c r="J69" s="6">
+        <v>17.972999999999999</v>
+      </c>
+      <c r="K69" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="L69" s="6">
+        <v>1</v>
+      </c>
+      <c r="M69" s="6">
+        <v>1</v>
+      </c>
+      <c r="N69" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O69" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="P69" s="6">
+        <v>500</v>
+      </c>
+      <c r="Q69" s="6"/>
+      <c r="R69" s="6">
+        <v>8</v>
+      </c>
+      <c r="S69" s="6">
+        <v>11.0213</v>
+      </c>
+      <c r="T69" s="6">
+        <v>31.828700000000001</v>
+      </c>
+      <c r="U69" s="6">
+        <v>7.8191932323951834</v>
+      </c>
+      <c r="V69" s="6">
+        <v>1E-4</v>
+      </c>
+      <c r="W69" s="6"/>
+      <c r="X69" s="6"/>
+      <c r="Y69" s="6"/>
+      <c r="Z69" s="6"/>
+      <c r="AA69" s="6"/>
+      <c r="AB69" s="6"/>
+      <c r="AC69" s="6"/>
+      <c r="AD69" s="6"/>
+      <c r="AE69" s="22">
+        <v>46029</v>
+      </c>
+    </row>
+    <row r="70" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A70" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E70" s="10">
+        <v>45982</v>
+      </c>
+      <c r="F70" s="11">
+        <v>0.63958333333333328</v>
+      </c>
+      <c r="G70" s="5">
+        <v>39</v>
+      </c>
+      <c r="H70" s="5">
+        <v>20.635999999999999</v>
+      </c>
+      <c r="I70" s="5">
+        <v>-74</v>
+      </c>
+      <c r="J70" s="5">
+        <v>17.972999999999999</v>
+      </c>
+      <c r="K70" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="L70" s="5">
+        <v>1</v>
+      </c>
+      <c r="M70" s="5">
+        <v>2</v>
+      </c>
+      <c r="N70" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="O70" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="P70" s="5">
+        <v>500</v>
+      </c>
+      <c r="Q70" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="R70" s="5">
+        <v>2</v>
+      </c>
+      <c r="S70" s="5">
+        <v>11.030900000000001</v>
+      </c>
+      <c r="T70" s="5">
+        <v>31.847100000000001</v>
+      </c>
+      <c r="U70" s="5"/>
+      <c r="V70" s="5"/>
+      <c r="W70" s="5">
+        <v>2176.0882189727627</v>
+      </c>
+      <c r="X70" s="5"/>
+      <c r="Y70" s="5">
+        <v>2013.1979839050828</v>
+      </c>
+      <c r="Z70" s="5"/>
+      <c r="AA70" s="25">
+        <v>7.8279999295156006</v>
+      </c>
+      <c r="AB70" s="5">
+        <f>U71-AA70</f>
+        <v>-1.9064583165624427E-3</v>
+      </c>
+      <c r="AC70" s="5">
+        <v>1</v>
+      </c>
+      <c r="AD70" s="5"/>
+      <c r="AE70" s="24">
+        <v>46029</v>
+      </c>
+    </row>
+    <row r="71" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A71" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E71" s="8">
+        <v>45982</v>
+      </c>
+      <c r="F71" s="9">
+        <v>0.63958333333333328</v>
+      </c>
+      <c r="G71" s="6">
+        <v>39</v>
+      </c>
+      <c r="H71" s="6">
+        <v>20.635999999999999</v>
+      </c>
+      <c r="I71" s="6">
+        <v>-74</v>
+      </c>
+      <c r="J71" s="6">
+        <v>17.972999999999999</v>
+      </c>
+      <c r="K71" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="L71" s="6">
+        <v>1</v>
+      </c>
+      <c r="M71" s="6">
+        <v>2</v>
+      </c>
+      <c r="N71" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O71" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="P71" s="6">
+        <v>500</v>
+      </c>
+      <c r="Q71" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="R71" s="6">
+        <v>2</v>
+      </c>
+      <c r="S71" s="6">
+        <v>11.030900000000001</v>
+      </c>
+      <c r="T71" s="6">
+        <v>31.847100000000001</v>
+      </c>
+      <c r="U71" s="6">
+        <v>7.8260934711990382</v>
+      </c>
+      <c r="V71" s="6">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="W71" s="6"/>
+      <c r="X71" s="6"/>
+      <c r="Y71" s="6"/>
+      <c r="Z71" s="6"/>
+      <c r="AA71" s="6"/>
+      <c r="AB71" s="6"/>
+      <c r="AC71" s="6"/>
+      <c r="AD71" s="6"/>
+      <c r="AE71" s="22">
+        <v>46029</v>
+      </c>
+    </row>
+    <row r="72" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A72" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E72" s="10">
+        <v>45982</v>
+      </c>
+      <c r="F72" s="11">
+        <v>0.65347222222222223</v>
+      </c>
+      <c r="G72" s="5">
+        <v>39</v>
+      </c>
+      <c r="H72" s="5">
+        <v>20.597000000000001</v>
+      </c>
+      <c r="I72" s="5">
+        <v>-74</v>
+      </c>
+      <c r="J72" s="5">
+        <v>17.940000000000001</v>
+      </c>
+      <c r="K72" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="L72" s="5">
+        <v>2</v>
+      </c>
+      <c r="M72" s="5">
+        <v>1</v>
+      </c>
+      <c r="N72" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="O72" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="P72" s="5">
+        <v>500</v>
+      </c>
+      <c r="Q72" s="5"/>
+      <c r="R72" s="5">
+        <v>8</v>
+      </c>
+      <c r="S72" s="5">
+        <v>11.024900000000001</v>
+      </c>
+      <c r="T72" s="5">
+        <v>31.876100000000001</v>
+      </c>
+      <c r="U72" s="5"/>
+      <c r="V72" s="5"/>
+      <c r="W72" s="5">
+        <v>2176.6865220766017</v>
+      </c>
+      <c r="X72" s="5"/>
+      <c r="Y72" s="5">
+        <v>2017.1977350659176</v>
+      </c>
+      <c r="Z72" s="5"/>
+      <c r="AA72" s="25">
+        <v>7.819342148658154</v>
+      </c>
+      <c r="AB72" s="5">
+        <f>U73-AA72</f>
+        <v>-1.8871177428705366E-3</v>
+      </c>
+      <c r="AC72" s="5">
+        <v>1</v>
+      </c>
+      <c r="AD72" s="5"/>
+      <c r="AE72" s="24">
+        <v>46029</v>
+      </c>
+    </row>
+    <row r="73" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A73" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E73" s="8">
+        <v>45982</v>
+      </c>
+      <c r="F73" s="9">
+        <v>0.65347222222222223</v>
+      </c>
+      <c r="G73" s="6">
+        <v>39</v>
+      </c>
+      <c r="H73" s="6">
+        <v>20.597000000000001</v>
+      </c>
+      <c r="I73" s="6">
+        <v>-74</v>
+      </c>
+      <c r="J73" s="6">
+        <v>17.940000000000001</v>
+      </c>
+      <c r="K73" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="L73" s="6">
+        <v>2</v>
+      </c>
+      <c r="M73" s="6">
+        <v>1</v>
+      </c>
+      <c r="N73" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O73" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="P73" s="6">
+        <v>500</v>
+      </c>
+      <c r="Q73" s="6"/>
+      <c r="R73" s="6">
+        <v>8</v>
+      </c>
+      <c r="S73" s="6">
+        <v>11.024900000000001</v>
+      </c>
+      <c r="T73" s="6">
+        <v>31.876100000000001</v>
+      </c>
+      <c r="U73" s="6">
+        <v>7.8174550309152835</v>
+      </c>
+      <c r="V73" s="6">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="W73" s="6"/>
+      <c r="X73" s="6"/>
+      <c r="Y73" s="6"/>
+      <c r="Z73" s="6"/>
+      <c r="AA73" s="6"/>
+      <c r="AB73" s="6"/>
+      <c r="AC73" s="6"/>
+      <c r="AD73" s="6"/>
+      <c r="AE73" s="22">
+        <v>46029</v>
+      </c>
+    </row>
+    <row r="74" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A74" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E74" s="10">
+        <v>45982</v>
+      </c>
+      <c r="F74" s="11">
+        <v>0.65347222222222223</v>
+      </c>
+      <c r="G74" s="5">
+        <v>39</v>
+      </c>
+      <c r="H74" s="5">
+        <v>20.597000000000001</v>
+      </c>
+      <c r="I74" s="5">
+        <v>-74</v>
+      </c>
+      <c r="J74" s="5">
+        <v>17.940000000000001</v>
+      </c>
+      <c r="K74" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="L74" s="5">
+        <v>2</v>
+      </c>
+      <c r="M74" s="5">
+        <v>2</v>
+      </c>
+      <c r="N74" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="O74" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="P74" s="5">
+        <v>500</v>
+      </c>
+      <c r="Q74" s="5"/>
+      <c r="R74" s="5">
+        <v>2</v>
+      </c>
+      <c r="S74" s="5">
+        <v>11.044</v>
+      </c>
+      <c r="T74" s="5">
+        <v>31.867000000000001</v>
+      </c>
+      <c r="U74" s="5"/>
+      <c r="V74" s="5"/>
+      <c r="W74" s="5"/>
+      <c r="X74" s="5"/>
+      <c r="Y74" s="5"/>
+      <c r="Z74" s="5"/>
+      <c r="AA74" s="5"/>
+      <c r="AB74" s="5"/>
+      <c r="AC74" s="5"/>
+      <c r="AD74" s="5"/>
+      <c r="AE74" s="13"/>
+    </row>
+    <row r="75" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A75" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E75" s="8">
+        <v>45982</v>
+      </c>
+      <c r="F75" s="9">
+        <v>0.65347222222222223</v>
+      </c>
+      <c r="G75" s="6">
+        <v>39</v>
+      </c>
+      <c r="H75" s="6">
+        <v>20.597000000000001</v>
+      </c>
+      <c r="I75" s="6">
+        <v>-74</v>
+      </c>
+      <c r="J75" s="6">
+        <v>17.940000000000001</v>
+      </c>
+      <c r="K75" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="L75" s="6">
+        <v>2</v>
+      </c>
+      <c r="M75" s="6">
+        <v>2</v>
+      </c>
+      <c r="N75" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O75" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="P75" s="6">
+        <v>500</v>
+      </c>
+      <c r="Q75" s="6"/>
+      <c r="R75" s="6">
+        <v>2</v>
+      </c>
+      <c r="S75" s="6">
+        <v>11.044</v>
+      </c>
+      <c r="T75" s="6">
+        <v>31.867000000000001</v>
+      </c>
+      <c r="U75" s="6"/>
+      <c r="V75" s="6"/>
+      <c r="W75" s="6"/>
+      <c r="X75" s="6"/>
+      <c r="Y75" s="6"/>
+      <c r="Z75" s="6"/>
+      <c r="AA75" s="6"/>
+      <c r="AB75" s="6"/>
+      <c r="AC75" s="6"/>
+      <c r="AD75" s="6"/>
+      <c r="AE75" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
